--- a/Document/line_and_free_game_v3.xlsx
+++ b/Document/line_and_free_game_v3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\SlotSimulation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A36E91-35B1-45A5-8EBE-F77E04CA05F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3AEC9-1C47-4720-B4EA-CBC7A08B4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25665" yWindow="0" windowWidth="26040" windowHeight="20985" activeTab="1" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
+    <workbookView xWindow="6540" yWindow="2010" windowWidth="30465" windowHeight="17550" activeTab="2" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
     <sheet name="Pay Table" sheetId="3" r:id="rId2"/>
-    <sheet name="Base Reel" sheetId="1" r:id="rId3"/>
+    <sheet name="Base Game Reel" sheetId="1" r:id="rId3"/>
     <sheet name="Free Game Reel" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -295,8 +295,8 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -540,31 +540,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,6 +566,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61ECFED-FDEB-460A-9D88-C9A979303FD6}">
   <dimension ref="B3:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,178 +990,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="29">
         <v>300</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="29">
         <v>100</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="29">
         <v>250</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>80</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <v>100</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>50</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="29">
         <v>100</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="29">
         <v>50</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="29">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="34">
+      <c r="B9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29">
         <v>80</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="29">
         <v>30</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
         <v>50</v>
       </c>
-      <c r="D10" s="34">
-        <v>15</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="29">
+        <v>15</v>
+      </c>
+      <c r="E10" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="34">
+      <c r="B11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="29">
         <v>25</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="29">
         <v>10</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="34">
+      <c r="B12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="29">
         <v>25</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="29">
         <v>10</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="34">
+      <c r="B13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="29">
         <v>25</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="29">
         <v>10</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="B14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="29">
         <v>25</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="29">
         <v>10</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="37">
+      <c r="B15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="32">
         <v>20</v>
       </c>
-      <c r="D15" s="37">
-        <v>15</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="D15" s="32">
+        <v>15</v>
+      </c>
+      <c r="E15" s="32">
         <v>10</v>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34BBB1-4271-466A-86C7-92B04A304A75}">
   <dimension ref="B3:V125"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
@@ -1822,11 +1822,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="33">
         <f>PRODUCT(J16:N16)</f>
         <v>6272640000</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -2903,13 +2903,13 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
@@ -5209,13 +5209,13 @@
       <c r="I83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="27" t="s">
+      <c r="J83" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="28"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="37"/>
       <c r="O83" s="8" t="s">
         <v>0</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="S111" t="s">
         <v>69</v>
       </c>
-      <c r="T111" s="29">
+      <c r="T111" s="24">
         <f>V77+U108</f>
         <v>0.27745870478777673</v>
       </c>
@@ -6378,7 +6378,7 @@
       <c r="S112" t="s">
         <v>70</v>
       </c>
-      <c r="T112" s="29">
+      <c r="T112" s="24">
         <f>'Free Game Reel'!W110</f>
         <v>10.549870146988539</v>
       </c>
@@ -7076,11 +7076,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="33">
         <f>PRODUCT(J16:N16)</f>
         <v>6159110400</v>
       </c>
-      <c r="N17" s="25"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -8157,13 +8157,13 @@
       <c r="G46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="I46" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="17" t="s">
         <v>54</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" ref="R57:R66" si="34">N34</f>
+        <f t="shared" ref="R58:R66" si="34">N34</f>
         <v>105</v>
       </c>
       <c r="S58" s="12">
@@ -10444,13 +10444,13 @@
       <c r="I82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J82" s="27" t="s">
+      <c r="J82" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="28"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="37"/>
       <c r="O82" s="8" t="s">
         <v>0</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="U102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V102" s="31" t="s">
+      <c r="V102" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11492,18 +11492,18 @@
         <f>SUM(T82:T91)</f>
         <v>226290375</v>
       </c>
-      <c r="T103" s="32">
+      <c r="T103" s="27">
         <f>SUM(U82:U91)</f>
         <v>3.6740756424823946E-2</v>
       </c>
       <c r="U103" s="1">
         <v>10</v>
       </c>
-      <c r="V103" s="29">
+      <c r="V103" s="24">
         <f>U103/$U$108</f>
         <v>10.396524989629299</v>
       </c>
-      <c r="W103" s="30">
+      <c r="W103" s="25">
         <f>V103*$V$77</f>
         <v>2.2953531864661869</v>
       </c>
@@ -11535,18 +11535,18 @@
         <f>SUM(T93:T97)</f>
         <v>16706250</v>
       </c>
-      <c r="T104" s="32">
+      <c r="T104" s="27">
         <f>SUM(U83:U92)</f>
         <v>4.1014912640630695E-2</v>
       </c>
       <c r="U104" s="1">
         <v>15</v>
       </c>
-      <c r="V104" s="29">
+      <c r="V104" s="24">
         <f>U104/$U$108</f>
         <v>15.594787484443948</v>
       </c>
-      <c r="W104" s="30">
+      <c r="W104" s="25">
         <f t="shared" ref="W104:W105" si="60">V104*$V$77</f>
         <v>3.4430297796992808</v>
       </c>
@@ -11568,18 +11568,18 @@
         <f>T100</f>
         <v>759375</v>
       </c>
-      <c r="T105" s="32">
+      <c r="T105" s="27">
         <f>SUM(U84:U93)</f>
         <v>3.6683767675279859E-2</v>
       </c>
       <c r="U105" s="1">
         <v>20</v>
       </c>
-      <c r="V105" s="29">
+      <c r="V105" s="24">
         <f>U105/$U$108</f>
         <v>20.793049979258598</v>
       </c>
-      <c r="W105" s="30">
+      <c r="W105" s="25">
         <f t="shared" si="60"/>
         <v>4.5907063729323738</v>
       </c>
@@ -11596,7 +11596,7 @@
       </c>
       <c r="T106" s="18"/>
       <c r="U106" s="1"/>
-      <c r="W106" s="30">
+      <c r="W106" s="25">
         <f>SUM(W103:W105)</f>
         <v>10.329089339097841</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="G110" t="s">
         <v>12</v>
       </c>
-      <c r="W110" s="29">
+      <c r="W110" s="24">
         <f>V77+W106</f>
         <v>10.549870146988539</v>
       </c>

--- a/Document/line_and_free_game_v3.xlsx
+++ b/Document/line_and_free_game_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\SlotSimulation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3AEC9-1C47-4720-B4EA-CBC7A08B4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01598F-248C-4169-844D-23EE7D3A14EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2010" windowWidth="30465" windowHeight="17550" activeTab="2" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -297,6 +297,9 @@
     <numFmt numFmtId="179" formatCode="0.0000000"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="0.00000"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -467,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +584,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34BBB1-4271-466A-86C7-92B04A304A75}">
-  <dimension ref="B3:V125"/>
+  <dimension ref="B3:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q107" sqref="Q107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W102" sqref="W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,8 +1217,12 @@
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.125" customWidth="1"/>
+    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -2394,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -2480,7 +2505,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -2523,7 +2548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -2566,7 +2591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -2609,7 +2634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -2652,7 +2677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -2695,7 +2720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -2738,7 +2763,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -2781,7 +2806,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -2824,7 +2849,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -2844,7 +2869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -2864,7 +2889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -2884,7 +2909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -2937,8 +2962,10 @@
       <c r="V46" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -3007,8 +3034,13 @@
         <f t="shared" ref="V47:V76" si="22">U47/$M$17</f>
         <v>3.2139577594123047E-4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="41"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -3077,8 +3109,13 @@
         <f t="shared" si="22"/>
         <v>1.8365472910927456E-4</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="41"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -3147,8 +3184,13 @@
         <f t="shared" si="22"/>
         <v>6.2493623099683709E-4</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="41"/>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -3217,8 +3259,13 @@
         <f t="shared" si="22"/>
         <v>1.1019283746556473E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="42"/>
+      <c r="AB50" s="41"/>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -3287,8 +3334,13 @@
         <f t="shared" si="22"/>
         <v>1.7458677685950412E-3</v>
       </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="41"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -3357,8 +3409,13 @@
         <f t="shared" si="22"/>
         <v>1.3257575757575758E-3</v>
       </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="41"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -3427,8 +3484,13 @@
         <f t="shared" si="22"/>
         <v>1.6812059993878176E-3</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="41"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -3497,8 +3559,13 @@
         <f t="shared" si="22"/>
         <v>2.0890725436179983E-3</v>
       </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="41"/>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -3567,8 +3634,13 @@
         <f t="shared" si="22"/>
         <v>1.3201777879808183E-3</v>
       </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="41"/>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -3637,8 +3709,13 @@
         <f t="shared" si="22"/>
         <v>2.2631619222528315E-3</v>
       </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="41"/>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -3705,8 +3782,13 @@
         <f t="shared" si="22"/>
         <v>2.8389960208142027E-3</v>
       </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="41"/>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -3773,8 +3855,13 @@
         <f t="shared" si="22"/>
         <v>1.5573921028466484E-3</v>
       </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="41"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -3841,8 +3928,13 @@
         <f t="shared" si="22"/>
         <v>4.5977451280481583E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="41"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -3909,8 +4001,13 @@
         <f t="shared" si="22"/>
         <v>7.0247933884297524E-3</v>
       </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="41"/>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -3977,8 +4074,13 @@
         <f t="shared" si="22"/>
         <v>7.3471935261707989E-3</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="41"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4045,8 +4147,13 @@
         <f t="shared" si="22"/>
         <v>2.5189393939393941E-3</v>
       </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="41"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4113,8 +4220,13 @@
         <f t="shared" si="22"/>
         <v>5.017753290480563E-3</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="41"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4181,8 +4293,13 @@
         <f t="shared" si="22"/>
         <v>5.292317110498929E-3</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="41"/>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4249,8 +4366,13 @@
         <f t="shared" si="22"/>
         <v>3.6210590756045303E-3</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="41"/>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4317,8 +4439,13 @@
         <f t="shared" si="22"/>
         <v>5.7333435363738396E-3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="41"/>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4365,7 +4492,7 @@
         <v>74</v>
       </c>
       <c r="R67" s="1">
-        <f>J16</f>
+        <f>N16</f>
         <v>110</v>
       </c>
       <c r="S67" s="12">
@@ -4383,8 +4510,13 @@
         <f t="shared" si="22"/>
         <v>6.2289562289562289E-3</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="41"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4431,26 +4563,31 @@
         <v>77</v>
       </c>
       <c r="R68" s="1">
-        <f>K16</f>
-        <v>80</v>
+        <f>N16</f>
+        <v>110</v>
       </c>
       <c r="S68" s="12">
         <f t="shared" si="23"/>
-        <v>1774080</v>
+        <v>2439360</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
         <f t="shared" si="24"/>
-        <v>35481600</v>
+        <v>48787200</v>
       </c>
       <c r="V68">
         <f t="shared" si="22"/>
-        <v>5.6565656565656566E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+        <v>7.7777777777777776E-3</v>
+      </c>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="41"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4515,8 +4652,13 @@
         <f t="shared" si="22"/>
         <v>1.7922278338945007E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="41"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -4581,8 +4723,13 @@
         <f t="shared" si="22"/>
         <v>2.4242424242424242E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="41"/>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -4647,8 +4794,13 @@
         <f t="shared" si="22"/>
         <v>2.8406723484848486E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="41"/>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -4713,8 +4865,13 @@
         <f t="shared" si="22"/>
         <v>8.8715277777777785E-3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="40"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="41"/>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -4779,8 +4936,13 @@
         <f t="shared" si="22"/>
         <v>1.6359427609427608E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="41"/>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4845,8 +5007,13 @@
         <f t="shared" si="22"/>
         <v>1.7617845117845119E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="40"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="41"/>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -4911,8 +5078,13 @@
         <f t="shared" si="22"/>
         <v>1.4729412177328843E-2</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="41"/>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -4977,8 +5149,13 @@
         <f t="shared" si="22"/>
         <v>1.7362514029180695E-2</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="41"/>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -4997,13 +5174,17 @@
       <c r="G77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U77" s="1"/>
+      <c r="U77" s="38">
+        <f>SUM(U47:U76)</f>
+        <v>1365714170</v>
+      </c>
       <c r="V77">
         <f>SUM(V47:V76)</f>
-        <v>0.21560436594480153</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.21772557806601367</v>
+      </c>
+      <c r="Z77" s="39"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -5023,7 +5204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -5058,7 +5239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -6359,9 +6540,9 @@
       <c r="S111" t="s">
         <v>69</v>
       </c>
-      <c r="T111" s="24">
+      <c r="T111" s="43">
         <f>V77+U108</f>
-        <v>0.27745870478777673</v>
+        <v>0.27957991690898887</v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
@@ -6378,7 +6559,7 @@
       <c r="S112" t="s">
         <v>70</v>
       </c>
-      <c r="T112" s="24">
+      <c r="T112" s="43">
         <f>'Free Game Reel'!W110</f>
         <v>10.549870146988539</v>
       </c>
@@ -6393,9 +6574,9 @@
       <c r="G113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T113" s="21">
+      <c r="T113" s="43">
         <f>SUM(T111:T112)</f>
-        <v>10.827328851776315</v>
+        <v>10.829450063897529</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.3">
@@ -6424,8 +6605,9 @@
       <c r="N125" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I84:T99">
-    <sortCondition descending="1" ref="T84:T99"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X47:AA76">
+    <sortCondition descending="1" ref="Y47:Y76"/>
+    <sortCondition ref="X47:X76"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="M17:N17"/>
@@ -6441,7 +6623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D043-2C85-4F58-96B2-FCD5733F0D95}">
   <dimension ref="B3:X153"/>
   <sheetViews>
-    <sheetView topLeftCell="E68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W110" sqref="W110"/>
     </sheetView>
   </sheetViews>

--- a/Document/line_and_free_game_v3.xlsx
+++ b/Document/line_and_free_game_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\SlotSimulation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01598F-248C-4169-844D-23EE7D3A14EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6648A-CF1C-4F31-9057-7B5EA301EA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
+    <workbookView xWindow="15330" yWindow="0" windowWidth="36375" windowHeight="20985" activeTab="3" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="71">
   <si>
     <t>Reel 1</t>
   </si>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -297,11 +297,10 @@
     <numFmt numFmtId="179" formatCode="0.0000000"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="190" formatCode="0.00000"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,13 +393,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -462,15 +474,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +585,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,30 +606,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1002,7 +1065,7 @@
   <dimension ref="B3:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B5" sqref="B5:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1200,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34BBB1-4271-466A-86C7-92B04A304A75}">
-  <dimension ref="B3:AB125"/>
+  <dimension ref="B3:AC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W102" sqref="W102"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47:AB77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1221,7 +1284,7 @@
     <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.125" customWidth="1"/>
     <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1847,11 +1910,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="35">
         <f>PRODUCT(J16:N16)</f>
         <v>6272640000</v>
       </c>
-      <c r="N17" s="34"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -1997,23 +2060,23 @@
         <v>10</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J22:N22" si="7">J6+J$4</f>
         <v>4</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -2040,23 +2103,23 @@
         <v>14</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J23:N23" si="8">J7+J$4</f>
         <v>7</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
@@ -2083,23 +2146,23 @@
         <v>9</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J24:N24" si="9">J8+J$4</f>
         <v>8</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -2126,23 +2189,23 @@
         <v>8</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J25:N25" si="10">J9+J$4</f>
         <v>9</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -2169,23 +2232,23 @@
         <v>6</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J26:N26" si="11">J10+J$4</f>
         <v>11</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
@@ -2212,23 +2275,23 @@
         <v>11</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J27:N27" si="12">J11+J$4</f>
         <v>16</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
@@ -2255,23 +2318,23 @@
         <v>7</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J28:N28" si="13">J12+J$4</f>
         <v>16</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
     </row>
@@ -2298,23 +2361,23 @@
         <v>13</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J29:N29" si="14">J13+J$4</f>
         <v>14</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
@@ -2341,23 +2404,23 @@
         <v>5</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J30:N30" si="15">J14+J$4</f>
         <v>16</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
@@ -2419,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -2446,23 +2509,23 @@
         <v>106</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33:N33" si="7">K$16-K21</f>
+        <f t="shared" ref="K33:N33" si="16">K$16-K21</f>
         <v>70</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -2485,27 +2548,27 @@
         <v>10</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" ref="J34:N34" si="8">J$16-J22</f>
+        <f t="shared" ref="J34:N34" si="17">J$16-J22</f>
         <v>106</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>71</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -2528,27 +2591,27 @@
         <v>14</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:N35" si="9">J$16-J23</f>
+        <f t="shared" ref="J35:N35" si="18">J$16-J23</f>
         <v>103</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -2571,27 +2634,27 @@
         <v>9</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:N36" si="10">J$16-J24</f>
+        <f t="shared" ref="J36:N36" si="19">J$16-J24</f>
         <v>102</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -2614,27 +2677,27 @@
         <v>8</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:N37" si="11">J$16-J25</f>
+        <f t="shared" ref="J37:N37" si="20">J$16-J25</f>
         <v>101</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -2657,27 +2720,27 @@
         <v>6</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ref="J38:N38" si="12">J$16-J26</f>
+        <f t="shared" ref="J38:N38" si="21">J$16-J26</f>
         <v>99</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>66</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>73</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -2700,27 +2763,27 @@
         <v>11</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ref="J39:N39" si="13">J$16-J27</f>
+        <f t="shared" ref="J39:N39" si="22">J$16-J27</f>
         <v>94</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -2743,27 +2806,27 @@
         <v>7</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="14">J$16-J28</f>
+        <f t="shared" ref="J40:N40" si="23">J$16-J28</f>
         <v>94</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>67</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>66</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>69</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -2786,27 +2849,27 @@
         <v>13</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:N41" si="15">J$16-J29</f>
+        <f t="shared" ref="J41:N41" si="24">J$16-J29</f>
         <v>96</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>71</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -2829,27 +2892,27 @@
         <v>5</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:N42" si="16">J$16-J30</f>
+        <f t="shared" ref="J42:N42" si="25">J$16-J30</f>
         <v>94</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>66</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -2869,7 +2932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -2889,7 +2952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -2908,8 +2971,13 @@
       <c r="G45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -2928,13 +2996,13 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
       <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
@@ -2962,10 +3030,13 @@
       <c r="V46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -3000,23 +3071,23 @@
         <v>36</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N76" si="17">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N47:N76" si="26">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O76" si="18">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O47:O76" si="27">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
         <v>10</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P76" si="19">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P47:P76" si="28">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
         <v>6</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q66" si="20">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q47:Q66" si="29">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
         <v>7</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R56" si="21">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R47:R56" si="30">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S47" s="12">
@@ -3031,16 +3102,13 @@
         <v>2016000</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47:V76" si="22">U47/$M$17</f>
+        <f t="shared" ref="V47:V76" si="31">U47/$M$17</f>
         <v>3.2139577594123047E-4</v>
       </c>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="41"/>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC47" s="42"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -3075,47 +3143,44 @@
         <v>37</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N48:N57" si="32">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="O48:O57" si="33">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P48:P57" si="34">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
         <v>9</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q48:Q57" si="35">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="R48:R56" si="36">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" ref="S48:S76" si="23">PRODUCT(N48:R48)</f>
+        <f t="shared" ref="S48:S76" si="37">PRODUCT(N48:R48)</f>
         <v>4608</v>
       </c>
       <c r="T48" s="12">
         <v>250</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U76" si="24">T48*S48</f>
+        <f t="shared" ref="U48:U76" si="38">T48*S48</f>
         <v>1152000</v>
       </c>
       <c r="V48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.8365472910927456E-4</v>
       </c>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="41"/>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC48" s="42"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -3150,47 +3215,44 @@
         <v>38</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>39200</v>
       </c>
       <c r="T49" s="12">
         <v>100</v>
       </c>
       <c r="U49" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>3920000</v>
       </c>
       <c r="V49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>6.2493623099683709E-4</v>
       </c>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="41"/>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC49" s="42"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -3225,47 +3287,44 @@
         <v>39</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>69120</v>
       </c>
       <c r="T50" s="12">
         <v>100</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>6912000</v>
       </c>
       <c r="V50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.1019283746556473E-3</v>
       </c>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="41"/>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC50" s="42"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -3300,47 +3359,44 @@
         <v>40</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>136890</v>
       </c>
       <c r="T51" s="12">
         <v>80</v>
       </c>
       <c r="U51" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>10951200</v>
       </c>
       <c r="V51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.7458677685950412E-3</v>
       </c>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="41"/>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC51" s="42"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -3375,47 +3431,44 @@
         <v>41</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>166320</v>
       </c>
       <c r="T52" s="12">
         <v>50</v>
       </c>
       <c r="U52" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>8316000</v>
       </c>
       <c r="V52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.3257575757575758E-3</v>
       </c>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="41"/>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC52" s="42"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -3450,47 +3503,44 @@
         <v>42</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>421824</v>
       </c>
       <c r="T53" s="12">
         <v>25</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>10545600</v>
       </c>
       <c r="V53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.6812059993878176E-3</v>
       </c>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="41"/>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC53" s="42"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -3525,47 +3575,44 @@
         <v>43</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>524160</v>
       </c>
       <c r="T54" s="12">
         <v>25</v>
       </c>
       <c r="U54" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>13104000</v>
       </c>
       <c r="V54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.0890725436179983E-3</v>
       </c>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="41"/>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC54" s="42"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -3600,47 +3647,44 @@
         <v>44</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>331240</v>
       </c>
       <c r="T55" s="12">
         <v>25</v>
       </c>
       <c r="U55" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>8281000</v>
       </c>
       <c r="V55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.3201777879808183E-3</v>
       </c>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="41"/>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC55" s="43"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -3675,47 +3719,44 @@
         <v>45</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>567840</v>
       </c>
       <c r="T56" s="12">
         <v>25</v>
       </c>
       <c r="U56" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>14196000</v>
       </c>
       <c r="V56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.2631619222528315E-3</v>
       </c>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="41"/>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC56" s="45"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -3748,47 +3789,44 @@
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" ref="R57:R66" si="25">N33</f>
+        <f t="shared" ref="R57:R66" si="39">N33</f>
         <v>106</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>178080</v>
       </c>
       <c r="T57" s="12">
         <v>100</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>17808000</v>
       </c>
       <c r="V57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.8389960208142027E-3</v>
       </c>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="41"/>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC57" s="45"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -3821,47 +3859,44 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N58:N66" si="40">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="O58:O66" si="41">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="P58:P66" si="42">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
         <v>9</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Q58:Q66" si="43">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>106</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>122112</v>
       </c>
       <c r="T58" s="12">
         <v>80</v>
       </c>
       <c r="U58" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>9768960</v>
       </c>
       <c r="V58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.5573921028466484E-3</v>
       </c>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="41"/>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC58" s="45"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -3894,47 +3929,44 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>103</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>576800</v>
       </c>
       <c r="T59" s="12">
         <v>50</v>
       </c>
       <c r="U59" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>28840000</v>
       </c>
       <c r="V59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>4.5977451280481583E-3</v>
       </c>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="41"/>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC59" s="45"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -3967,47 +3999,44 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>102</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>881280</v>
       </c>
       <c r="T60" s="12">
         <v>50</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>44064000</v>
       </c>
       <c r="V60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7.0247933884297524E-3</v>
       </c>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="41"/>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC60" s="45"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -4040,47 +4069,44 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>101</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>1536210</v>
       </c>
       <c r="T61" s="12">
         <v>30</v>
       </c>
       <c r="U61" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>46086300</v>
       </c>
       <c r="V61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7.3471935261707989E-3</v>
       </c>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="41"/>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC61" s="45"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4113,47 +4139,44 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>11</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>1053360</v>
       </c>
       <c r="T62" s="12">
         <v>15</v>
       </c>
       <c r="U62" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>15800400</v>
       </c>
       <c r="V62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.5189393939393941E-3</v>
       </c>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="41"/>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC62" s="45"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4186,47 +4209,44 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>97</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>3147456</v>
       </c>
       <c r="T63" s="12">
         <v>10</v>
       </c>
       <c r="U63" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>31474560</v>
       </c>
       <c r="V63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>5.017753290480563E-3</v>
       </c>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="41"/>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC63" s="45"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4259,47 +4279,44 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>12</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>3319680</v>
       </c>
       <c r="T64" s="12">
         <v>10</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>33196800</v>
       </c>
       <c r="V64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>5.292317110498929E-3</v>
       </c>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="41"/>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC64" s="45"/>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4332,47 +4349,44 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>2271360</v>
       </c>
       <c r="T65" s="12">
         <v>10</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>22713600</v>
       </c>
       <c r="V65">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>3.6210590756045303E-3</v>
       </c>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="41"/>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC65" s="45"/>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4405,47 +4419,44 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>13</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>3596320</v>
       </c>
       <c r="T66" s="12">
         <v>10</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>35963200</v>
       </c>
       <c r="V66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>5.7333435363738396E-3</v>
       </c>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="41"/>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC66" s="45"/>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4476,15 +4487,15 @@
       <c r="L67" s="1"/>
       <c r="M67" s="11"/>
       <c r="N67" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="Q67" s="1">
@@ -4496,27 +4507,24 @@
         <v>110</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>1953600</v>
       </c>
       <c r="T67" s="12">
         <v>20</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>39072000</v>
       </c>
       <c r="V67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>6.2289562289562289E-3</v>
       </c>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="41"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC67" s="45"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4547,19 +4555,19 @@
       <c r="L68" s="1"/>
       <c r="M68" s="11"/>
       <c r="N68" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="26">M34</f>
+        <f t="shared" ref="Q68:Q76" si="44">M34</f>
         <v>77</v>
       </c>
       <c r="R68" s="1">
@@ -4567,27 +4575,24 @@
         <v>110</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>2439360</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>48787200</v>
       </c>
       <c r="V68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7.7777777777777776E-3</v>
       </c>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="42"/>
-      <c r="AB68" s="41"/>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC68" s="45"/>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4618,19 +4623,19 @@
       <c r="L69" s="1"/>
       <c r="M69" s="11"/>
       <c r="N69" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>73</v>
       </c>
       <c r="R69" s="1">
@@ -4638,27 +4643,24 @@
         <v>110</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>5621000</v>
       </c>
       <c r="T69" s="12">
         <v>20</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>112420000</v>
       </c>
       <c r="V69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.7922278338945007E-2</v>
       </c>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="41"/>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC69" s="45"/>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -4689,19 +4691,19 @@
       <c r="L70" s="1"/>
       <c r="M70" s="11"/>
       <c r="N70" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>72</v>
       </c>
       <c r="R70" s="1">
@@ -4709,27 +4711,24 @@
         <v>110</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>7603200</v>
       </c>
       <c r="T70" s="12">
         <v>20</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>152064000</v>
       </c>
       <c r="V70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.4242424242424242E-2</v>
       </c>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="41"/>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC70" s="45"/>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -4760,19 +4759,19 @@
       <c r="L71" s="1"/>
       <c r="M71" s="11"/>
       <c r="N71" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>71</v>
       </c>
       <c r="R71" s="1">
@@ -4780,27 +4779,24 @@
         <v>110</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>11879010</v>
       </c>
       <c r="T71" s="12">
         <v>15</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>178185150</v>
       </c>
       <c r="V71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.8406723484848486E-2</v>
       </c>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="41"/>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC71" s="45"/>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -4831,19 +4827,19 @@
       <c r="L72" s="1"/>
       <c r="M72" s="11"/>
       <c r="N72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>73</v>
       </c>
       <c r="R72" s="1">
@@ -4851,27 +4847,24 @@
         <v>110</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>11129580</v>
       </c>
       <c r="T72" s="12">
         <v>5</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>55647900</v>
       </c>
       <c r="V72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>8.8715277777777785E-3</v>
       </c>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="41"/>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC72" s="45"/>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -4902,19 +4895,19 @@
       <c r="L73" s="1"/>
       <c r="M73" s="11"/>
       <c r="N73" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>69</v>
       </c>
       <c r="R73" s="1">
@@ -4922,27 +4915,24 @@
         <v>110</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>20523360</v>
       </c>
       <c r="T73" s="12">
         <v>5</v>
       </c>
       <c r="U73" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>102616800</v>
       </c>
       <c r="V73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.6359427609427608E-2</v>
       </c>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="41"/>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC73" s="45"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4973,19 +4963,19 @@
       <c r="L74" s="1"/>
       <c r="M74" s="11"/>
       <c r="N74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>69</v>
       </c>
       <c r="R74" s="1">
@@ -4993,27 +4983,24 @@
         <v>110</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>22102080</v>
       </c>
       <c r="T74" s="12">
         <v>5</v>
       </c>
       <c r="U74" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>110510400</v>
       </c>
       <c r="V74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.7617845117845119E-2</v>
       </c>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="41"/>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC74" s="45"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -5044,19 +5031,19 @@
       <c r="L75" s="1"/>
       <c r="M75" s="11"/>
       <c r="N75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>71</v>
       </c>
       <c r="R75" s="1">
@@ -5064,27 +5051,24 @@
         <v>110</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>18478460</v>
       </c>
       <c r="T75" s="12">
         <v>5</v>
       </c>
       <c r="U75" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>92392300</v>
       </c>
       <c r="V75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.4729412177328843E-2</v>
       </c>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="41"/>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC75" s="45"/>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -5115,19 +5099,19 @@
       <c r="L76" s="1"/>
       <c r="M76" s="11"/>
       <c r="N76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="44"/>
         <v>68</v>
       </c>
       <c r="R76" s="1">
@@ -5135,27 +5119,24 @@
         <v>110</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>21781760</v>
       </c>
       <c r="T76" s="12">
         <v>5</v>
       </c>
       <c r="U76" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>108908800</v>
       </c>
       <c r="V76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.7362514029180695E-2</v>
       </c>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="41"/>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AC76" s="45"/>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -5174,7 +5155,7 @@
       <c r="G77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U77" s="38">
+      <c r="U77" s="33">
         <f>SUM(U47:U76)</f>
         <v>1365714170</v>
       </c>
@@ -5182,9 +5163,8 @@
         <f>SUM(V47:V76)</f>
         <v>0.21772557806601367</v>
       </c>
-      <c r="Z77" s="39"/>
-    </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -5204,7 +5184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -5239,7 +5219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -5266,19 +5246,19 @@
         <v>15</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="27">K15*3</f>
+        <f t="shared" ref="K80:N80" si="45">K15*3</f>
         <v>15</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="45"/>
         <v>18</v>
       </c>
       <c r="P80" s="15" t="s">
@@ -5319,19 +5299,19 @@
         <v>105</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81:N81" si="28">K16-K15</f>
+        <f t="shared" ref="K81:N81" si="46">K16-K15</f>
         <v>75</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="46"/>
         <v>74</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="46"/>
         <v>75</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="46"/>
         <v>104</v>
       </c>
       <c r="P81" s="15">
@@ -5390,13 +5370,13 @@
       <c r="I83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="36" t="s">
+      <c r="J83" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="37"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="39"/>
       <c r="O83" s="8" t="s">
         <v>0</v>
       </c>
@@ -5455,23 +5435,23 @@
         <v>15</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:S84" si="29">IF(K84 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P84:S84" si="47">IF(K84 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>18</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>75</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="47"/>
         <v>104</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T93" si="30">PRODUCT(O84:S84)</f>
+        <f t="shared" ref="T84:T93" si="48">PRODUCT(O84:S84)</f>
         <v>31590000</v>
       </c>
       <c r="U84" s="16">
@@ -5508,31 +5488,31 @@
         <v>53</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" ref="O85:O93" si="31">IF(J85 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O85:O93" si="49">IF(J85 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" ref="P85:P93" si="32">IF(K85 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P85:P93" si="50">IF(K85 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" ref="Q85:Q93" si="33">IF(L85 = "Scatter", L$80, L$81)</f>
+        <f t="shared" ref="Q85:Q93" si="51">IF(L85 = "Scatter", L$80, L$81)</f>
         <v>74</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:R93" si="34">IF(M85 = "Scatter", M$80, M$81)</f>
+        <f t="shared" ref="R85:R93" si="52">IF(M85 = "Scatter", M$80, M$81)</f>
         <v>18</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" ref="S85:S93" si="35">IF(N85 = "Scatter", N$80, N$81)</f>
+        <f t="shared" ref="S85:S93" si="53">IF(N85 = "Scatter", N$80, N$81)</f>
         <v>104</v>
       </c>
       <c r="T85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>31168800</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" ref="U85:U92" si="36">T85/$M$17</f>
+        <f t="shared" ref="U85:U92" si="54">T85/$M$17</f>
         <v>4.9690082644628097E-3</v>
       </c>
     </row>
@@ -5565,31 +5545,31 @@
         <v>51</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>74</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>75</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>22477500</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>3.5834194214876035E-3</v>
       </c>
     </row>
@@ -5622,31 +5602,31 @@
         <v>53</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>75</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>104</v>
       </c>
       <c r="T87">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>37908000</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>6.0433884297520658E-3</v>
       </c>
     </row>
@@ -5679,31 +5659,31 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>75</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>75</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>27337500</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>4.3582128099173556E-3</v>
       </c>
     </row>
@@ -5736,31 +5716,31 @@
         <v>51</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>75</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>74</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T89">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>26973000</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>4.3001033057851242E-3</v>
       </c>
     </row>
@@ -5793,31 +5773,31 @@
         <v>53</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>105</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>104</v>
       </c>
       <c r="T90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>53071200</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>8.4607438016528931E-3</v>
       </c>
     </row>
@@ -5850,31 +5830,31 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>105</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>75</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>38272500</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>6.1014979338842971E-3</v>
       </c>
     </row>
@@ -5907,31 +5887,31 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>105</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>74</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>37762200</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="54"/>
         <v>6.0201446280991732E-3</v>
       </c>
     </row>
@@ -5964,27 +5944,27 @@
         <v>51</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="49"/>
         <v>105</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="50"/>
         <v>75</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="T93">
-        <f t="shared" si="30"/>
+        <f t="shared" si="48"/>
         <v>45927000</v>
       </c>
       <c r="U93" s="16">
@@ -6034,23 +6014,23 @@
         <v>53</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:S99" si="37">IF(J95 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O95:S99" si="55">IF(J95 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>104</v>
       </c>
       <c r="T95">
@@ -6091,23 +6071,23 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>75</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="T96">
@@ -6148,23 +6128,23 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>74</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="T97">
@@ -6205,23 +6185,23 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>75</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="T98">
@@ -6262,23 +6242,23 @@
         <v>51</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>105</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>18</v>
       </c>
       <c r="T99">
@@ -6540,7 +6520,7 @@
       <c r="S111" t="s">
         <v>69</v>
       </c>
-      <c r="T111" s="43">
+      <c r="T111" s="34">
         <f>V77+U108</f>
         <v>0.27957991690898887</v>
       </c>
@@ -6559,9 +6539,9 @@
       <c r="S112" t="s">
         <v>70</v>
       </c>
-      <c r="T112" s="43">
+      <c r="T112" s="34">
         <f>'Free Game Reel'!W110</f>
-        <v>10.549870146988539</v>
+        <v>11.469587804104268</v>
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.3">
@@ -6574,9 +6554,9 @@
       <c r="G113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T113" s="43">
+      <c r="T113" s="34">
         <f>SUM(T111:T112)</f>
-        <v>10.829450063897529</v>
+        <v>11.749167721013258</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.3">
@@ -6605,9 +6585,9 @@
       <c r="N125" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X47:AA76">
-    <sortCondition descending="1" ref="Y47:Y76"/>
-    <sortCondition ref="X47:X76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y47:AB76">
+    <sortCondition descending="1" ref="Z47:Z76"/>
+    <sortCondition ref="Y47:Y76"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="M17:N17"/>
@@ -6621,10 +6601,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D043-2C85-4F58-96B2-FCD5733F0D95}">
-  <dimension ref="B3:X153"/>
+  <dimension ref="B3:AB153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W110" sqref="W110"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6634,6 +6614,8 @@
     <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -6792,7 +6774,7 @@
       </c>
       <c r="L6" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="3"/>
@@ -6894,10 +6876,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -6913,7 +6895,7 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="1"/>
@@ -7058,7 +7040,7 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
@@ -7085,23 +7067,23 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
@@ -7118,7 +7100,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -7132,11 +7114,11 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="3"/>
@@ -7144,7 +7126,7 @@
       </c>
       <c r="N14" s="8">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -7166,28 +7148,28 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -7258,11 +7240,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="35">
         <f>PRODUCT(J16:N16)</f>
         <v>6159110400</v>
       </c>
-      <c r="N17" s="34"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -7281,7 +7263,7 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -7315,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -7417,7 +7399,7 @@
       </c>
       <c r="L22" s="8">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="7"/>
@@ -7538,7 +7520,7 @@
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:N25" si="10">J9+J$4</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="10"/>
@@ -7605,7 +7587,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -7651,7 +7633,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -7683,7 +7665,7 @@
       </c>
       <c r="N28" s="8">
         <f t="shared" si="13"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
@@ -7710,23 +7692,23 @@
       </c>
       <c r="J29" s="8">
         <f t="shared" ref="J29:N29" si="14">J13+J$4</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -7740,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -7757,11 +7739,11 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="15"/>
@@ -7769,7 +7751,7 @@
       </c>
       <c r="N30" s="8">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -7830,7 +7812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -7873,7 +7855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -7905,7 +7887,7 @@
       </c>
       <c r="L34" s="8">
         <f t="shared" si="17"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="17"/>
@@ -7916,7 +7898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -7959,7 +7941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -8002,7 +7984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -8016,7 +7998,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>7</v>
@@ -8026,7 +8008,7 @@
       </c>
       <c r="J37" s="8">
         <f t="shared" ref="J37:N37" si="20">J$16-J25</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K37" s="8">
         <f t="shared" si="20"/>
@@ -8045,7 +8027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -8088,7 +8070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -8131,7 +8113,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -8171,10 +8153,10 @@
       </c>
       <c r="N40" s="8">
         <f t="shared" si="23"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -8198,26 +8180,26 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" ref="J41:N41" si="24">J$16-J29</f>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="24"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="24"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="24"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="24"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -8245,11 +8227,11 @@
       </c>
       <c r="K42" s="8">
         <f t="shared" si="25"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" si="25"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="25"/>
@@ -8257,10 +8239,10 @@
       </c>
       <c r="N42" s="8">
         <f t="shared" si="25"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -8280,7 +8262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -8300,7 +8282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -8311,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -8320,7 +8302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -8339,13 +8321,13 @@
       <c r="G46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
       <c r="N46" s="17" t="s">
         <v>54</v>
       </c>
@@ -8374,7 +8356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -8443,8 +8425,20 @@
         <f t="shared" ref="V47:V76" si="31">U47/$M$17</f>
         <v>3.2731999738144004E-4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y47" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z47" s="49">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="50">
+        <v>33600</v>
+      </c>
+      <c r="AB47" s="51">
+        <v>3.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -8479,42 +8473,54 @@
         <v>37</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="N48:N57" si="32">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="O48:O57" si="33">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="28"/>
-        <v>9</v>
+        <f t="shared" ref="P48:P57" si="34">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
+        <v>10</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Q48:Q57" si="35">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="R48:R56" si="36">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" ref="S48:S76" si="32">PRODUCT(N48:R48)</f>
-        <v>4608</v>
+        <f t="shared" ref="S48:S76" si="37">PRODUCT(N48:R48)</f>
+        <v>5120</v>
       </c>
       <c r="T48" s="12">
         <v>250</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U76" si="33">T48*S48</f>
-        <v>1152000</v>
+        <f t="shared" ref="U48:U76" si="38">T48*S48</f>
+        <v>1280000</v>
       </c>
       <c r="V48">
         <f t="shared" si="31"/>
-        <v>1.8703999850368E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+        <v>2.0782222055964444E-4</v>
+      </c>
+      <c r="Y48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z48" s="49">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="50">
+        <v>19500</v>
+      </c>
+      <c r="AB48" s="51">
+        <v>1.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -8549,42 +8555,54 @@
         <v>38</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>39200</v>
       </c>
       <c r="T49" s="12">
         <v>100</v>
       </c>
       <c r="U49" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>3920000</v>
       </c>
       <c r="V49">
         <f t="shared" si="31"/>
         <v>6.3645555046391118E-4</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y49" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z49" s="49">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="46">
+        <v>65600</v>
+      </c>
+      <c r="AB49" s="48">
+        <v>6.6E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -8619,42 +8637,54 @@
         <v>39</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>69120</v>
       </c>
       <c r="T50" s="12">
         <v>100</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>6912000</v>
       </c>
       <c r="V50">
         <f t="shared" si="31"/>
         <v>1.1222399910220801E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y50" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z50" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="52">
+        <v>112800</v>
+      </c>
+      <c r="AB50" s="53">
+        <v>1.1299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -8689,42 +8719,54 @@
         <v>40</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="33"/>
+        <v>13</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="34"/>
+        <v>13</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="O51" s="1">
-        <f t="shared" si="27"/>
-        <v>13</v>
-      </c>
-      <c r="P51" s="1">
-        <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="30"/>
-        <v>9</v>
-      </c>
       <c r="S51" s="12">
-        <f t="shared" si="32"/>
-        <v>136890</v>
+        <f t="shared" si="37"/>
+        <v>167310</v>
       </c>
       <c r="T51" s="12">
         <v>80</v>
       </c>
       <c r="U51" s="13">
-        <f t="shared" si="33"/>
-        <v>10951200</v>
+        <f t="shared" si="38"/>
+        <v>13384800</v>
       </c>
       <c r="V51">
         <f t="shared" si="31"/>
-        <v>1.778048985775608E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+        <v>2.1731709826146323E-3</v>
+      </c>
+      <c r="Y51" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="52">
+        <v>176000</v>
+      </c>
+      <c r="AB51" s="53">
+        <v>1.7600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -8738,7 +8780,7 @@
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -8759,42 +8801,54 @@
         <v>41</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>155232</v>
       </c>
       <c r="T52" s="12">
         <v>50</v>
       </c>
       <c r="U52" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>7761600</v>
       </c>
       <c r="V52">
         <f t="shared" si="31"/>
         <v>1.260181989918544E-3</v>
       </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y52" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="52">
+        <v>128250</v>
+      </c>
+      <c r="AB52" s="53">
+        <v>1.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -8829,42 +8883,54 @@
         <v>42</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>421824</v>
       </c>
       <c r="T53" s="12">
         <v>25</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>10545600</v>
       </c>
       <c r="V53">
         <f t="shared" si="31"/>
         <v>1.7121953196357709E-3</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z53" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="52">
+        <v>165925</v>
+      </c>
+      <c r="AB53" s="53">
+        <v>1.66E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -8899,42 +8965,54 @@
         <v>43</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="30"/>
-        <v>15</v>
+        <f t="shared" si="36"/>
+        <v>16</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="32"/>
-        <v>524160</v>
+        <f t="shared" si="37"/>
+        <v>559104</v>
       </c>
       <c r="T54" s="12">
         <v>25</v>
       </c>
       <c r="U54" s="13">
-        <f t="shared" si="33"/>
-        <v>13104000</v>
+        <f t="shared" si="38"/>
+        <v>13977600</v>
       </c>
       <c r="V54">
         <f t="shared" si="31"/>
-        <v>2.1275799829793603E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+        <v>2.2694186485113176E-3</v>
+      </c>
+      <c r="Y54" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="52">
+        <v>208925</v>
+      </c>
+      <c r="AB54" s="53">
+        <v>2.0899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -8969,42 +9047,54 @@
         <v>44</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="26"/>
-        <v>13</v>
+        <f t="shared" si="32"/>
+        <v>15</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f t="shared" si="33"/>
+        <v>14</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="28"/>
-        <v>13</v>
+        <f t="shared" si="34"/>
+        <v>14</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="29"/>
-        <v>10</v>
+        <f t="shared" si="35"/>
+        <v>14</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="30"/>
-        <v>14</v>
+        <f t="shared" si="36"/>
+        <v>16</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="32"/>
-        <v>307580</v>
+        <f t="shared" si="37"/>
+        <v>658560</v>
       </c>
       <c r="T55" s="12">
         <v>25</v>
       </c>
       <c r="U55" s="13">
-        <f t="shared" si="33"/>
-        <v>7689500</v>
+        <f t="shared" si="38"/>
+        <v>16464000</v>
       </c>
       <c r="V55">
         <f t="shared" si="31"/>
-        <v>1.2484757539010828E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+        <v>2.6731133119484267E-3</v>
+      </c>
+      <c r="Y55" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z55" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="52">
+        <v>130950</v>
+      </c>
+      <c r="AB55" s="53">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -9015,7 +9105,7 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -9039,42 +9129,54 @@
         <v>45</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
+        <v>17</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
-      <c r="P56" s="1">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="Q56" s="1">
-        <f t="shared" si="29"/>
-        <v>14</v>
-      </c>
       <c r="R56" s="1">
-        <f t="shared" si="30"/>
-        <v>16</v>
+        <f t="shared" si="36"/>
+        <v>17</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="32"/>
-        <v>702464</v>
+        <f t="shared" si="37"/>
+        <v>1035776</v>
       </c>
       <c r="T56" s="12">
         <v>25</v>
       </c>
       <c r="U56" s="13">
-        <f t="shared" si="33"/>
-        <v>17561600</v>
+        <f t="shared" si="38"/>
+        <v>25894400</v>
       </c>
       <c r="V56">
         <f t="shared" si="31"/>
-        <v>2.851320866078322E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+        <v>4.2042435219216074E-3</v>
+      </c>
+      <c r="Y56" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="47">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="52">
+        <v>282125</v>
+      </c>
+      <c r="AB56" s="53">
+        <v>2.82E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -9091,7 +9193,7 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>36</v>
@@ -9107,19 +9209,19 @@
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="R57" s="1">
@@ -9127,22 +9229,34 @@
         <v>105</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>176400</v>
       </c>
       <c r="T57" s="12">
         <v>100</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>17640000</v>
       </c>
       <c r="V57">
         <f t="shared" si="31"/>
         <v>2.8640499770876001E-3</v>
       </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y57" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z57" s="49">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="50">
+        <v>277700</v>
+      </c>
+      <c r="AB57" s="51">
+        <v>2.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -9175,42 +9289,54 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="N58:N66" si="39">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="O58:O66" si="40">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="28"/>
-        <v>9</v>
+        <f t="shared" ref="P58:P66" si="41">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
+        <v>10</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Q58:Q66" si="42">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" ref="R58:R66" si="34">N34</f>
+        <f t="shared" ref="R58:R66" si="43">N34</f>
         <v>105</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="32"/>
-        <v>120960</v>
+        <f t="shared" si="37"/>
+        <v>134400</v>
       </c>
       <c r="T58" s="12">
         <v>80</v>
       </c>
       <c r="U58" s="13">
-        <f t="shared" si="33"/>
-        <v>9676800</v>
+        <f t="shared" si="38"/>
+        <v>10752000</v>
       </c>
       <c r="V58">
         <f t="shared" si="31"/>
-        <v>1.5711359874309122E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1.7457066527010135E-3</v>
+      </c>
+      <c r="Y58" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z58" s="49">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="50">
+        <v>156800</v>
+      </c>
+      <c r="AB58" s="51">
+        <v>1.57E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -9243,42 +9369,54 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>102</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>571200</v>
       </c>
       <c r="T59" s="12">
         <v>50</v>
       </c>
       <c r="U59" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>28560000</v>
       </c>
       <c r="V59">
         <f t="shared" si="31"/>
         <v>4.6370332962370666E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y59" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z59" s="49">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="50">
+        <v>464500</v>
+      </c>
+      <c r="AB59" s="51">
+        <v>4.64E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -9286,7 +9424,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
@@ -9311,42 +9449,54 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>101</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>872640</v>
       </c>
       <c r="T60" s="12">
         <v>50</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>43632000</v>
       </c>
       <c r="V60">
         <f t="shared" si="31"/>
         <v>7.0841399433268807E-3</v>
       </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y60" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z60" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="52">
+        <v>702950</v>
+      </c>
+      <c r="AB60" s="53">
+        <v>7.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -9379,42 +9529,54 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
-        <f t="shared" si="26"/>
-        <v>9</v>
+        <f t="shared" si="39"/>
+        <v>11</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="32"/>
-        <v>1521000</v>
+        <f t="shared" si="37"/>
+        <v>1859000</v>
       </c>
       <c r="T61" s="12">
         <v>30</v>
       </c>
       <c r="U61" s="13">
-        <f t="shared" si="33"/>
-        <v>45630000</v>
+        <f t="shared" si="38"/>
+        <v>55770000</v>
       </c>
       <c r="V61">
         <f t="shared" si="31"/>
-        <v>7.4085374407317009E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+        <v>9.0548790942276344E-3</v>
+      </c>
+      <c r="Y61" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z61" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA61" s="52">
+        <v>745500</v>
+      </c>
+      <c r="AB61" s="53">
+        <v>7.45E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -9447,42 +9609,54 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>95</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1053360</v>
       </c>
       <c r="T62" s="12">
         <v>15</v>
       </c>
       <c r="U62" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>15800400</v>
       </c>
       <c r="V62">
         <f t="shared" si="31"/>
         <v>2.5653704794770362E-3</v>
       </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y62" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z62" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="52">
+        <v>251955</v>
+      </c>
+      <c r="AB62" s="53">
+        <v>2.5200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -9515,42 +9689,54 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>96</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3115008</v>
       </c>
       <c r="T63" s="12">
         <v>10</v>
       </c>
       <c r="U63" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>31150080</v>
       </c>
       <c r="V63">
         <f t="shared" si="31"/>
         <v>5.0575615595395071E-3</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z63" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="52">
+        <v>501950</v>
+      </c>
+      <c r="AB63" s="53">
+        <v>5.0200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -9583,42 +9769,54 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="34"/>
-        <v>94</v>
+        <f t="shared" si="43"/>
+        <v>93</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="32"/>
-        <v>3284736</v>
+        <f t="shared" si="37"/>
+        <v>3249792</v>
       </c>
       <c r="T64" s="12">
         <v>10</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="33"/>
-        <v>32847360</v>
+        <f t="shared" si="38"/>
+        <v>32497920</v>
       </c>
       <c r="V64">
         <f t="shared" si="31"/>
-        <v>5.3331338240015964E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+        <v>5.2763983577888132E-3</v>
+      </c>
+      <c r="Y64" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z64" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="52">
+        <v>530150</v>
+      </c>
+      <c r="AB64" s="53">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -9651,42 +9849,54 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
-        <f t="shared" si="26"/>
-        <v>13</v>
+        <f t="shared" si="39"/>
+        <v>15</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f t="shared" si="40"/>
+        <v>14</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="28"/>
-        <v>13</v>
+        <f t="shared" si="41"/>
+        <v>14</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="29"/>
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>14</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="34"/>
-        <v>95</v>
+        <f t="shared" si="43"/>
+        <v>93</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="32"/>
-        <v>2087150</v>
+        <f t="shared" si="37"/>
+        <v>3827880</v>
       </c>
       <c r="T65" s="12">
         <v>10</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="33"/>
-        <v>20871500</v>
+        <f t="shared" si="38"/>
+        <v>38278800</v>
       </c>
       <c r="V65">
         <f t="shared" si="31"/>
-        <v>3.3887199034457961E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+        <v>6.2149884502800921E-3</v>
+      </c>
+      <c r="Y65" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="52">
+        <v>362380</v>
+      </c>
+      <c r="AB65" s="53">
+        <v>3.62E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -9719,42 +9929,54 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
+        <v>17</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
-      <c r="P66" s="1">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="29"/>
-        <v>14</v>
-      </c>
       <c r="R66" s="1">
-        <f t="shared" si="34"/>
-        <v>93</v>
+        <f t="shared" si="43"/>
+        <v>92</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="32"/>
-        <v>4083072</v>
+        <f t="shared" si="37"/>
+        <v>5605376</v>
       </c>
       <c r="T66" s="12">
         <v>10</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="33"/>
-        <v>40830720</v>
+        <f t="shared" si="38"/>
+        <v>56053760</v>
       </c>
       <c r="V66">
         <f t="shared" si="31"/>
-        <v>6.6293210136320986E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+        <v>9.1009506827479502E-3</v>
+      </c>
+      <c r="Y66" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="47">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="52">
+        <v>661090</v>
+      </c>
+      <c r="AB66" s="53">
+        <v>6.6100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -9805,22 +10027,34 @@
         <v>109</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1935840</v>
       </c>
       <c r="T67" s="12">
         <v>20</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>38716800</v>
       </c>
       <c r="V67">
         <f t="shared" si="31"/>
         <v>6.2861026163778455E-3</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y67" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z67" s="49">
+        <v>3</v>
+      </c>
+      <c r="AA67" s="50">
+        <v>626240</v>
+      </c>
+      <c r="AB67" s="51">
+        <v>6.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -9860,33 +10094,45 @@
       </c>
       <c r="P68" s="1">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="35">M34</f>
+        <f t="shared" ref="Q68:Q76" si="44">M34</f>
         <v>77</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" ref="R68:R76" si="36">$N$16</f>
+        <f t="shared" ref="R68:R76" si="45">$N$16</f>
         <v>109</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="32"/>
-        <v>2417184</v>
+        <f t="shared" si="37"/>
+        <v>2685760</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="33"/>
-        <v>48343680</v>
+        <f t="shared" si="38"/>
+        <v>53715200</v>
       </c>
       <c r="V68">
         <f t="shared" si="31"/>
-        <v>7.8491335372069312E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+        <v>8.7212594857854799E-3</v>
+      </c>
+      <c r="Y68" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z68" s="49">
+        <v>3</v>
+      </c>
+      <c r="AA68" s="50">
+        <v>781160</v>
+      </c>
+      <c r="AB68" s="51">
+        <v>7.8100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -9929,30 +10175,42 @@
         <v>10</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>73</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5569900</v>
       </c>
       <c r="T69" s="12">
         <v>20</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>111398000</v>
       </c>
       <c r="V69">
         <f t="shared" si="31"/>
         <v>1.8086702910861931E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y69" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z69" s="49">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="50">
+        <v>1795500</v>
+      </c>
+      <c r="AB69" s="51">
+        <v>1.7950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -9995,30 +10253,42 @@
         <v>10</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>72</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>7534080</v>
       </c>
       <c r="T70" s="12">
         <v>20</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>150681600</v>
       </c>
       <c r="V70">
         <f t="shared" si="31"/>
         <v>2.4464831804281346E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y70" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z70" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA70" s="52">
+        <v>2423040</v>
+      </c>
+      <c r="AB70" s="53">
+        <v>2.4230000000000002E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -10032,7 +10302,7 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
@@ -10050,7 +10320,7 @@
       <c r="M71" s="11"/>
       <c r="N71" s="1">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O71" s="1">
         <f t="shared" si="27"/>
@@ -10061,30 +10331,42 @@
         <v>13</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>71</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="32"/>
-        <v>11771019</v>
+        <f t="shared" si="37"/>
+        <v>14386801</v>
       </c>
       <c r="T71" s="12">
         <v>15</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="33"/>
-        <v>176565285</v>
+        <f t="shared" si="38"/>
+        <v>215802015</v>
       </c>
       <c r="V71">
         <f t="shared" si="31"/>
-        <v>2.8667335626911317E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+        <v>3.5037854655113831E-2</v>
+      </c>
+      <c r="Y71" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z71" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA71" s="52">
+        <v>2829540</v>
+      </c>
+      <c r="AB71" s="53">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -10127,30 +10409,42 @@
         <v>9</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>73</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>11028402</v>
       </c>
       <c r="T72" s="12">
         <v>5</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>55142010</v>
       </c>
       <c r="V72">
         <f t="shared" si="31"/>
         <v>8.9529179408766573E-3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y72" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z72" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="52">
+        <v>888005</v>
+      </c>
+      <c r="AB72" s="53">
+        <v>8.8800000000000007E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -10158,7 +10452,7 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -10193,30 +10487,42 @@
         <v>13</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>69</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>20336784</v>
       </c>
       <c r="T73" s="12">
         <v>5</v>
       </c>
       <c r="U73" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>101683920</v>
       </c>
       <c r="V73">
         <f t="shared" si="31"/>
         <v>1.6509514101257221E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y73" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z73" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA73" s="52">
+        <v>1631835</v>
+      </c>
+      <c r="AB73" s="53">
+        <v>1.6320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -10259,30 +10565,42 @@
         <v>14</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>69</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>21901152</v>
       </c>
       <c r="T74" s="12">
         <v>5</v>
       </c>
       <c r="U74" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>109505760</v>
       </c>
       <c r="V74">
         <f t="shared" si="31"/>
         <v>1.7779476724430855E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="Y74" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z74" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="52">
+        <v>1759135</v>
+      </c>
+      <c r="AB74" s="53">
+        <v>1.7590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -10314,46 +10632,58 @@
       <c r="M75" s="11"/>
       <c r="N75" s="1">
         <f t="shared" si="26"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" si="27"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="35"/>
-        <v>71</v>
+        <f t="shared" si="44"/>
+        <v>67</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="32"/>
-        <v>17002583</v>
+        <f t="shared" si="37"/>
+        <v>21470820</v>
       </c>
       <c r="T75" s="12">
         <v>5</v>
       </c>
       <c r="U75" s="13">
-        <f t="shared" si="33"/>
-        <v>85012915</v>
+        <f t="shared" si="38"/>
+        <v>107354100</v>
       </c>
       <c r="V75">
         <f t="shared" si="31"/>
-        <v>1.3802791227772115E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1.7430130818892286E-2</v>
+      </c>
+      <c r="Y75" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z75" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="52">
+        <v>1470745</v>
+      </c>
+      <c r="AB75" s="53">
+        <v>1.4710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
@@ -10384,37 +10714,49 @@
       </c>
       <c r="O76" s="1">
         <f t="shared" si="27"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P76" s="1">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>67</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>109</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="32"/>
-        <v>22902208</v>
+        <f t="shared" si="37"/>
+        <v>31782656</v>
       </c>
       <c r="T76" s="12">
         <v>5</v>
       </c>
       <c r="U76" s="13">
-        <f t="shared" si="33"/>
-        <v>114511040</v>
+        <f t="shared" si="38"/>
+        <v>158913280</v>
       </c>
       <c r="V76">
         <f t="shared" si="31"/>
-        <v>1.8592139540151771E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+        <v>2.5801336504700418E-2</v>
+      </c>
+      <c r="Y76" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="47">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="52">
+        <v>1847850</v>
+      </c>
+      <c r="AB76" s="53">
+        <v>1.848E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -10435,10 +10777,18 @@
       </c>
       <c r="V77">
         <f>SUM(V47:V76)</f>
-        <v>0.22078080789069798</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.24925736758996886</v>
+      </c>
+      <c r="AA77" s="40">
+        <f>SUM(AA47:AA76)</f>
+        <v>22031700</v>
+      </c>
+      <c r="AB77" s="54">
+        <f>SUM(AB47:AB76)</f>
+        <v>0.22030999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -10473,7 +10823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -10490,30 +10840,30 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>51</v>
       </c>
       <c r="J79" s="1">
         <f>J15*3</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ref="K79:N79" si="37">K15*3</f>
-        <v>15</v>
+        <f t="shared" ref="K79:N79" si="46">K15*3</f>
+        <v>3</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="37"/>
-        <v>15</v>
+        <f t="shared" si="46"/>
+        <v>3</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="37"/>
-        <v>15</v>
+        <f t="shared" si="46"/>
+        <v>3</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="37"/>
-        <v>15</v>
+        <f t="shared" si="46"/>
+        <v>3</v>
       </c>
       <c r="Q79" s="15" t="s">
         <v>63</v>
@@ -10526,7 +10876,7 @@
       </c>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -10550,23 +10900,23 @@
       </c>
       <c r="J80" s="1">
         <f>J16-J15</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="38">K16-K15</f>
-        <v>75</v>
+        <f t="shared" ref="K80:N80" si="47">K16-K15</f>
+        <v>79</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="38"/>
-        <v>75</v>
+        <f t="shared" si="47"/>
+        <v>79</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="38"/>
-        <v>76</v>
+        <f t="shared" si="47"/>
+        <v>80</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="38"/>
-        <v>104</v>
+        <f t="shared" si="47"/>
+        <v>108</v>
       </c>
       <c r="Q80" s="15">
         <f>COMBIN(5, 3)</f>
@@ -10626,13 +10976,13 @@
       <c r="I82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J82" s="36" t="s">
+      <c r="J82" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="37"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="39"/>
       <c r="O82" s="8" t="s">
         <v>0</v>
       </c>
@@ -10694,31 +11044,31 @@
       </c>
       <c r="O83" s="1">
         <f>IF(J83 = "Scatter", J$79, J$80)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" ref="P83:S83" si="39">IF(K83 = "Scatter", K$79, K$80)</f>
-        <v>15</v>
+        <f t="shared" ref="P83:S83" si="48">IF(K83 = "Scatter", K$79, K$80)</f>
+        <v>3</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="39"/>
-        <v>15</v>
+        <f t="shared" si="48"/>
+        <v>3</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="39"/>
-        <v>76</v>
+        <f t="shared" si="48"/>
+        <v>80</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="39"/>
-        <v>104</v>
+        <f t="shared" si="48"/>
+        <v>108</v>
       </c>
       <c r="T83">
-        <f t="shared" ref="T83:T92" si="40">PRODUCT(O83:S83)</f>
-        <v>26676000</v>
+        <f t="shared" ref="T83:T92" si="49">PRODUCT(O83:S83)</f>
+        <v>233280</v>
       </c>
       <c r="U83" s="16">
         <f>T83/$M$17</f>
-        <v>4.3311449653508404E-3</v>
+        <v>3.78755996969952E-5</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
@@ -10753,32 +11103,32 @@
         <v>53</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84:O92" si="41">IF(J84 = "Scatter", J$79, J$80)</f>
-        <v>15</v>
+        <f t="shared" ref="O84:O92" si="50">IF(J84 = "Scatter", J$79, J$80)</f>
+        <v>3</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:P92" si="42">IF(K84 = "Scatter", K$79, K$80)</f>
-        <v>15</v>
+        <f t="shared" ref="P84:P92" si="51">IF(K84 = "Scatter", K$79, K$80)</f>
+        <v>3</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84:Q92" si="43">IF(L84 = "Scatter", L$79, L$80)</f>
-        <v>75</v>
+        <f t="shared" ref="Q84:Q92" si="52">IF(L84 = "Scatter", L$79, L$80)</f>
+        <v>79</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84:R92" si="44">IF(M84 = "Scatter", M$79, M$80)</f>
-        <v>15</v>
+        <f t="shared" ref="R84:R92" si="53">IF(M84 = "Scatter", M$79, M$80)</f>
+        <v>3</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84:S92" si="45">IF(N84 = "Scatter", N$79, N$80)</f>
-        <v>104</v>
+        <f t="shared" ref="S84:S92" si="54">IF(N84 = "Scatter", N$79, N$80)</f>
+        <v>108</v>
       </c>
       <c r="T84">
-        <f t="shared" si="40"/>
-        <v>26325000</v>
+        <f t="shared" si="49"/>
+        <v>230364</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U91" si="46">T84/$M$17</f>
-        <v>4.2741562158067504E-3</v>
+        <f t="shared" ref="U84:U91" si="55">T84/$M$17</f>
+        <v>3.7402154700782761E-5</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.3">
@@ -10810,32 +11160,32 @@
         <v>51</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="41"/>
-        <v>15</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="43"/>
-        <v>75</v>
+        <f t="shared" si="52"/>
+        <v>79</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="44"/>
-        <v>76</v>
+        <f t="shared" si="53"/>
+        <v>80</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T85">
-        <f t="shared" si="40"/>
-        <v>19237500</v>
+        <f t="shared" si="49"/>
+        <v>170640</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="46"/>
-        <v>3.1234218500126253E-3</v>
+        <f t="shared" si="55"/>
+        <v>2.7705299778357601E-5</v>
       </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
@@ -10867,32 +11217,32 @@
         <v>53</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="41"/>
-        <v>15</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="42"/>
-        <v>75</v>
+        <f t="shared" si="51"/>
+        <v>79</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="43"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="45"/>
-        <v>104</v>
+        <f t="shared" si="54"/>
+        <v>108</v>
       </c>
       <c r="T86">
-        <f t="shared" si="40"/>
-        <v>26325000</v>
+        <f t="shared" si="49"/>
+        <v>230364</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="46"/>
-        <v>4.2741562158067504E-3</v>
+        <f t="shared" si="55"/>
+        <v>3.7402154700782761E-5</v>
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.3">
@@ -10924,32 +11274,32 @@
         <v>51</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="41"/>
-        <v>15</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="42"/>
-        <v>75</v>
+        <f t="shared" si="51"/>
+        <v>79</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="43"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="44"/>
-        <v>76</v>
+        <f t="shared" si="53"/>
+        <v>80</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T87">
-        <f t="shared" si="40"/>
-        <v>19237500</v>
+        <f t="shared" si="49"/>
+        <v>170640</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="46"/>
-        <v>3.1234218500126253E-3</v>
+        <f t="shared" si="55"/>
+        <v>2.7705299778357601E-5</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.3">
@@ -10981,32 +11331,32 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="41"/>
-        <v>15</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="42"/>
-        <v>75</v>
+        <f t="shared" si="51"/>
+        <v>79</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="43"/>
-        <v>75</v>
+        <f t="shared" si="52"/>
+        <v>79</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T88">
-        <f t="shared" si="40"/>
-        <v>18984375</v>
+        <f t="shared" si="49"/>
+        <v>168507</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="46"/>
-        <v>3.0823241940914066E-3</v>
+        <f t="shared" si="55"/>
+        <v>2.735898353112813E-5</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.3">
@@ -11038,32 +11388,32 @@
         <v>53</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="41"/>
-        <v>104</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="43"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="45"/>
-        <v>104</v>
+        <f t="shared" si="54"/>
+        <v>108</v>
       </c>
       <c r="T89">
-        <f t="shared" si="40"/>
-        <v>36504000</v>
+        <f t="shared" si="49"/>
+        <v>314928</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="46"/>
-        <v>5.9268299525853602E-3</v>
+        <f t="shared" si="55"/>
+        <v>5.1132059590943526E-5</v>
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.3">
@@ -11095,32 +11445,32 @@
         <v>51</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="41"/>
-        <v>104</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="43"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="44"/>
-        <v>76</v>
+        <f t="shared" si="53"/>
+        <v>80</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T90">
-        <f t="shared" si="40"/>
-        <v>26676000</v>
+        <f t="shared" si="49"/>
+        <v>233280</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="46"/>
-        <v>4.3311449653508404E-3</v>
+        <f t="shared" si="55"/>
+        <v>3.78755996969952E-5</v>
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.3">
@@ -11152,32 +11502,32 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="41"/>
-        <v>104</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="51"/>
+        <v>3</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="43"/>
-        <v>75</v>
+        <f t="shared" si="52"/>
+        <v>79</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T91">
-        <f t="shared" si="40"/>
-        <v>26325000</v>
+        <f t="shared" si="49"/>
+        <v>230364</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="46"/>
-        <v>4.2741562158067504E-3</v>
+        <f t="shared" si="55"/>
+        <v>3.7402154700782761E-5</v>
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.3">
@@ -11209,32 +11559,32 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="41"/>
-        <v>104</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="42"/>
-        <v>75</v>
+        <f t="shared" si="51"/>
+        <v>79</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="43"/>
-        <v>15</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="53"/>
+        <v>3</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="45"/>
-        <v>15</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
       <c r="T92">
-        <f t="shared" si="40"/>
-        <v>26325000</v>
+        <f t="shared" si="49"/>
+        <v>230364</v>
       </c>
       <c r="U92" s="16">
         <f>T92/$M$17</f>
-        <v>4.2741562158067504E-3</v>
+        <v>3.7402154700782761E-5</v>
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.3">
@@ -11279,31 +11629,31 @@
       </c>
       <c r="O94" s="1">
         <f>IF(J94 = "Scatter", J$79, J$80)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P94" s="1">
-        <f t="shared" ref="P94" si="47">IF(K94 = "Scatter", K$79, K$80)</f>
-        <v>15</v>
+        <f t="shared" ref="P94" si="56">IF(K94 = "Scatter", K$79, K$80)</f>
+        <v>3</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" ref="Q94" si="48">IF(L94 = "Scatter", L$79, L$80)</f>
-        <v>15</v>
+        <f t="shared" ref="Q94" si="57">IF(L94 = "Scatter", L$79, L$80)</f>
+        <v>3</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" ref="R94" si="49">IF(M94 = "Scatter", M$79, M$80)</f>
-        <v>15</v>
+        <f t="shared" ref="R94" si="58">IF(M94 = "Scatter", M$79, M$80)</f>
+        <v>3</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" ref="S94" si="50">IF(N94 = "Scatter", N$79, N$80)</f>
-        <v>104</v>
+        <f t="shared" ref="S94" si="59">IF(N94 = "Scatter", N$79, N$80)</f>
+        <v>108</v>
       </c>
       <c r="T94">
         <f>PRODUCT(O94:S94)</f>
-        <v>5265000</v>
+        <v>8748</v>
       </c>
       <c r="U94" s="16">
         <f>T94/$M$17</f>
-        <v>8.5483124316135001E-4</v>
+        <v>1.4203349886373201E-6</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.3">
@@ -11311,7 +11661,7 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
@@ -11335,32 +11685,32 @@
         <v>51</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:O98" si="51">IF(J95 = "Scatter", J$79, J$80)</f>
-        <v>15</v>
+        <f t="shared" ref="O95:O98" si="60">IF(J95 = "Scatter", J$79, J$80)</f>
+        <v>3</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" ref="P95:P98" si="52">IF(K95 = "Scatter", K$79, K$80)</f>
-        <v>15</v>
+        <f t="shared" ref="P95:P98" si="61">IF(K95 = "Scatter", K$79, K$80)</f>
+        <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ref="Q95:Q98" si="53">IF(L95 = "Scatter", L$79, L$80)</f>
-        <v>15</v>
+        <f t="shared" ref="Q95:Q98" si="62">IF(L95 = "Scatter", L$79, L$80)</f>
+        <v>3</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" ref="R95:R98" si="54">IF(M95 = "Scatter", M$79, M$80)</f>
-        <v>76</v>
+        <f t="shared" ref="R95:R98" si="63">IF(M95 = "Scatter", M$79, M$80)</f>
+        <v>80</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" ref="S95:S98" si="55">IF(N95 = "Scatter", N$79, N$80)</f>
-        <v>15</v>
+        <f t="shared" ref="S95:S98" si="64">IF(N95 = "Scatter", N$79, N$80)</f>
+        <v>3</v>
       </c>
       <c r="T95">
         <f>PRODUCT(O95:S95)</f>
-        <v>3847500</v>
+        <v>6480</v>
       </c>
       <c r="U95" s="16">
         <f>T95/$M$17</f>
-        <v>6.2468437000252506E-4</v>
+        <v>1.0520999915832001E-6</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.3">
@@ -11392,32 +11742,32 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="51"/>
-        <v>15</v>
+        <f t="shared" si="60"/>
+        <v>3</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="52"/>
-        <v>15</v>
+        <f t="shared" si="61"/>
+        <v>3</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="53"/>
-        <v>75</v>
+        <f t="shared" si="62"/>
+        <v>79</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="54"/>
-        <v>15</v>
+        <f t="shared" si="63"/>
+        <v>3</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="55"/>
-        <v>15</v>
+        <f t="shared" si="64"/>
+        <v>3</v>
       </c>
       <c r="T96">
         <f>PRODUCT(O96:S96)</f>
-        <v>3796875</v>
+        <v>6399</v>
       </c>
       <c r="U96" s="16">
         <f>T96/$M$17</f>
-        <v>6.1646483881828127E-4</v>
+        <v>1.0389487416884102E-6</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.3">
@@ -11449,32 +11799,32 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="51"/>
-        <v>15</v>
+        <f t="shared" si="60"/>
+        <v>3</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="52"/>
-        <v>75</v>
+        <f t="shared" si="61"/>
+        <v>79</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="53"/>
-        <v>15</v>
+        <f t="shared" si="62"/>
+        <v>3</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="54"/>
-        <v>15</v>
+        <f t="shared" si="63"/>
+        <v>3</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="55"/>
-        <v>15</v>
+        <f t="shared" si="64"/>
+        <v>3</v>
       </c>
       <c r="T97">
         <f>PRODUCT(O97:S97)</f>
-        <v>3796875</v>
+        <v>6399</v>
       </c>
       <c r="U97" s="16">
         <f>T97/$M$17</f>
-        <v>6.1646483881828127E-4</v>
+        <v>1.0389487416884102E-6</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.3">
@@ -11485,7 +11835,7 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I98" s="1">
         <v>4</v>
@@ -11506,32 +11856,32 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="51"/>
-        <v>104</v>
+        <f t="shared" si="60"/>
+        <v>108</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="52"/>
-        <v>15</v>
+        <f t="shared" si="61"/>
+        <v>3</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="53"/>
-        <v>15</v>
+        <f t="shared" si="62"/>
+        <v>3</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="54"/>
-        <v>15</v>
+        <f t="shared" si="63"/>
+        <v>3</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="55"/>
-        <v>15</v>
+        <f t="shared" si="64"/>
+        <v>3</v>
       </c>
       <c r="T98">
         <f>PRODUCT(O98:S98)</f>
-        <v>5265000</v>
+        <v>8748</v>
       </c>
       <c r="U98" s="16">
         <f>T98/$M$17</f>
-        <v>8.5483124316135001E-4</v>
+        <v>1.4203349886373201E-6</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.3">
@@ -11575,31 +11925,31 @@
       </c>
       <c r="O100" s="1">
         <f>IF(J100 = "Scatter", J$79, J$80)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" ref="P100" si="56">IF(K100 = "Scatter", K$79, K$80)</f>
-        <v>15</v>
+        <f t="shared" ref="P100" si="65">IF(K100 = "Scatter", K$79, K$80)</f>
+        <v>3</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" ref="Q100" si="57">IF(L100 = "Scatter", L$79, L$80)</f>
-        <v>15</v>
+        <f t="shared" ref="Q100" si="66">IF(L100 = "Scatter", L$79, L$80)</f>
+        <v>3</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" ref="R100" si="58">IF(M100 = "Scatter", M$79, M$80)</f>
-        <v>15</v>
+        <f t="shared" ref="R100" si="67">IF(M100 = "Scatter", M$79, M$80)</f>
+        <v>3</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" ref="S100" si="59">IF(N100 = "Scatter", N$79, N$80)</f>
-        <v>15</v>
+        <f t="shared" ref="S100" si="68">IF(N100 = "Scatter", N$79, N$80)</f>
+        <v>3</v>
       </c>
       <c r="T100">
         <f>PRODUCT(O100:S100)</f>
-        <v>759375</v>
+        <v>243</v>
       </c>
       <c r="U100" s="16">
         <f>T100/$M$17</f>
-        <v>1.2329296776365627E-4</v>
+        <v>3.9453749684370004E-8</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.3">
@@ -11672,22 +12022,22 @@
       </c>
       <c r="S103" s="1">
         <f>SUM(T82:T91)</f>
-        <v>226290375</v>
+        <v>1982367</v>
       </c>
       <c r="T103" s="27">
         <f>SUM(U82:U91)</f>
-        <v>3.6740756424823946E-2</v>
+        <v>3.2185930617512559E-4</v>
       </c>
       <c r="U103" s="1">
         <v>10</v>
       </c>
       <c r="V103" s="24">
         <f>U103/$U$108</f>
-        <v>10.396524989629299</v>
+        <v>10.003342279420707</v>
       </c>
       <c r="W103" s="25">
         <f>V103*$V$77</f>
-        <v>2.2953531864661869</v>
+        <v>2.493406763669844</v>
       </c>
       <c r="X103" s="21"/>
     </row>
@@ -11715,22 +12065,22 @@
       </c>
       <c r="S104" s="1">
         <f>SUM(T93:T97)</f>
-        <v>16706250</v>
+        <v>28026</v>
       </c>
       <c r="T104" s="27">
         <f>SUM(U83:U92)</f>
-        <v>4.1014912640630695E-2</v>
+        <v>3.5926146087590833E-4</v>
       </c>
       <c r="U104" s="1">
         <v>15</v>
       </c>
       <c r="V104" s="24">
         <f>U104/$U$108</f>
-        <v>15.594787484443948</v>
+        <v>15.00501341913106</v>
       </c>
       <c r="W104" s="25">
-        <f t="shared" ref="W104:W105" si="60">V104*$V$77</f>
-        <v>3.4430297796992808</v>
+        <f t="shared" ref="W104:W105" si="69">V104*$V$77</f>
+        <v>3.7401101455047661</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.3">
@@ -11748,22 +12098,22 @@
       </c>
       <c r="S105" s="1">
         <f>T100</f>
-        <v>759375</v>
+        <v>243</v>
       </c>
       <c r="T105" s="27">
         <f>SUM(U84:U93)</f>
-        <v>3.6683767675279859E-2</v>
+        <v>3.2138586117891311E-4</v>
       </c>
       <c r="U105" s="1">
         <v>20</v>
       </c>
       <c r="V105" s="24">
         <f>U105/$U$108</f>
-        <v>20.793049979258598</v>
+        <v>20.006684558841414</v>
       </c>
       <c r="W105" s="25">
-        <f t="shared" si="60"/>
-        <v>4.5907063729323738</v>
+        <f t="shared" si="69"/>
+        <v>4.9868135273396881</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.3">
@@ -11780,7 +12130,7 @@
       <c r="U106" s="1"/>
       <c r="W106" s="25">
         <f>SUM(W103:W105)</f>
-        <v>10.329089339097841</v>
+        <v>11.220330436514299</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.3">
@@ -11796,7 +12146,7 @@
       <c r="T107" s="22"/>
       <c r="U107" s="21">
         <f>SUMPRODUCT(T103:T105,U103:U105)/SUM(U103:U105)</f>
-        <v>3.8140146830295485E-2</v>
+        <v>3.3411627107706989E-4</v>
       </c>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.3">
@@ -11811,7 +12161,7 @@
       </c>
       <c r="U108" s="21">
         <f>1-U107</f>
-        <v>0.96185985316970446</v>
+        <v>0.99966588372892295</v>
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.3">
@@ -11837,7 +12187,7 @@
       </c>
       <c r="W110" s="24">
         <f>V77+W106</f>
-        <v>10.549870146988539</v>
+        <v>11.469587804104268</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.3">
@@ -12000,6 +12350,11 @@
     <mergeCell ref="J82:N82"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="C4:G113">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$I$15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/line_and_free_game_v3.xlsx
+++ b/Document/line_and_free_game_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\SlotSimulation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA6648A-CF1C-4F31-9057-7B5EA301EA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358ACB5-4154-41D8-949B-9700892E8E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="0" windowWidth="36375" windowHeight="20985" activeTab="3" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="72">
   <si>
     <t>Reel 1</t>
   </si>
@@ -283,6 +283,9 @@
     <t>bonus game</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -297,8 +300,8 @@
     <numFmt numFmtId="179" formatCode="0.0000000"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="0.00000"/>
     <numFmt numFmtId="184" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -485,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,9 +540,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +588,12 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,53 +612,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1065,7 +1062,7 @@
   <dimension ref="B3:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,178 +1071,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>300</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>100</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>250</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>80</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>100</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>50</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>100</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>50</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28">
         <v>80</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>30</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>50</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>15</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="28">
         <v>25</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>10</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="B12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="28">
         <v>25</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>10</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="28">
         <v>25</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>10</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="29">
+      <c r="B14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="28">
         <v>25</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>10</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>20</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>15</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>10</v>
       </c>
     </row>
@@ -1265,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34BBB1-4271-466A-86C7-92B04A304A75}">
   <dimension ref="B3:AC125"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47:AB77"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,6 +1283,7 @@
     <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -1910,11 +1908,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="36">
         <f>PRODUCT(J16:N16)</f>
         <v>6272640000</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -2996,13 +2994,13 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
       <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
@@ -3106,7 +3104,22 @@
         <v>3.2139577594123047E-4</v>
       </c>
       <c r="X47" s="1"/>
-      <c r="AC47" s="42"/>
+      <c r="Y47" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="33">
+        <v>29100</v>
+      </c>
+      <c r="AB47">
+        <v>2.9E-4</v>
+      </c>
+      <c r="AC47" s="48">
+        <f>AB47/V47</f>
+        <v>0.90231428571428574</v>
+      </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -3178,7 +3191,22 @@
         <v>1.8365472910927456E-4</v>
       </c>
       <c r="X48" s="1"/>
-      <c r="AC48" s="42"/>
+      <c r="Y48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z48">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="33">
+        <v>18250</v>
+      </c>
+      <c r="AB48">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="AC48" s="48">
+        <f t="shared" ref="AC48:AC76" si="39">AB48/V48</f>
+        <v>0.98010000000000008</v>
+      </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
@@ -3250,7 +3278,22 @@
         <v>6.2493623099683709E-4</v>
       </c>
       <c r="X49" s="1"/>
-      <c r="AC49" s="42"/>
+      <c r="Y49" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z49">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="33">
+        <v>61100</v>
+      </c>
+      <c r="AB49">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="AC49" s="48">
+        <f t="shared" si="39"/>
+        <v>0.97609959183673456</v>
+      </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
@@ -3322,7 +3365,22 @@
         <v>1.1019283746556473E-3</v>
       </c>
       <c r="X50" s="1"/>
-      <c r="AC50" s="42"/>
+      <c r="Y50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="33">
+        <v>106900</v>
+      </c>
+      <c r="AB50">
+        <v>1.07E-3</v>
+      </c>
+      <c r="AC50" s="48">
+        <f t="shared" si="39"/>
+        <v>0.97102500000000003</v>
+      </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
@@ -3394,7 +3452,22 @@
         <v>1.7458677685950412E-3</v>
       </c>
       <c r="X51" s="1"/>
-      <c r="AC51" s="42"/>
+      <c r="Y51" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>173520</v>
+      </c>
+      <c r="AB51">
+        <v>1.74E-3</v>
+      </c>
+      <c r="AC51" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99663905325443791</v>
+      </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
@@ -3466,7 +3539,22 @@
         <v>1.3257575757575758E-3</v>
       </c>
       <c r="X52" s="1"/>
-      <c r="AC52" s="42"/>
+      <c r="Y52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="33">
+        <v>136150</v>
+      </c>
+      <c r="AB52">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="AC52" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0258285714285715</v>
+      </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
@@ -3538,7 +3626,22 @@
         <v>1.6812059993878176E-3</v>
       </c>
       <c r="X53" s="1"/>
-      <c r="AC53" s="42"/>
+      <c r="Y53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z53">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="33">
+        <v>166750</v>
+      </c>
+      <c r="AB53">
+        <v>1.67E-3</v>
+      </c>
+      <c r="AC53" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99333454710969504</v>
+      </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
@@ -3610,9 +3713,24 @@
         <v>2.0890725436179983E-3</v>
       </c>
       <c r="X54" s="1"/>
-      <c r="AC54" s="42"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="33">
+        <v>211225</v>
+      </c>
+      <c r="AB54">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="AC54" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0100175824175823</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -3682,9 +3800,24 @@
         <v>1.3201777879808183E-3</v>
       </c>
       <c r="X55" s="1"/>
-      <c r="AC55" s="43"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y55" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z55">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="33">
+        <v>132375</v>
+      </c>
+      <c r="AB55">
+        <v>1.32E-3</v>
+      </c>
+      <c r="AC55" s="48">
+        <f t="shared" si="39"/>
+        <v>0.9998653302741215</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -3754,9 +3887,24 @@
         <v>2.2631619222528315E-3</v>
       </c>
       <c r="X56" s="1"/>
-      <c r="AC56" s="45"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y56" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="33">
+        <v>230525</v>
+      </c>
+      <c r="AB56">
+        <v>2.31E-3</v>
+      </c>
+      <c r="AC56" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0206958579881655</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -3805,7 +3953,7 @@
         <v>7</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" ref="R57:R66" si="39">N33</f>
+        <f t="shared" ref="R57:R66" si="40">N33</f>
         <v>106</v>
       </c>
       <c r="S57" s="12">
@@ -3824,9 +3972,24 @@
         <v>2.8389960208142027E-3</v>
       </c>
       <c r="X57" s="1"/>
-      <c r="AC57" s="45"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="33">
+        <v>293800</v>
+      </c>
+      <c r="AB57">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="AC57" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0355773584905661</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -3859,23 +4022,23 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" ref="N58:N66" si="40">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N58:N66" si="41">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" ref="O58:O66" si="41">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O58:O66" si="42">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" ref="P58:P66" si="42">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P58:P66" si="43">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
         <v>9</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" ref="Q58:Q66" si="43">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q58:Q66" si="44">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>106</v>
       </c>
       <c r="S58" s="12">
@@ -3894,9 +4057,24 @@
         <v>1.5573921028466484E-3</v>
       </c>
       <c r="X58" s="1"/>
-      <c r="AC58" s="45"/>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y58" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z58">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="33">
+        <v>155200</v>
+      </c>
+      <c r="AB58">
+        <v>1.5499999999999999E-3</v>
+      </c>
+      <c r="AC58" s="48">
+        <f t="shared" si="39"/>
+        <v>0.9952535377358489</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -3929,23 +4107,23 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="41"/>
-        <v>10</v>
-      </c>
-      <c r="P59" s="1">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
+      <c r="P59" s="1">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
       <c r="Q59" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>103</v>
       </c>
       <c r="S59" s="12">
@@ -3964,9 +4142,24 @@
         <v>4.5977451280481583E-3</v>
       </c>
       <c r="X59" s="1"/>
-      <c r="AC59" s="45"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y59" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z59">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="33">
+        <v>462600</v>
+      </c>
+      <c r="AB59">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="AC59" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0070153675450761</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -3999,23 +4192,23 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="R60" s="1">
         <f t="shared" si="40"/>
-        <v>8</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="41"/>
-        <v>12</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="43"/>
-        <v>9</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="39"/>
         <v>102</v>
       </c>
       <c r="S60" s="12">
@@ -4034,9 +4227,24 @@
         <v>7.0247933884297524E-3</v>
       </c>
       <c r="X60" s="1"/>
-      <c r="AC60" s="45"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y60" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="33">
+        <v>702050</v>
+      </c>
+      <c r="AB60">
+        <v>7.0200000000000002E-3</v>
+      </c>
+      <c r="AC60" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99931764705882353</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -4069,23 +4277,23 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
+        <f t="shared" si="41"/>
+        <v>9</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="R61" s="1">
         <f t="shared" si="40"/>
-        <v>9</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" si="39"/>
         <v>101</v>
       </c>
       <c r="S61" s="12">
@@ -4104,9 +4312,24 @@
         <v>7.3471935261707989E-3</v>
       </c>
       <c r="X61" s="1"/>
-      <c r="AC61" s="45"/>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y61" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z61">
+        <v>4</v>
+      </c>
+      <c r="AA61" s="33">
+        <v>739380</v>
+      </c>
+      <c r="AB61">
+        <v>7.3899999999999999E-3</v>
+      </c>
+      <c r="AC61" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0058262346944753</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4139,23 +4362,23 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
+        <f t="shared" si="41"/>
+        <v>11</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="43"/>
+        <v>9</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="R62" s="1">
         <f t="shared" si="40"/>
-        <v>11</v>
-      </c>
-      <c r="O62" s="1">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="42"/>
-        <v>9</v>
-      </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-      <c r="R62" s="1">
-        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S62" s="12">
@@ -4174,9 +4397,24 @@
         <v>2.5189393939393941E-3</v>
       </c>
       <c r="X62" s="1"/>
-      <c r="AC62" s="45"/>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y62" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z62">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="33">
+        <v>252570</v>
+      </c>
+      <c r="AB62">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="AC62" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0043909774436091</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4209,23 +4447,23 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="R63" s="1">
         <f t="shared" si="40"/>
-        <v>16</v>
-      </c>
-      <c r="O63" s="1">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="P63" s="1">
-        <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="43"/>
-        <v>12</v>
-      </c>
-      <c r="R63" s="1">
-        <f t="shared" si="39"/>
         <v>97</v>
       </c>
       <c r="S63" s="12">
@@ -4244,9 +4482,24 @@
         <v>5.017753290480563E-3</v>
       </c>
       <c r="X63" s="1"/>
-      <c r="AC63" s="45"/>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y63" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z63">
+        <v>4</v>
+      </c>
+      <c r="AA63" s="33">
+        <v>503450</v>
+      </c>
+      <c r="AB63">
+        <v>5.0299999999999997E-3</v>
+      </c>
+      <c r="AC63" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0024406758982491</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4279,23 +4532,23 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="R64" s="1">
         <f t="shared" si="40"/>
-        <v>16</v>
-      </c>
-      <c r="O64" s="1">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="P64" s="1">
-        <f t="shared" si="42"/>
-        <v>14</v>
-      </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="43"/>
-        <v>12</v>
-      </c>
-      <c r="R64" s="1">
-        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S64" s="12">
@@ -4314,9 +4567,24 @@
         <v>5.292317110498929E-3</v>
       </c>
       <c r="X64" s="1"/>
-      <c r="AC64" s="45"/>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y64" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="33">
+        <v>529480</v>
+      </c>
+      <c r="AB64">
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="AC64" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99956217466743791</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4349,23 +4617,23 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
+        <f t="shared" si="41"/>
+        <v>14</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="42"/>
+        <v>13</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="R65" s="1">
         <f t="shared" si="40"/>
-        <v>14</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" si="41"/>
-        <v>13</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="R65" s="1">
-        <f t="shared" si="39"/>
         <v>96</v>
       </c>
       <c r="S65" s="12">
@@ -4384,9 +4652,24 @@
         <v>3.6210590756045303E-3</v>
       </c>
       <c r="X65" s="1"/>
-      <c r="AC65" s="45"/>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y65" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="33">
+        <v>361470</v>
+      </c>
+      <c r="AB65">
+        <v>3.6099999999999999E-3</v>
+      </c>
+      <c r="AC65" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99694590025359253</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4419,23 +4702,23 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="43"/>
+        <v>13</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="R66" s="1">
         <f t="shared" si="40"/>
-        <v>16</v>
-      </c>
-      <c r="O66" s="1">
-        <f t="shared" si="41"/>
-        <v>14</v>
-      </c>
-      <c r="P66" s="1">
-        <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="R66" s="1">
-        <f t="shared" si="39"/>
         <v>95</v>
       </c>
       <c r="S66" s="12">
@@ -4454,9 +4737,24 @@
         <v>5.7333435363738396E-3</v>
       </c>
       <c r="X66" s="1"/>
-      <c r="AC66" s="45"/>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y66" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="33">
+        <v>573370</v>
+      </c>
+      <c r="AB66">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="AC66" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99941682608889082</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4522,9 +4820,24 @@
         <v>6.2289562289562289E-3</v>
       </c>
       <c r="X67" s="1"/>
-      <c r="AC67" s="45"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y67" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z67">
+        <v>3</v>
+      </c>
+      <c r="AA67" s="33">
+        <v>619380</v>
+      </c>
+      <c r="AB67">
+        <v>6.1900000000000002E-3</v>
+      </c>
+      <c r="AC67" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99374594594594601</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4567,7 +4880,7 @@
         <v>9</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="44">M34</f>
+        <f t="shared" ref="Q68:Q76" si="45">M34</f>
         <v>77</v>
       </c>
       <c r="R68" s="1">
@@ -4590,9 +4903,24 @@
         <v>7.7777777777777776E-3</v>
       </c>
       <c r="X68" s="1"/>
-      <c r="AC68" s="45"/>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y68" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z68">
+        <v>3</v>
+      </c>
+      <c r="AA68" s="33">
+        <v>776800</v>
+      </c>
+      <c r="AB68">
+        <v>7.77E-3</v>
+      </c>
+      <c r="AC68" s="48">
+        <f t="shared" si="39"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4635,7 +4963,7 @@
         <v>10</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>73</v>
       </c>
       <c r="R69" s="1">
@@ -4658,9 +4986,24 @@
         <v>1.7922278338945007E-2</v>
       </c>
       <c r="X69" s="1"/>
-      <c r="AC69" s="45"/>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y69" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="33">
+        <v>1795220</v>
+      </c>
+      <c r="AB69">
+        <v>1.7950000000000001E-2</v>
+      </c>
+      <c r="AC69" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0015467710371819</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -4703,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>72</v>
       </c>
       <c r="R70" s="1">
@@ -4726,9 +5069,24 @@
         <v>2.4242424242424242E-2</v>
       </c>
       <c r="X70" s="1"/>
-      <c r="AC70" s="45"/>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70" s="33">
+        <v>2432540</v>
+      </c>
+      <c r="AB70">
+        <v>2.4330000000000001E-2</v>
+      </c>
+      <c r="AC70" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0036125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -4771,7 +5129,7 @@
         <v>13</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>71</v>
       </c>
       <c r="R71" s="1">
@@ -4794,9 +5152,24 @@
         <v>2.8406723484848486E-2</v>
       </c>
       <c r="X71" s="1"/>
-      <c r="AC71" s="45"/>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y71" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71" s="33">
+        <v>2841045</v>
+      </c>
+      <c r="AB71">
+        <v>2.8410000000000001E-2</v>
+      </c>
+      <c r="AC71" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0001153429452454</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -4839,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>73</v>
       </c>
       <c r="R72" s="1">
@@ -4862,9 +5235,24 @@
         <v>8.8715277777777785E-3</v>
       </c>
       <c r="X72" s="1"/>
-      <c r="AC72" s="45"/>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y72" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z72">
+        <v>3</v>
+      </c>
+      <c r="AA72" s="33">
+        <v>892760</v>
+      </c>
+      <c r="AB72">
+        <v>8.9300000000000004E-3</v>
+      </c>
+      <c r="AC72" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0065909980430527</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -4907,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>69</v>
       </c>
       <c r="R73" s="1">
@@ -4930,9 +5318,24 @@
         <v>1.6359427609427608E-2</v>
       </c>
       <c r="X73" s="1"/>
-      <c r="AC73" s="45"/>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y73" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+      <c r="AA73" s="33">
+        <v>1634435</v>
+      </c>
+      <c r="AB73">
+        <v>1.634E-2</v>
+      </c>
+      <c r="AC73" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99881245176228461</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4975,7 +5378,7 @@
         <v>14</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>69</v>
       </c>
       <c r="R74" s="1">
@@ -4998,9 +5401,24 @@
         <v>1.7617845117845119E-2</v>
       </c>
       <c r="X74" s="1"/>
-      <c r="AC74" s="45"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y74" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z74">
+        <v>3</v>
+      </c>
+      <c r="AA74" s="33">
+        <v>1754375</v>
+      </c>
+      <c r="AB74">
+        <v>1.754E-2</v>
+      </c>
+      <c r="AC74" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99558146201624453</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -5043,7 +5461,7 @@
         <v>13</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>71</v>
       </c>
       <c r="R75" s="1">
@@ -5066,9 +5484,24 @@
         <v>1.4729412177328843E-2</v>
       </c>
       <c r="X75" s="1"/>
-      <c r="AC75" s="45"/>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y75" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z75">
+        <v>3</v>
+      </c>
+      <c r="AA75" s="33">
+        <v>1473935</v>
+      </c>
+      <c r="AB75">
+        <v>1.474E-2</v>
+      </c>
+      <c r="AC75" s="48">
+        <f t="shared" si="39"/>
+        <v>1.0007188218065792</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -5111,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>68</v>
       </c>
       <c r="R76" s="1">
@@ -5134,7 +5567,22 @@
         <v>1.7362514029180695E-2</v>
       </c>
       <c r="X76" s="1"/>
-      <c r="AC76" s="45"/>
+      <c r="Y76" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="33">
+        <v>1735220</v>
+      </c>
+      <c r="AB76">
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="AC76" s="48">
+        <f t="shared" si="39"/>
+        <v>0.99927925016160324</v>
+      </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
@@ -5155,7 +5603,7 @@
       <c r="G77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U77" s="33">
+      <c r="U77" s="32">
         <f>SUM(U47:U76)</f>
         <v>1365714170</v>
       </c>
@@ -5163,6 +5611,10 @@
         <f>SUM(V47:V76)</f>
         <v>0.21772557806601367</v>
       </c>
+      <c r="AB77">
+        <f>SUM(AB47:AB76)</f>
+        <v>0.21793000000000001</v>
+      </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
@@ -5246,19 +5698,19 @@
         <v>15</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="45">K15*3</f>
+        <f t="shared" ref="K80:N80" si="46">K15*3</f>
         <v>15</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="P80" s="15" t="s">
@@ -5299,19 +5751,19 @@
         <v>105</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81:N81" si="46">K16-K15</f>
+        <f t="shared" ref="K81:N81" si="47">K16-K15</f>
         <v>75</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>74</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>75</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>104</v>
       </c>
       <c r="P81" s="15">
@@ -5370,13 +5822,13 @@
       <c r="I83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="38" t="s">
+      <c r="J83" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="40"/>
       <c r="O83" s="8" t="s">
         <v>0</v>
       </c>
@@ -5435,23 +5887,23 @@
         <v>15</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:S84" si="47">IF(K84 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P84:S84" si="48">IF(K84 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>18</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>75</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>104</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T93" si="48">PRODUCT(O84:S84)</f>
+        <f t="shared" ref="T84:T93" si="49">PRODUCT(O84:S84)</f>
         <v>31590000</v>
       </c>
       <c r="U84" s="16">
@@ -5488,31 +5940,31 @@
         <v>53</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" ref="O85:O93" si="49">IF(J85 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O85:O93" si="50">IF(J85 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" ref="P85:P93" si="50">IF(K85 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P85:P93" si="51">IF(K85 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" ref="Q85:Q93" si="51">IF(L85 = "Scatter", L$80, L$81)</f>
+        <f t="shared" ref="Q85:Q93" si="52">IF(L85 = "Scatter", L$80, L$81)</f>
         <v>74</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:R93" si="52">IF(M85 = "Scatter", M$80, M$81)</f>
+        <f t="shared" ref="R85:R93" si="53">IF(M85 = "Scatter", M$80, M$81)</f>
         <v>18</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" ref="S85:S93" si="53">IF(N85 = "Scatter", N$80, N$81)</f>
+        <f t="shared" ref="S85:S93" si="54">IF(N85 = "Scatter", N$80, N$81)</f>
         <v>104</v>
       </c>
       <c r="T85">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>31168800</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" ref="U85:U92" si="54">T85/$M$17</f>
+        <f t="shared" ref="U85:U92" si="55">T85/$M$17</f>
         <v>4.9690082644628097E-3</v>
       </c>
     </row>
@@ -5545,31 +5997,31 @@
         <v>51</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="49"/>
-        <v>15</v>
-      </c>
-      <c r="P86" s="1">
         <f t="shared" si="50"/>
         <v>15</v>
       </c>
+      <c r="P86" s="1">
+        <f t="shared" si="51"/>
+        <v>15</v>
+      </c>
       <c r="Q86" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>74</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>75</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>18</v>
       </c>
       <c r="T86">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>22477500</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>3.5834194214876035E-3</v>
       </c>
     </row>
@@ -5602,31 +6054,31 @@
         <v>53</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="51"/>
-        <v>18</v>
-      </c>
-      <c r="R87" s="1">
         <f t="shared" si="52"/>
         <v>18</v>
       </c>
+      <c r="R87" s="1">
+        <f t="shared" si="53"/>
+        <v>18</v>
+      </c>
       <c r="S87" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>104</v>
       </c>
       <c r="T87">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>37908000</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.0433884297520658E-3</v>
       </c>
     </row>
@@ -5659,31 +6111,31 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
+        <f t="shared" si="50"/>
+        <v>15</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="51"/>
+        <v>75</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="52"/>
+        <v>18</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" si="53"/>
+        <v>75</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="49"/>
-        <v>15</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" si="50"/>
-        <v>75</v>
-      </c>
-      <c r="Q88" s="1">
-        <f t="shared" si="51"/>
-        <v>18</v>
-      </c>
-      <c r="R88" s="1">
-        <f t="shared" si="52"/>
-        <v>75</v>
-      </c>
-      <c r="S88" s="1">
-        <f t="shared" si="53"/>
-        <v>18</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="48"/>
         <v>27337500</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>4.3582128099173556E-3</v>
       </c>
     </row>
@@ -5716,31 +6168,31 @@
         <v>51</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>15</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>74</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="52"/>
-        <v>18</v>
-      </c>
-      <c r="S89" s="1">
         <f t="shared" si="53"/>
         <v>18</v>
       </c>
+      <c r="S89" s="1">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
       <c r="T89">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>26973000</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>4.3001033057851242E-3</v>
       </c>
     </row>
@@ -5773,31 +6225,31 @@
         <v>53</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>105</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="51"/>
-        <v>18</v>
-      </c>
-      <c r="R90" s="1">
         <f t="shared" si="52"/>
         <v>18</v>
       </c>
+      <c r="R90" s="1">
+        <f t="shared" si="53"/>
+        <v>18</v>
+      </c>
       <c r="S90" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>104</v>
       </c>
       <c r="T90">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>53071200</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.4607438016528931E-3</v>
       </c>
     </row>
@@ -5830,31 +6282,31 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
+        <f t="shared" si="50"/>
+        <v>105</v>
+      </c>
+      <c r="P91" s="1">
+        <f t="shared" si="51"/>
+        <v>15</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="52"/>
+        <v>18</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="53"/>
+        <v>75</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="49"/>
-        <v>105</v>
-      </c>
-      <c r="P91" s="1">
-        <f t="shared" si="50"/>
-        <v>15</v>
-      </c>
-      <c r="Q91" s="1">
-        <f t="shared" si="51"/>
-        <v>18</v>
-      </c>
-      <c r="R91" s="1">
-        <f t="shared" si="52"/>
-        <v>75</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="53"/>
-        <v>18</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="48"/>
         <v>38272500</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.1014979338842971E-3</v>
       </c>
     </row>
@@ -5887,31 +6339,31 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>105</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>74</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="52"/>
-        <v>18</v>
-      </c>
-      <c r="S92" s="1">
         <f t="shared" si="53"/>
         <v>18</v>
       </c>
+      <c r="S92" s="1">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
       <c r="T92">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>37762200</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.0201446280991732E-3</v>
       </c>
     </row>
@@ -5944,27 +6396,27 @@
         <v>51</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>105</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>75</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="51"/>
-        <v>18</v>
-      </c>
-      <c r="R93" s="1">
         <f t="shared" si="52"/>
         <v>18</v>
       </c>
-      <c r="S93" s="1">
+      <c r="R93" s="1">
         <f t="shared" si="53"/>
         <v>18</v>
       </c>
+      <c r="S93" s="1">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
       <c r="T93">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>45927000</v>
       </c>
       <c r="U93" s="16">
@@ -5983,7 +6435,7 @@
         <v>5</v>
       </c>
       <c r="U94" s="16"/>
-      <c r="V94" s="18"/>
+      <c r="V94" s="17"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
@@ -6014,23 +6466,23 @@
         <v>53</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:S99" si="55">IF(J95 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O95:S99" si="56">IF(J95 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>104</v>
       </c>
       <c r="T95">
@@ -6071,23 +6523,23 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="T96">
@@ -6128,23 +6580,23 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>74</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="T97">
@@ -6185,23 +6637,23 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="T98">
@@ -6242,23 +6694,23 @@
         <v>51</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>105</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>18</v>
       </c>
       <c r="T99">
@@ -6280,7 +6732,7 @@
       <c r="G100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V100" s="18"/>
+      <c r="V100" s="17"/>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
@@ -6398,11 +6850,11 @@
         <f>SUM(T84:T93)</f>
         <v>352487700</v>
       </c>
-      <c r="U105" s="19">
+      <c r="U105" s="18">
         <f>SUM(U84:U93)</f>
         <v>5.6194473140495874E-2</v>
       </c>
-      <c r="V105" s="21"/>
+      <c r="V105" s="20"/>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
@@ -6421,11 +6873,11 @@
         <f>SUM(T95:T99)</f>
         <v>34190100</v>
       </c>
-      <c r="U106" s="19">
+      <c r="U106" s="18">
         <f>SUM(U95:U99)</f>
         <v>5.4506714876033056E-3</v>
       </c>
-      <c r="V106" s="21"/>
+      <c r="V106" s="20"/>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
@@ -6444,11 +6896,11 @@
         <f>T101</f>
         <v>1312200</v>
       </c>
-      <c r="U107" s="19">
+      <c r="U107" s="18">
         <f>U101</f>
         <v>2.0919421487603307E-4</v>
       </c>
-      <c r="V107" s="21"/>
+      <c r="V107" s="20"/>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
@@ -6471,11 +6923,11 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-      <c r="U108" s="18">
+      <c r="U108" s="17">
         <f>SUM(U105:U107)</f>
         <v>6.1854338842975219E-2</v>
       </c>
-      <c r="V108" s="21"/>
+      <c r="V108" s="20"/>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
@@ -6490,7 +6942,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="20"/>
+      <c r="L109" s="19"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -6520,7 +6972,7 @@
       <c r="S111" t="s">
         <v>69</v>
       </c>
-      <c r="T111" s="34">
+      <c r="T111" s="35">
         <f>V77+U108</f>
         <v>0.27957991690898887</v>
       </c>
@@ -6539,9 +6991,9 @@
       <c r="S112" t="s">
         <v>70</v>
       </c>
-      <c r="T112" s="34">
+      <c r="T112" s="35">
         <f>'Free Game Reel'!W110</f>
-        <v>11.469587804104268</v>
+        <v>11.443943263209292</v>
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.3">
@@ -6554,19 +7006,19 @@
       <c r="G113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T113" s="34">
+      <c r="T113" s="35">
         <f>SUM(T111:T112)</f>
-        <v>11.749167721013258</v>
+        <v>11.723523180118281</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S119" s="23"/>
+      <c r="S119" s="22"/>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S120" s="23"/>
+      <c r="S120" s="22"/>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S121" s="23"/>
+      <c r="S121" s="22"/>
     </row>
     <row r="124" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I124" s="1"/>
@@ -6601,10 +7053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D043-2C85-4F58-96B2-FCD5733F0D95}">
-  <dimension ref="B3:AB153"/>
+  <dimension ref="B3:AD153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6612,13 +7064,14 @@
     <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -6656,7 +7109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -6679,27 +7132,45 @@
         <v>16</v>
       </c>
       <c r="J4" s="8">
-        <f>COUNTIF($C$3:$C$112, I4)</f>
+        <f>COUNTIF($C$3:$C$113, I4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>COUNTIF($D$3:$D$112, I4)</f>
+        <f>COUNTIF($D$3:$D$113, I4)</f>
         <v>5</v>
       </c>
       <c r="L4" s="8">
-        <f>COUNTIF($E$3:$E$112, I4)</f>
+        <f>COUNTIF($E$3:$E$113, I4)</f>
         <v>4</v>
       </c>
       <c r="M4" s="8">
-        <f>COUNTIF($F$3:$F$112, I4)</f>
+        <f>COUNTIF($F$3:$F$113, I4)</f>
         <v>2</v>
       </c>
       <c r="N4" s="8">
-        <f>COUNTIF($G$3:$G$112, I4)</f>
+        <f>COUNTIF($G$3:$G$113, I4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -6722,27 +7193,45 @@
         <v>12</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5:J15" si="0">COUNTIF($C$3:$C$112, I5)</f>
+        <f t="shared" ref="J5:J15" si="0">COUNTIF($C$3:$C$113, I5)</f>
         <v>4</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:K15" si="1">COUNTIF($D$3:$D$112, I5)</f>
+        <f t="shared" ref="K5:K15" si="1">COUNTIF($D$3:$D$113, I5)</f>
         <v>5</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" ref="L5:L15" si="2">COUNTIF($E$3:$E$112, I5)</f>
+        <f t="shared" ref="L5:L15" si="2">COUNTIF($E$3:$E$113, I5)</f>
         <v>2</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M15" si="3">COUNTIF($F$3:$F$112, I5)</f>
+        <f t="shared" ref="M5:M15" si="3">COUNTIF($F$3:$F$113, I5)</f>
         <v>5</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" ref="N5:N15" si="4">COUNTIF($G$3:$G$112, I5)</f>
+        <f t="shared" ref="N5:N15" si="4">COUNTIF($G$3:$G$113, I5)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -6784,8 +7273,26 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -6827,8 +7334,26 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -6870,8 +7395,26 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -6913,8 +7456,26 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -6954,10 +7515,28 @@
       </c>
       <c r="N10" s="8">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -6999,8 +7578,26 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -7042,8 +7639,26 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -7067,7 +7682,7 @@
       </c>
       <c r="J13" s="8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="1"/>
@@ -7085,8 +7700,26 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -7128,8 +7761,26 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -7148,7 +7799,7 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="47" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="8">
@@ -7171,8 +7822,26 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -7196,7 +7865,7 @@
       </c>
       <c r="J16" s="8">
         <f>SUM(J4:J15)</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ref="K16:N16" si="5">SUM(K4:K15)</f>
@@ -7212,10 +7881,28 @@
       </c>
       <c r="N16" s="8">
         <f t="shared" si="5"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16">
+        <v>110</v>
+      </c>
+      <c r="S16">
+        <v>80</v>
+      </c>
+      <c r="T16">
+        <v>80</v>
+      </c>
+      <c r="U16">
+        <v>81</v>
+      </c>
+      <c r="V16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -7240,13 +7927,13 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="36">
         <f>PRODUCT(J16:N16)</f>
-        <v>6159110400</v>
-      </c>
-      <c r="N17" s="36"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6272640000</v>
+      </c>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -7266,7 +7953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -7286,7 +7973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -7323,8 +8010,28 @@
       <c r="N20" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q20" t="b">
+        <f>J4=R4</f>
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" ref="R20:V20" si="6">K4=S4</f>
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -7351,23 +8058,43 @@
         <v>4</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21:N21" si="6">K5+K$4</f>
+        <f t="shared" ref="K21:N21" si="7">K5+K$4</f>
         <v>10</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q21" t="b">
+        <f t="shared" ref="Q21:Q30" si="8">J5=R5</f>
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" ref="R21:R30" si="9">K5=S5</f>
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <f t="shared" ref="S21:S30" si="10">L5=T5</f>
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" ref="T21:T30" si="11">M5=U5</f>
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <f t="shared" ref="U21:U30" si="12">N5=V5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -7390,27 +8117,47 @@
         <v>10</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ref="J22:N22" si="7">J6+J$4</f>
+        <f t="shared" ref="J22:N22" si="13">J6+J$4</f>
         <v>4</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q22" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -7433,27 +8180,47 @@
         <v>14</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23:N23" si="8">J7+J$4</f>
+        <f t="shared" ref="J23:N23" si="14">J7+J$4</f>
         <v>7</v>
       </c>
       <c r="K23" s="8">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="Q23" t="b">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -7476,27 +8243,47 @@
         <v>9</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:N24" si="9">J8+J$4</f>
+        <f t="shared" ref="J24:N24" si="15">J8+J$4</f>
         <v>8</v>
       </c>
       <c r="K24" s="8">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="Q24" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -7519,27 +8306,47 @@
         <v>8</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:N25" si="10">J9+J$4</f>
+        <f t="shared" ref="J25:N25" si="16">J9+J$4</f>
         <v>11</v>
       </c>
       <c r="K25" s="8">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="Q25" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
         <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -7562,27 +8369,47 @@
         <v>6</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:N26" si="11">J10+J$4</f>
+        <f t="shared" ref="J26:N26" si="17">J10+J$4</f>
         <v>11</v>
       </c>
       <c r="K26" s="8">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="M26" s="8">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -7605,27 +8432,47 @@
         <v>11</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ref="J27:N27" si="12">J11+J$4</f>
+        <f t="shared" ref="J27:N27" si="18">J11+J$4</f>
         <v>16</v>
       </c>
       <c r="K27" s="8">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="Q27" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="M27" s="8">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="N27" s="8">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -7648,27 +8495,47 @@
         <v>7</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" ref="J28:N28" si="13">J12+J$4</f>
+        <f t="shared" ref="J28:N28" si="19">J12+J$4</f>
         <v>16</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q28" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -7691,27 +8558,47 @@
         <v>13</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29:N29" si="14">J13+J$4</f>
-        <v>15</v>
+        <f t="shared" ref="J29:N29" si="20">J13+J$4</f>
+        <v>16</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q29" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -7734,27 +8621,47 @@
         <v>5</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" ref="J30:N30" si="15">J14+J$4</f>
+        <f t="shared" ref="J30:N30" si="21">J14+J$4</f>
         <v>16</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q30" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -7773,8 +8680,28 @@
       <c r="G31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q31" t="b">
+        <f t="shared" ref="Q31" si="22">J15=R15</f>
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" ref="R31" si="23">K15=S15</f>
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <f t="shared" ref="S31" si="24">L15=T15</f>
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" ref="T31" si="25">M15=U15</f>
+        <v>1</v>
+      </c>
+      <c r="U31" t="b">
+        <f t="shared" ref="U31" si="26">N15=V15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -7812,7 +8739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -7836,26 +8763,26 @@
       </c>
       <c r="J33" s="8">
         <f>J$16-J21</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33:N33" si="16">K$16-K21</f>
+        <f t="shared" ref="K33:N33" si="27">K$16-K21</f>
         <v>70</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>74</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>74</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="16"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="27"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -7878,27 +8805,27 @@
         <v>10</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" ref="J34:N34" si="17">J$16-J22</f>
-        <v>105</v>
+        <f t="shared" ref="J34:N34" si="28">J$16-J22</f>
+        <v>106</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>72</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>70</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>77</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="17"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -7921,27 +8848,27 @@
         <v>14</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:N35" si="18">J$16-J23</f>
-        <v>102</v>
+        <f t="shared" ref="J35:N35" si="29">J$16-J23</f>
+        <v>103</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>70</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>70</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>73</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="18"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -7964,27 +8891,27 @@
         <v>9</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:N36" si="19">J$16-J24</f>
-        <v>101</v>
+        <f t="shared" ref="J36:N36" si="30">J$16-J24</f>
+        <v>102</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="19"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="30"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -8007,27 +8934,27 @@
         <v>8</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:N37" si="20">J$16-J25</f>
-        <v>98</v>
+        <f t="shared" ref="J37:N37" si="31">J$16-J25</f>
+        <v>99</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>67</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>67</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -8050,27 +8977,27 @@
         <v>6</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ref="J38:N38" si="21">J$16-J26</f>
-        <v>98</v>
+        <f t="shared" ref="J38:N38" si="32">J$16-J26</f>
+        <v>99</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>66</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>71</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>73</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -8093,27 +9020,27 @@
         <v>11</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ref="J39:N39" si="22">J$16-J27</f>
-        <v>93</v>
+        <f t="shared" ref="J39:N39" si="33">J$16-J27</f>
+        <v>94</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>67</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>67</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="33"/>
         <v>69</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="22"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -8136,27 +9063,27 @@
         <v>7</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="23">J$16-J28</f>
-        <v>93</v>
+        <f t="shared" ref="J40:N40" si="34">J$16-J28</f>
+        <v>94</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>67</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>66</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>69</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="23"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -8179,27 +9106,27 @@
         <v>13</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:N41" si="24">J$16-J29</f>
+        <f t="shared" ref="J41:N41" si="35">J$16-J29</f>
         <v>94</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>66</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>66</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="35"/>
         <v>67</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="24"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -8222,27 +9149,27 @@
         <v>5</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:N42" si="25">J$16-J30</f>
+        <f t="shared" ref="J42:N42" si="36">J$16-J30</f>
+        <v>94</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="36"/>
+        <v>63</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="36"/>
+        <v>64</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="36"/>
+        <v>67</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="36"/>
         <v>93</v>
       </c>
-      <c r="K42" s="8">
-        <f t="shared" si="25"/>
-        <v>63</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" si="25"/>
-        <v>64</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="25"/>
-        <v>67</v>
-      </c>
-      <c r="N42" s="8">
-        <f t="shared" si="25"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -8262,7 +9189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -8282,7 +9209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -8302,7 +9229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -8321,26 +9248,26 @@
       <c r="G46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="37" t="s">
+      <c r="I46" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="17" t="s">
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="O46" s="17" t="s">
+      <c r="O46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P46" s="17" t="s">
+      <c r="P46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q46" s="17" t="s">
+      <c r="Q46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R46" s="17" t="s">
+      <c r="R46" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -8356,7 +9283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -8391,23 +9318,23 @@
         <v>36</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N76" si="26">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N47:N76" si="37">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O76" si="27">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O47:O76" si="38">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
         <v>10</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P76" si="28">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P47:P76" si="39">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
         <v>6</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q66" si="29">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q47:Q66" si="40">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
         <v>7</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R56" si="30">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R47" si="41">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S47" s="12">
@@ -8421,24 +9348,29 @@
         <f>T47*S47</f>
         <v>2016000</v>
       </c>
-      <c r="V47">
-        <f t="shared" ref="V47:V76" si="31">U47/$M$17</f>
-        <v>3.2731999738144004E-4</v>
-      </c>
-      <c r="Y47" s="41" t="s">
+      <c r="V47" s="22">
+        <f t="shared" ref="V47:V76" si="42">U47/$M$17</f>
+        <v>3.2139577594123047E-4</v>
+      </c>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="Z47" s="49">
-        <v>5</v>
-      </c>
       <c r="AA47" s="50">
-        <v>33600</v>
-      </c>
-      <c r="AB47" s="51">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="53">
+        <v>34500</v>
+      </c>
+      <c r="AC47" s="34">
         <v>3.4000000000000002E-4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD47">
+        <f>AC47/V47</f>
+        <v>1.0578857142857143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -8473,54 +9405,59 @@
         <v>37</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48:N57" si="32">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N48:N57" si="43">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" ref="O48:O57" si="33">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O48:O57" si="44">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" ref="P48:P57" si="34">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P48:P57" si="45">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
         <v>10</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" ref="Q48:Q57" si="35">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q48:Q57" si="46">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ref="R48:R56" si="36">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R48:R56" si="47">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" ref="S48:S76" si="37">PRODUCT(N48:R48)</f>
+        <f t="shared" ref="S48:S76" si="48">PRODUCT(N48:R48)</f>
         <v>5120</v>
       </c>
       <c r="T48" s="12">
         <v>250</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U76" si="38">T48*S48</f>
+        <f t="shared" ref="U48:U76" si="49">T48*S48</f>
         <v>1280000</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="31"/>
-        <v>2.0782222055964444E-4</v>
-      </c>
-      <c r="Y48" s="41" t="s">
+      <c r="V48" s="22">
+        <f t="shared" si="42"/>
+        <v>2.0406081012141618E-4</v>
+      </c>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z48" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="50">
-        <v>19500</v>
-      </c>
-      <c r="AB48" s="51">
+      <c r="AA48" s="51">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="53">
+        <v>19250</v>
+      </c>
+      <c r="AC48" s="34">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD48">
+        <f t="shared" ref="AD48:AD76" si="50">AC48/V48</f>
+        <v>0.93109500000000012</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -8555,54 +9492,59 @@
         <v>38</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>39200</v>
       </c>
       <c r="T49" s="12">
         <v>100</v>
       </c>
       <c r="U49" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>3920000</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="31"/>
-        <v>6.3645555046391118E-4</v>
-      </c>
-      <c r="Y49" s="41" t="s">
+      <c r="V49" s="22">
+        <f t="shared" si="42"/>
+        <v>6.2493623099683709E-4</v>
+      </c>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z49" s="49">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="46">
-        <v>65600</v>
-      </c>
-      <c r="AB49" s="48">
+      <c r="AA49" s="52">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="53">
+        <v>66500</v>
+      </c>
+      <c r="AC49" s="34">
         <v>6.6E-4</v>
       </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD49">
+        <f t="shared" si="50"/>
+        <v>1.0561077551020408</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -8637,54 +9579,59 @@
         <v>39</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>12</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>69120</v>
       </c>
       <c r="T50" s="12">
         <v>100</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>6912000</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="31"/>
-        <v>1.1222399910220801E-3</v>
-      </c>
-      <c r="Y50" s="41" t="s">
+      <c r="V50" s="22">
+        <f t="shared" si="42"/>
+        <v>1.1019283746556473E-3</v>
+      </c>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z50" s="47">
-        <v>5</v>
-      </c>
       <c r="AA50" s="52">
-        <v>112800</v>
+        <v>5</v>
       </c>
       <c r="AB50" s="53">
+        <v>113000</v>
+      </c>
+      <c r="AC50" s="34">
         <v>1.1299999999999999E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD50">
+        <f t="shared" si="50"/>
+        <v>1.0254750000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -8719,54 +9666,59 @@
         <v>40</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>167310</v>
       </c>
       <c r="T51" s="12">
         <v>80</v>
       </c>
       <c r="U51" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>13384800</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="31"/>
-        <v>2.1731709826146323E-3</v>
-      </c>
-      <c r="Y51" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z51" s="47">
-        <v>5</v>
+      <c r="V51" s="22">
+        <f t="shared" si="42"/>
+        <v>2.1338383838383837E-3</v>
+      </c>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="46" t="s">
+        <v>8</v>
       </c>
       <c r="AA51" s="52">
-        <v>176000</v>
+        <v>5</v>
       </c>
       <c r="AB51" s="53">
-        <v>1.7600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+        <v>216080</v>
+      </c>
+      <c r="AC51" s="34">
+        <v>2.15E-3</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="50"/>
+        <v>1.0075739644970414</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -8801,54 +9753,59 @@
         <v>41</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="36"/>
-        <v>14</v>
+        <f t="shared" si="47"/>
+        <v>15</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="37"/>
-        <v>155232</v>
+        <f t="shared" si="48"/>
+        <v>166320</v>
       </c>
       <c r="T52" s="12">
         <v>50</v>
       </c>
       <c r="U52" s="13">
-        <f t="shared" si="38"/>
-        <v>7761600</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="31"/>
-        <v>1.260181989918544E-3</v>
-      </c>
-      <c r="Y52" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>8316000</v>
+      </c>
+      <c r="V52" s="22">
+        <f t="shared" si="42"/>
+        <v>1.3257575757575758E-3</v>
+      </c>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z52" s="47">
-        <v>5</v>
-      </c>
       <c r="AA52" s="52">
-        <v>128250</v>
+        <v>5</v>
       </c>
       <c r="AB52" s="53">
-        <v>1.2800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+        <v>135250</v>
+      </c>
+      <c r="AC52" s="34">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="50"/>
+        <v>1.0182857142857142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -8883,54 +9840,59 @@
         <v>42</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>421824</v>
       </c>
       <c r="T53" s="12">
         <v>25</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>10545600</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="31"/>
-        <v>1.7121953196357709E-3</v>
-      </c>
-      <c r="Y53" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z53" s="47">
-        <v>5</v>
+      <c r="V53" s="22">
+        <f t="shared" si="42"/>
+        <v>1.6812059993878176E-3</v>
+      </c>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="AA53" s="52">
-        <v>165925</v>
+        <v>5</v>
       </c>
       <c r="AB53" s="53">
-        <v>1.66E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+        <v>168225</v>
+      </c>
+      <c r="AC53" s="34">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="50"/>
+        <v>0.99928265817023221</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -8965,54 +9927,59 @@
         <v>43</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>13</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>559104</v>
       </c>
       <c r="T54" s="12">
         <v>25</v>
       </c>
       <c r="U54" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>13977600</v>
       </c>
-      <c r="V54">
-        <f t="shared" si="31"/>
-        <v>2.2694186485113176E-3</v>
-      </c>
-      <c r="Y54" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z54" s="47">
-        <v>5</v>
+      <c r="V54" s="22">
+        <f t="shared" si="42"/>
+        <v>2.2283440465258649E-3</v>
+      </c>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="46" t="s">
+        <v>7</v>
       </c>
       <c r="AA54" s="52">
-        <v>208925</v>
+        <v>5</v>
       </c>
       <c r="AB54" s="53">
-        <v>2.0899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+        <v>219075</v>
+      </c>
+      <c r="AC54" s="34">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="50"/>
+        <v>0.97830494505494503</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -9047,54 +10014,59 @@
         <v>44</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="32"/>
-        <v>15</v>
+        <f t="shared" si="43"/>
+        <v>16</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>16</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="37"/>
-        <v>658560</v>
+        <f t="shared" si="48"/>
+        <v>702464</v>
       </c>
       <c r="T55" s="12">
         <v>25</v>
       </c>
       <c r="U55" s="13">
-        <f t="shared" si="38"/>
-        <v>16464000</v>
-      </c>
-      <c r="V55">
-        <f t="shared" si="31"/>
-        <v>2.6731133119484267E-3</v>
-      </c>
-      <c r="Y55" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z55" s="47">
-        <v>5</v>
+        <f t="shared" si="49"/>
+        <v>17561600</v>
+      </c>
+      <c r="V55" s="22">
+        <f t="shared" si="42"/>
+        <v>2.79971431486583E-3</v>
+      </c>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="AA55" s="52">
-        <v>130950</v>
+        <v>5</v>
       </c>
       <c r="AB55" s="53">
-        <v>1.31E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+        <v>285500</v>
+      </c>
+      <c r="AC55" s="34">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="50"/>
+        <v>1.0179610058309039</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -9129,54 +10101,59 @@
         <v>45</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>17</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>16</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>17</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1035776</v>
       </c>
       <c r="T56" s="12">
         <v>25</v>
       </c>
       <c r="U56" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>25894400</v>
       </c>
-      <c r="V56">
-        <f t="shared" si="31"/>
-        <v>4.2042435219216074E-3</v>
-      </c>
-      <c r="Y56" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z56" s="47">
-        <v>5</v>
-      </c>
-      <c r="AA56" s="52">
-        <v>282125</v>
+      <c r="V56" s="22">
+        <f t="shared" si="42"/>
+        <v>4.128150188756249E-3</v>
+      </c>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="50">
+        <v>5</v>
       </c>
       <c r="AB56" s="53">
-        <v>2.82E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+        <v>414300</v>
+      </c>
+      <c r="AC56" s="34">
+        <v>4.13E-3</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="50"/>
+        <v>1.0004480968858132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -9209,54 +10186,59 @@
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="R57" s="1">
         <f>N33</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="37"/>
-        <v>176400</v>
+        <f t="shared" si="48"/>
+        <v>178080</v>
       </c>
       <c r="T57" s="12">
         <v>100</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="38"/>
-        <v>17640000</v>
-      </c>
-      <c r="V57">
-        <f t="shared" si="31"/>
-        <v>2.8640499770876001E-3</v>
-      </c>
-      <c r="Y57" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>17808000</v>
+      </c>
+      <c r="V57" s="22">
+        <f t="shared" si="42"/>
+        <v>2.8389960208142027E-3</v>
+      </c>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Z57" s="49">
+      <c r="AA57" s="52">
         <v>4</v>
       </c>
-      <c r="AA57" s="50">
-        <v>277700</v>
-      </c>
-      <c r="AB57" s="51">
+      <c r="AB57" s="53">
+        <v>278700</v>
+      </c>
+      <c r="AC57" s="34">
         <v>2.7799999999999999E-3</v>
       </c>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD57">
+        <f t="shared" si="50"/>
+        <v>0.97921940700808618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -9289,54 +10271,59 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" ref="N58:N66" si="39">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N58:N66" si="51">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" ref="O58:O66" si="40">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O58:O66" si="52">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" ref="P58:P66" si="41">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P58:P66" si="53">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
         <v>10</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" ref="Q58:Q66" si="42">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q58:Q66" si="54">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" ref="R58:R66" si="43">N34</f>
-        <v>105</v>
+        <f t="shared" ref="R58:R66" si="55">N34</f>
+        <v>106</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="37"/>
-        <v>134400</v>
+        <f t="shared" si="48"/>
+        <v>135680</v>
       </c>
       <c r="T58" s="12">
         <v>80</v>
       </c>
       <c r="U58" s="13">
-        <f t="shared" si="38"/>
-        <v>10752000</v>
-      </c>
-      <c r="V58">
-        <f t="shared" si="31"/>
-        <v>1.7457066527010135E-3</v>
-      </c>
-      <c r="Y58" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>10854400</v>
+      </c>
+      <c r="V58" s="22">
+        <f t="shared" si="42"/>
+        <v>1.7304356698296093E-3</v>
+      </c>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Z58" s="49">
+      <c r="AA58" s="52">
         <v>4</v>
       </c>
-      <c r="AA58" s="50">
-        <v>156800</v>
-      </c>
-      <c r="AB58" s="51">
-        <v>1.57E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB58" s="53">
+        <v>172960</v>
+      </c>
+      <c r="AC58" s="34">
+        <v>1.72E-3</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="50"/>
+        <v>0.99396933962264145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -9369,54 +10356,59 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="43"/>
-        <v>102</v>
+        <f t="shared" si="55"/>
+        <v>103</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="37"/>
-        <v>571200</v>
+        <f t="shared" si="48"/>
+        <v>576800</v>
       </c>
       <c r="T59" s="12">
         <v>50</v>
       </c>
       <c r="U59" s="13">
-        <f t="shared" si="38"/>
-        <v>28560000</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="31"/>
-        <v>4.6370332962370666E-3</v>
-      </c>
-      <c r="Y59" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>28840000</v>
+      </c>
+      <c r="V59" s="22">
+        <f t="shared" si="42"/>
+        <v>4.5977451280481583E-3</v>
+      </c>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Z59" s="49">
+      <c r="AA59" s="52">
         <v>4</v>
       </c>
-      <c r="AA59" s="50">
-        <v>464500</v>
-      </c>
-      <c r="AB59" s="51">
-        <v>4.64E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB59" s="53">
+        <v>458650</v>
+      </c>
+      <c r="AC59" s="34">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="50"/>
+        <v>0.99396549237170606</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -9449,54 +10441,59 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>12</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="43"/>
-        <v>101</v>
+        <f t="shared" si="55"/>
+        <v>102</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="37"/>
-        <v>872640</v>
+        <f t="shared" si="48"/>
+        <v>881280</v>
       </c>
       <c r="T60" s="12">
         <v>50</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="38"/>
-        <v>43632000</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="31"/>
-        <v>7.0841399433268807E-3</v>
-      </c>
-      <c r="Y60" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>44064000</v>
+      </c>
+      <c r="V60" s="22">
+        <f t="shared" si="42"/>
+        <v>7.0247933884297524E-3</v>
+      </c>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Z60" s="47">
+      <c r="AA60" s="52">
         <v>4</v>
       </c>
-      <c r="AA60" s="52">
-        <v>702950</v>
-      </c>
       <c r="AB60" s="53">
-        <v>7.0299999999999998E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+        <v>708700</v>
+      </c>
+      <c r="AC60" s="34">
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="50"/>
+        <v>1.0064352941176471</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -9529,54 +10526,59 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>13</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="43"/>
-        <v>100</v>
+        <f t="shared" si="55"/>
+        <v>101</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="37"/>
-        <v>1859000</v>
+        <f t="shared" si="48"/>
+        <v>1877590</v>
       </c>
       <c r="T61" s="12">
         <v>30</v>
       </c>
       <c r="U61" s="13">
-        <f t="shared" si="38"/>
-        <v>55770000</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="31"/>
-        <v>9.0548790942276344E-3</v>
-      </c>
-      <c r="Y61" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z61" s="47">
+        <f t="shared" si="49"/>
+        <v>56327700</v>
+      </c>
+      <c r="V61" s="22">
+        <f t="shared" si="42"/>
+        <v>8.9799031986531989E-3</v>
+      </c>
+      <c r="Y61" s="41"/>
+      <c r="Z61" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA61" s="52">
         <v>4</v>
       </c>
-      <c r="AA61" s="52">
-        <v>745500</v>
-      </c>
       <c r="AB61" s="53">
-        <v>7.45E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+        <v>901620</v>
+      </c>
+      <c r="AC61" s="34">
+        <v>8.9899999999999997E-3</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="50"/>
+        <v>1.00112437752651</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -9609,54 +10611,59 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>11</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>95</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1053360</v>
       </c>
       <c r="T62" s="12">
         <v>15</v>
       </c>
       <c r="U62" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>15800400</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="31"/>
-        <v>2.5653704794770362E-3</v>
-      </c>
-      <c r="Y62" s="41" t="s">
+      <c r="V62" s="22">
+        <f t="shared" si="42"/>
+        <v>2.5189393939393941E-3</v>
+      </c>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Z62" s="47">
+      <c r="AA62" s="50">
         <v>4</v>
       </c>
-      <c r="AA62" s="52">
-        <v>251955</v>
-      </c>
       <c r="AB62" s="53">
-        <v>2.5200000000000001E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+        <v>254340</v>
+      </c>
+      <c r="AC62" s="34">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="50"/>
+        <v>1.008360902255639</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -9689,54 +10696,59 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>13</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="43"/>
-        <v>96</v>
+        <f t="shared" si="55"/>
+        <v>97</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="37"/>
-        <v>3115008</v>
+        <f t="shared" si="48"/>
+        <v>3147456</v>
       </c>
       <c r="T63" s="12">
         <v>10</v>
       </c>
       <c r="U63" s="13">
-        <f t="shared" si="38"/>
-        <v>31150080</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="31"/>
-        <v>5.0575615595395071E-3</v>
-      </c>
-      <c r="Y63" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z63" s="47">
+        <f t="shared" si="49"/>
+        <v>31474560</v>
+      </c>
+      <c r="V63" s="22">
+        <f t="shared" si="42"/>
+        <v>5.017753290480563E-3</v>
+      </c>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA63" s="50">
         <v>4</v>
       </c>
-      <c r="AA63" s="52">
-        <v>501950</v>
-      </c>
       <c r="AB63" s="53">
-        <v>5.0200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+        <v>507080</v>
+      </c>
+      <c r="AC63" s="34">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="50"/>
+        <v>1.0084194473250778</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -9769,54 +10781,59 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>13</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="43"/>
-        <v>93</v>
+        <f t="shared" si="55"/>
+        <v>94</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="37"/>
-        <v>3249792</v>
+        <f t="shared" si="48"/>
+        <v>3284736</v>
       </c>
       <c r="T64" s="12">
         <v>10</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="38"/>
-        <v>32497920</v>
-      </c>
-      <c r="V64">
-        <f t="shared" si="31"/>
-        <v>5.2763983577888132E-3</v>
-      </c>
-      <c r="Y64" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z64" s="47">
+        <f t="shared" si="49"/>
+        <v>32847360</v>
+      </c>
+      <c r="V64" s="22">
+        <f t="shared" si="42"/>
+        <v>5.2366085093357821E-3</v>
+      </c>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA64" s="52">
         <v>4</v>
       </c>
-      <c r="AA64" s="52">
-        <v>530150</v>
-      </c>
       <c r="AB64" s="53">
+        <v>531070</v>
+      </c>
+      <c r="AC64" s="34">
         <v>5.3E-3</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AD64">
+        <f t="shared" si="50"/>
+        <v>1.0121054477437457</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -9849,54 +10866,59 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
-        <f t="shared" si="39"/>
-        <v>15</v>
+        <f t="shared" si="51"/>
+        <v>16</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>14</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="43"/>
-        <v>93</v>
+        <f t="shared" si="55"/>
+        <v>94</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="37"/>
-        <v>3827880</v>
+        <f t="shared" si="48"/>
+        <v>4126976</v>
       </c>
       <c r="T65" s="12">
         <v>10</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="38"/>
-        <v>38278800</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="31"/>
-        <v>6.2149884502800921E-3</v>
-      </c>
-      <c r="Y65" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z65" s="47">
+        <f t="shared" si="49"/>
+        <v>41269760</v>
+      </c>
+      <c r="V65" s="22">
+        <f t="shared" si="42"/>
+        <v>6.5793286399347005E-3</v>
+      </c>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA65" s="52">
         <v>4</v>
       </c>
-      <c r="AA65" s="52">
-        <v>362380</v>
-      </c>
       <c r="AB65" s="53">
-        <v>3.62E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
+        <v>659100</v>
+      </c>
+      <c r="AC65" s="34">
+        <v>6.5700000000000003E-3</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="50"/>
+        <v>0.99858212890019238</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -9929,54 +10951,59 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>16</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>17</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>16</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="43"/>
-        <v>92</v>
+        <f t="shared" si="55"/>
+        <v>93</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="37"/>
-        <v>5605376</v>
+        <f t="shared" si="48"/>
+        <v>5666304</v>
       </c>
       <c r="T66" s="12">
         <v>10</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="38"/>
-        <v>56053760</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="31"/>
-        <v>9.1009506827479502E-3</v>
-      </c>
-      <c r="Y66" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="47">
+        <f t="shared" si="49"/>
+        <v>56663040</v>
+      </c>
+      <c r="V66" s="22">
+        <f t="shared" si="42"/>
+        <v>9.0333639424548511E-3</v>
+      </c>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="52">
         <v>4</v>
       </c>
-      <c r="AA66" s="52">
-        <v>661090</v>
-      </c>
       <c r="AB66" s="53">
-        <v>6.6100000000000004E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
+        <v>906960</v>
+      </c>
+      <c r="AC66" s="34">
+        <v>9.0399999999999994E-3</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="50"/>
+        <v>1.000734616427216</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -10007,15 +11034,15 @@
       <c r="L67" s="1"/>
       <c r="M67" s="11"/>
       <c r="N67" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="Q67" s="1">
@@ -10024,37 +11051,42 @@
       </c>
       <c r="R67" s="1">
         <f>$N$16</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="37"/>
-        <v>1935840</v>
+        <f t="shared" si="48"/>
+        <v>1953600</v>
       </c>
       <c r="T67" s="12">
         <v>20</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="38"/>
-        <v>38716800</v>
-      </c>
-      <c r="V67">
-        <f t="shared" si="31"/>
-        <v>6.2861026163778455E-3</v>
-      </c>
-      <c r="Y67" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>39072000</v>
+      </c>
+      <c r="V67" s="22">
+        <f t="shared" si="42"/>
+        <v>6.2289562289562289E-3</v>
+      </c>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Z67" s="49">
+      <c r="AA67" s="52">
         <v>3</v>
       </c>
-      <c r="AA67" s="50">
-        <v>626240</v>
-      </c>
-      <c r="AB67" s="51">
-        <v>6.2599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB67" s="53">
+        <v>625400</v>
+      </c>
+      <c r="AC67" s="34">
+        <v>6.2399999999999999E-3</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="50"/>
+        <v>1.001772972972973</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -10085,54 +11117,59 @@
       <c r="L68" s="1"/>
       <c r="M68" s="11"/>
       <c r="N68" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="44">M34</f>
+        <f t="shared" ref="Q68:Q76" si="56">M34</f>
         <v>77</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" ref="R68:R76" si="45">$N$16</f>
-        <v>109</v>
+        <f t="shared" ref="R68:R76" si="57">$N$16</f>
+        <v>110</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="37"/>
-        <v>2685760</v>
+        <f t="shared" si="48"/>
+        <v>2710400</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="38"/>
-        <v>53715200</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="31"/>
-        <v>8.7212594857854799E-3</v>
-      </c>
-      <c r="Y68" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>54208000</v>
+      </c>
+      <c r="V68" s="22">
+        <f t="shared" si="42"/>
+        <v>8.6419753086419745E-3</v>
+      </c>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z68" s="49">
+      <c r="AA68" s="53">
         <v>3</v>
       </c>
-      <c r="AA68" s="50">
-        <v>781160</v>
-      </c>
-      <c r="AB68" s="51">
-        <v>7.8100000000000001E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB68" s="53">
+        <v>875060</v>
+      </c>
+      <c r="AC68" s="34">
+        <v>8.7299999999999999E-3</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="50"/>
+        <v>1.0101857142857145</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -10163,54 +11200,59 @@
       <c r="L69" s="1"/>
       <c r="M69" s="11"/>
       <c r="N69" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>73</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="37"/>
-        <v>5569900</v>
+        <f t="shared" si="48"/>
+        <v>5621000</v>
       </c>
       <c r="T69" s="12">
         <v>20</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="38"/>
-        <v>111398000</v>
-      </c>
-      <c r="V69">
-        <f t="shared" si="31"/>
-        <v>1.8086702910861931E-2</v>
-      </c>
-      <c r="Y69" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>112420000</v>
+      </c>
+      <c r="V69" s="22">
+        <f t="shared" si="42"/>
+        <v>1.7922278338945007E-2</v>
+      </c>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z69" s="49">
+      <c r="AA69" s="53">
         <v>3</v>
       </c>
-      <c r="AA69" s="50">
-        <v>1795500</v>
-      </c>
-      <c r="AB69" s="51">
-        <v>1.7950000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB69" s="53">
+        <v>1804860</v>
+      </c>
+      <c r="AC69" s="34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="50"/>
+        <v>1.0043365949119372</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -10241,54 +11283,59 @@
       <c r="L70" s="1"/>
       <c r="M70" s="11"/>
       <c r="N70" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>72</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="37"/>
-        <v>7534080</v>
+        <f t="shared" si="48"/>
+        <v>7603200</v>
       </c>
       <c r="T70" s="12">
         <v>20</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="38"/>
-        <v>150681600</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="31"/>
-        <v>2.4464831804281346E-2</v>
-      </c>
-      <c r="Y70" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>152064000</v>
+      </c>
+      <c r="V70" s="22">
+        <f t="shared" si="42"/>
+        <v>2.4242424242424242E-2</v>
+      </c>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z70" s="47">
+      <c r="AA70" s="53">
         <v>3</v>
       </c>
-      <c r="AA70" s="52">
-        <v>2423040</v>
-      </c>
       <c r="AB70" s="53">
-        <v>2.4230000000000002E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
+        <v>2431540</v>
+      </c>
+      <c r="AC70" s="34">
+        <v>2.4250000000000001E-2</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="50"/>
+        <v>1.0003124999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -10319,54 +11366,59 @@
       <c r="L71" s="1"/>
       <c r="M71" s="11"/>
       <c r="N71" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>71</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="37"/>
-        <v>14386801</v>
+        <f t="shared" si="48"/>
+        <v>14518790</v>
       </c>
       <c r="T71" s="12">
         <v>15</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="38"/>
-        <v>215802015</v>
-      </c>
-      <c r="V71">
-        <f t="shared" si="31"/>
-        <v>3.5037854655113831E-2</v>
-      </c>
-      <c r="Y71" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z71" s="47">
+        <f t="shared" si="49"/>
+        <v>217781850</v>
+      </c>
+      <c r="V71" s="22">
+        <f t="shared" si="42"/>
+        <v>3.4719328703703707E-2</v>
+      </c>
+      <c r="Y71" s="41"/>
+      <c r="Z71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA71" s="53">
         <v>3</v>
       </c>
-      <c r="AA71" s="52">
-        <v>2829540</v>
-      </c>
       <c r="AB71" s="53">
-        <v>2.8299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
+        <v>3473775</v>
+      </c>
+      <c r="AC71" s="34">
+        <v>3.4639999999999997E-2</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="50"/>
+        <v>0.99771514292857721</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -10397,54 +11449,59 @@
       <c r="L72" s="1"/>
       <c r="M72" s="11"/>
       <c r="N72" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>73</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="37"/>
-        <v>11028402</v>
+        <f t="shared" si="48"/>
+        <v>11129580</v>
       </c>
       <c r="T72" s="12">
         <v>5</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="38"/>
-        <v>55142010</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="31"/>
-        <v>8.9529179408766573E-3</v>
-      </c>
-      <c r="Y72" s="41" t="s">
+        <f t="shared" si="49"/>
+        <v>55647900</v>
+      </c>
+      <c r="V72" s="22">
+        <f t="shared" si="42"/>
+        <v>8.8715277777777785E-3</v>
+      </c>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z72" s="47">
+      <c r="AA72" s="53">
         <v>3</v>
       </c>
-      <c r="AA72" s="52">
-        <v>888005</v>
-      </c>
       <c r="AB72" s="53">
-        <v>8.8800000000000007E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
+        <v>891375</v>
+      </c>
+      <c r="AC72" s="34">
+        <v>8.8900000000000003E-3</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="50"/>
+        <v>1.0020821917808218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -10475,54 +11532,59 @@
       <c r="L73" s="1"/>
       <c r="M73" s="11"/>
       <c r="N73" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>69</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="37"/>
-        <v>20336784</v>
+        <f t="shared" si="48"/>
+        <v>20523360</v>
       </c>
       <c r="T73" s="12">
         <v>5</v>
       </c>
       <c r="U73" s="13">
-        <f t="shared" si="38"/>
-        <v>101683920</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="31"/>
-        <v>1.6509514101257221E-2</v>
-      </c>
-      <c r="Y73" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z73" s="47">
+        <f t="shared" si="49"/>
+        <v>102616800</v>
+      </c>
+      <c r="V73" s="22">
+        <f t="shared" si="42"/>
+        <v>1.6359427609427608E-2</v>
+      </c>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA73" s="53">
         <v>3</v>
       </c>
-      <c r="AA73" s="52">
-        <v>1631835</v>
-      </c>
       <c r="AB73" s="53">
-        <v>1.6320000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
+        <v>1642095</v>
+      </c>
+      <c r="AC73" s="34">
+        <v>1.6369999999999999E-2</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="50"/>
+        <v>1.0006462567532801</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -10553,54 +11615,59 @@
       <c r="L74" s="1"/>
       <c r="M74" s="11"/>
       <c r="N74" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>69</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="37"/>
-        <v>21901152</v>
+        <f t="shared" si="48"/>
+        <v>22102080</v>
       </c>
       <c r="T74" s="12">
         <v>5</v>
       </c>
       <c r="U74" s="13">
-        <f t="shared" si="38"/>
-        <v>109505760</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="31"/>
-        <v>1.7779476724430855E-2</v>
-      </c>
-      <c r="Y74" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z74" s="47">
+        <f t="shared" si="49"/>
+        <v>110510400</v>
+      </c>
+      <c r="V74" s="22">
+        <f t="shared" si="42"/>
+        <v>1.7617845117845119E-2</v>
+      </c>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA74" s="53">
         <v>3</v>
       </c>
-      <c r="AA74" s="52">
-        <v>1759135</v>
-      </c>
       <c r="AB74" s="53">
-        <v>1.7590000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
+        <v>1767110</v>
+      </c>
+      <c r="AC74" s="34">
+        <v>1.762E-2</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="50"/>
+        <v>1.0001223124701386</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -10631,54 +11698,59 @@
       <c r="L75" s="1"/>
       <c r="M75" s="11"/>
       <c r="N75" s="1">
-        <f t="shared" si="26"/>
-        <v>15</v>
+        <f t="shared" si="37"/>
+        <v>16</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>67</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="37"/>
-        <v>21470820</v>
+        <f t="shared" si="48"/>
+        <v>23112320</v>
       </c>
       <c r="T75" s="12">
         <v>5</v>
       </c>
       <c r="U75" s="13">
-        <f t="shared" si="38"/>
-        <v>107354100</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="31"/>
-        <v>1.7430130818892286E-2</v>
-      </c>
-      <c r="Y75" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z75" s="47">
+        <f t="shared" si="49"/>
+        <v>115561600</v>
+      </c>
+      <c r="V75" s="22">
+        <f t="shared" si="42"/>
+        <v>1.8423120089786756E-2</v>
+      </c>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA75" s="53">
         <v>3</v>
       </c>
-      <c r="AA75" s="52">
-        <v>1470745</v>
-      </c>
       <c r="AB75" s="53">
-        <v>1.4710000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
+        <v>1846385</v>
+      </c>
+      <c r="AC75" s="34">
+        <v>1.8409999999999999E-2</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="50"/>
+        <v>0.9992878464818763</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -10709,54 +11781,59 @@
       <c r="L76" s="1"/>
       <c r="M76" s="11"/>
       <c r="N76" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>67</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <f t="shared" si="57"/>
+        <v>110</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="37"/>
-        <v>31782656</v>
+        <f t="shared" si="48"/>
+        <v>32074240</v>
       </c>
       <c r="T76" s="12">
         <v>5</v>
       </c>
       <c r="U76" s="13">
-        <f t="shared" si="38"/>
-        <v>158913280</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="31"/>
-        <v>2.5801336504700418E-2</v>
-      </c>
-      <c r="Y76" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="47">
+        <f t="shared" si="49"/>
+        <v>160371200</v>
+      </c>
+      <c r="V76" s="22">
+        <f t="shared" si="42"/>
+        <v>2.5566778900112233E-2</v>
+      </c>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="53">
         <v>3</v>
       </c>
-      <c r="AA76" s="52">
-        <v>1847850</v>
-      </c>
       <c r="AB76" s="53">
-        <v>1.848E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+        <v>2565685</v>
+      </c>
+      <c r="AC76" s="34">
+        <v>2.5579999999999999E-2</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="50"/>
+        <v>1.0005171202809482</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -10777,18 +11854,14 @@
       </c>
       <c r="V77">
         <f>SUM(V47:V76)</f>
-        <v>0.24925736758996886</v>
-      </c>
-      <c r="AA77" s="40">
-        <f>SUM(AA47:AA76)</f>
-        <v>22031700</v>
-      </c>
-      <c r="AB77" s="54">
-        <f>SUM(AB47:AB76)</f>
-        <v>0.22030999999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+        <v>0.2487008612003877</v>
+      </c>
+      <c r="AC77" s="49">
+        <f>SUM(AC47:AC76)</f>
+        <v>0.24903</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -10823,7 +11896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -10850,19 +11923,19 @@
         <v>3</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ref="K79:N79" si="46">K15*3</f>
+        <f t="shared" ref="K79:N79" si="58">K15*3</f>
         <v>3</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="58"/>
         <v>3</v>
       </c>
       <c r="Q79" s="15" t="s">
@@ -10876,7 +11949,7 @@
       </c>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -10900,23 +11973,23 @@
       </c>
       <c r="J80" s="1">
         <f>J16-J15</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="47">K16-K15</f>
+        <f t="shared" ref="K80:N80" si="59">K16-K15</f>
         <v>79</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>79</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>80</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="47"/>
-        <v>108</v>
+        <f t="shared" si="59"/>
+        <v>109</v>
       </c>
       <c r="Q80" s="15">
         <f>COMBIN(5, 3)</f>
@@ -10976,13 +12049,13 @@
       <c r="I82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J82" s="38" t="s">
+      <c r="J82" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="40"/>
       <c r="O82" s="8" t="s">
         <v>0</v>
       </c>
@@ -11047,28 +12120,28 @@
         <v>3</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" ref="P83:S83" si="48">IF(K83 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P83:S83" si="60">IF(K83 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>80</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="48"/>
-        <v>108</v>
+        <f t="shared" si="60"/>
+        <v>109</v>
       </c>
       <c r="T83">
-        <f t="shared" ref="T83:T92" si="49">PRODUCT(O83:S83)</f>
-        <v>233280</v>
+        <f t="shared" ref="T83:T92" si="61">PRODUCT(O83:S83)</f>
+        <v>235440</v>
       </c>
       <c r="U83" s="16">
         <f>T83/$M$17</f>
-        <v>3.78755996969952E-5</v>
+        <v>3.7534435261707987E-5</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
@@ -11103,32 +12176,32 @@
         <v>53</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84:O92" si="50">IF(J84 = "Scatter", J$79, J$80)</f>
+        <f t="shared" ref="O84:O92" si="62">IF(J84 = "Scatter", J$79, J$80)</f>
         <v>3</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:P92" si="51">IF(K84 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P84:P92" si="63">IF(K84 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84:Q92" si="52">IF(L84 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q84:Q92" si="64">IF(L84 = "Scatter", L$79, L$80)</f>
         <v>79</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84:R92" si="53">IF(M84 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R84:R92" si="65">IF(M84 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84:S92" si="54">IF(N84 = "Scatter", N$79, N$80)</f>
-        <v>108</v>
+        <f t="shared" ref="S84:S92" si="66">IF(N84 = "Scatter", N$79, N$80)</f>
+        <v>109</v>
       </c>
       <c r="T84">
-        <f t="shared" si="49"/>
-        <v>230364</v>
+        <f t="shared" si="61"/>
+        <v>232497</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U91" si="55">T84/$M$17</f>
-        <v>3.7402154700782761E-5</v>
+        <f t="shared" ref="U84:U91" si="67">T84/$M$17</f>
+        <v>3.7065254820936641E-5</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.3">
@@ -11160,32 +12233,32 @@
         <v>51</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T85">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>170640</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="55"/>
-        <v>2.7705299778357601E-5</v>
+        <f t="shared" si="67"/>
+        <v>2.7203856749311293E-5</v>
       </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
@@ -11217,32 +12290,32 @@
         <v>53</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="54"/>
-        <v>108</v>
+        <f t="shared" si="66"/>
+        <v>109</v>
       </c>
       <c r="T86">
-        <f t="shared" si="49"/>
-        <v>230364</v>
+        <f t="shared" si="61"/>
+        <v>232497</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="55"/>
-        <v>3.7402154700782761E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.7065254820936641E-5</v>
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.3">
@@ -11274,32 +12347,32 @@
         <v>51</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T87">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>170640</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="55"/>
-        <v>2.7705299778357601E-5</v>
+        <f t="shared" si="67"/>
+        <v>2.7203856749311293E-5</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.3">
@@ -11331,32 +12404,32 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T88">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>168507</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="55"/>
-        <v>2.735898353112813E-5</v>
+        <f t="shared" si="67"/>
+        <v>2.6863808539944903E-5</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.3">
@@ -11388,32 +12461,32 @@
         <v>53</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="50"/>
-        <v>108</v>
+        <f t="shared" si="62"/>
+        <v>109</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="54"/>
-        <v>108</v>
+        <f t="shared" si="66"/>
+        <v>109</v>
       </c>
       <c r="T89">
-        <f t="shared" si="49"/>
-        <v>314928</v>
+        <f t="shared" si="61"/>
+        <v>320787</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="55"/>
-        <v>5.1132059590943526E-5</v>
+        <f t="shared" si="67"/>
+        <v>5.1140668044077137E-5</v>
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.3">
@@ -11445,32 +12518,32 @@
         <v>51</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="50"/>
-        <v>108</v>
+        <f t="shared" si="62"/>
+        <v>109</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T90">
-        <f t="shared" si="49"/>
-        <v>233280</v>
+        <f t="shared" si="61"/>
+        <v>235440</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="55"/>
-        <v>3.78755996969952E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.7534435261707987E-5</v>
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.3">
@@ -11502,32 +12575,32 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="50"/>
-        <v>108</v>
+        <f t="shared" si="62"/>
+        <v>109</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>79</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T91">
-        <f t="shared" si="49"/>
-        <v>230364</v>
+        <f t="shared" si="61"/>
+        <v>232497</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="55"/>
-        <v>3.7402154700782761E-5</v>
+        <f t="shared" si="67"/>
+        <v>3.7065254820936641E-5</v>
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.3">
@@ -11559,32 +12632,32 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="50"/>
-        <v>108</v>
+        <f t="shared" si="62"/>
+        <v>109</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>79</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
       <c r="T92">
-        <f t="shared" si="49"/>
-        <v>230364</v>
+        <f t="shared" si="61"/>
+        <v>232497</v>
       </c>
       <c r="U92" s="16">
         <f>T92/$M$17</f>
-        <v>3.7402154700782761E-5</v>
+        <v>3.7065254820936641E-5</v>
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.3">
@@ -11632,28 +12705,28 @@
         <v>3</v>
       </c>
       <c r="P94" s="1">
-        <f t="shared" ref="P94" si="56">IF(K94 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P94" si="68">IF(K94 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" ref="Q94" si="57">IF(L94 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q94" si="69">IF(L94 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" ref="R94" si="58">IF(M94 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R94" si="70">IF(M94 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" ref="S94" si="59">IF(N94 = "Scatter", N$79, N$80)</f>
-        <v>108</v>
+        <f t="shared" ref="S94" si="71">IF(N94 = "Scatter", N$79, N$80)</f>
+        <v>109</v>
       </c>
       <c r="T94">
         <f>PRODUCT(O94:S94)</f>
-        <v>8748</v>
+        <v>8829</v>
       </c>
       <c r="U94" s="16">
         <f>T94/$M$17</f>
-        <v>1.4203349886373201E-6</v>
+        <v>1.4075413223140496E-6</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.3">
@@ -11685,23 +12758,23 @@
         <v>51</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:O98" si="60">IF(J95 = "Scatter", J$79, J$80)</f>
+        <f t="shared" ref="O95:O98" si="72">IF(J95 = "Scatter", J$79, J$80)</f>
         <v>3</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" ref="P95:P98" si="61">IF(K95 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P95:P98" si="73">IF(K95 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ref="Q95:Q98" si="62">IF(L95 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q95:Q98" si="74">IF(L95 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" ref="R95:R98" si="63">IF(M95 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R95:R98" si="75">IF(M95 = "Scatter", M$79, M$80)</f>
         <v>80</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" ref="S95:S98" si="64">IF(N95 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S95:S98" si="76">IF(N95 = "Scatter", N$79, N$80)</f>
         <v>3</v>
       </c>
       <c r="T95">
@@ -11710,7 +12783,7 @@
       </c>
       <c r="U95" s="16">
         <f>T95/$M$17</f>
-        <v>1.0520999915832001E-6</v>
+        <v>1.0330578512396695E-6</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.3">
@@ -11742,23 +12815,23 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>79</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="T96">
@@ -11767,7 +12840,7 @@
       </c>
       <c r="U96" s="16">
         <f>T96/$M$17</f>
-        <v>1.0389487416884102E-6</v>
+        <v>1.0201446280991735E-6</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.3">
@@ -11799,23 +12872,23 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>79</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="T97">
@@ -11824,7 +12897,7 @@
       </c>
       <c r="U97" s="16">
         <f>T97/$M$17</f>
-        <v>1.0389487416884102E-6</v>
+        <v>1.0201446280991735E-6</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.3">
@@ -11856,32 +12929,32 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="60"/>
-        <v>108</v>
+        <f t="shared" si="72"/>
+        <v>109</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="T98">
         <f>PRODUCT(O98:S98)</f>
-        <v>8748</v>
+        <v>8829</v>
       </c>
       <c r="U98" s="16">
         <f>T98/$M$17</f>
-        <v>1.4203349886373201E-6</v>
+        <v>1.4075413223140496E-6</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.3">
@@ -11928,19 +13001,19 @@
         <v>3</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" ref="P100" si="65">IF(K100 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P100" si="77">IF(K100 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" ref="Q100" si="66">IF(L100 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q100" si="78">IF(L100 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" ref="R100" si="67">IF(M100 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R100" si="79">IF(M100 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" ref="S100" si="68">IF(N100 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S100" si="80">IF(N100 = "Scatter", N$79, N$80)</f>
         <v>3</v>
       </c>
       <c r="T100">
@@ -11949,7 +13022,7 @@
       </c>
       <c r="U100" s="16">
         <f>T100/$M$17</f>
-        <v>3.9453749684370004E-8</v>
+        <v>3.8739669421487603E-8</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.3">
@@ -11994,7 +13067,7 @@
       <c r="U102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V102" s="26" t="s">
+      <c r="V102" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12022,24 +13095,24 @@
       </c>
       <c r="S103" s="1">
         <f>SUM(T82:T91)</f>
-        <v>1982367</v>
-      </c>
-      <c r="T103" s="27">
+        <v>1998945</v>
+      </c>
+      <c r="T103" s="26">
         <f>SUM(U82:U91)</f>
-        <v>3.2185930617512559E-4</v>
+        <v>3.1867682506887048E-4</v>
       </c>
       <c r="U103" s="1">
         <v>10</v>
       </c>
-      <c r="V103" s="24">
+      <c r="V103" s="23">
         <f>U103/$U$108</f>
-        <v>10.003342279420707</v>
-      </c>
-      <c r="W103" s="25">
+        <v>10.003309328656998</v>
+      </c>
+      <c r="W103" s="24">
         <f>V103*$V$77</f>
-        <v>2.493406763669844</v>
-      </c>
-      <c r="X103" s="21"/>
+        <v>2.4878316448908677</v>
+      </c>
+      <c r="X103" s="20"/>
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
@@ -12065,22 +13138,22 @@
       </c>
       <c r="S104" s="1">
         <f>SUM(T93:T97)</f>
-        <v>28026</v>
-      </c>
-      <c r="T104" s="27">
+        <v>28107</v>
+      </c>
+      <c r="T104" s="26">
         <f>SUM(U83:U92)</f>
-        <v>3.5926146087590833E-4</v>
+        <v>3.557420798898071E-4</v>
       </c>
       <c r="U104" s="1">
         <v>15</v>
       </c>
-      <c r="V104" s="24">
+      <c r="V104" s="23">
         <f>U104/$U$108</f>
-        <v>15.00501341913106</v>
-      </c>
-      <c r="W104" s="25">
-        <f t="shared" ref="W104:W105" si="69">V104*$V$77</f>
-        <v>3.7401101455047661</v>
+        <v>15.004963992985497</v>
+      </c>
+      <c r="W104" s="24">
+        <f t="shared" ref="W104:W105" si="81">V104*$V$77</f>
+        <v>3.7317474673363011</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.3">
@@ -12100,20 +13173,20 @@
         <f>T100</f>
         <v>243</v>
       </c>
-      <c r="T105" s="27">
+      <c r="T105" s="26">
         <f>SUM(U84:U93)</f>
-        <v>3.2138586117891311E-4</v>
+        <v>3.1820764462809915E-4</v>
       </c>
       <c r="U105" s="1">
         <v>20</v>
       </c>
-      <c r="V105" s="24">
+      <c r="V105" s="23">
         <f>U105/$U$108</f>
-        <v>20.006684558841414</v>
-      </c>
-      <c r="W105" s="25">
-        <f t="shared" si="69"/>
-        <v>4.9868135273396881</v>
+        <v>20.006618657313997</v>
+      </c>
+      <c r="W105" s="24">
+        <f t="shared" si="81"/>
+        <v>4.9756632897817354</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.3">
@@ -12126,11 +13199,11 @@
       <c r="G106" t="s">
         <v>6</v>
       </c>
-      <c r="T106" s="18"/>
+      <c r="T106" s="17"/>
       <c r="U106" s="1"/>
-      <c r="W106" s="25">
+      <c r="W106" s="24">
         <f>SUM(W103:W105)</f>
-        <v>11.220330436514299</v>
+        <v>11.195242402008905</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.3">
@@ -12143,10 +13216,10 @@
       <c r="G107" t="s">
         <v>5</v>
       </c>
-      <c r="T107" s="22"/>
-      <c r="U107" s="21">
+      <c r="T107" s="21"/>
+      <c r="U107" s="20">
         <f>SUMPRODUCT(T103:T105,U103:U105)/SUM(U103:U105)</f>
-        <v>3.3411627107706989E-4</v>
+        <v>3.3082338536883987E-4</v>
       </c>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.3">
@@ -12159,9 +13232,9 @@
       <c r="G108" t="s">
         <v>13</v>
       </c>
-      <c r="U108" s="21">
+      <c r="U108" s="20">
         <f>1-U107</f>
-        <v>0.99966588372892295</v>
+        <v>0.99966917661463117</v>
       </c>
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.3">
@@ -12185,9 +13258,9 @@
       <c r="G110" t="s">
         <v>12</v>
       </c>
-      <c r="W110" s="24">
+      <c r="W110" s="23">
         <f>V77+W106</f>
-        <v>11.469587804104268</v>
+        <v>11.443943263209292</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.3">

--- a/Document/line_and_free_game_v3.xlsx
+++ b/Document/line_and_free_game_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\SlotSimulation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358ACB5-4154-41D8-949B-9700892E8E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0F4041-B54E-4753-91C5-93039CBBB488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
+    <workbookView xWindow="26580" yWindow="0" windowWidth="25125" windowHeight="20985" activeTab="2" xr2:uid="{85F1ABA9-DE8E-4950-9650-66A930469619}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="70">
   <si>
     <t>Reel 1</t>
   </si>
@@ -276,22 +276,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>base game</t>
+    <t>시뮬레이션 결과</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bonus game</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -300,8 +293,7 @@
     <numFmt numFmtId="179" formatCode="0.0000000"/>
     <numFmt numFmtId="180" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="0.00000"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="196" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -477,7 +469,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,8 +479,11 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,11 +586,26 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,48 +622,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1260,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD34BBB1-4271-466A-86C7-92B04A304A75}">
-  <dimension ref="B3:AC125"/>
+  <dimension ref="B3:AE125"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V77" sqref="V77"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,13 +1270,14 @@
     <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.75" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.125" customWidth="1"/>
-    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1410,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1453,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1496,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1539,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1582,7 +1573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1625,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1668,7 +1659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1754,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1796,8 +1787,26 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="Q14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1839,8 +1848,31 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" ref="R15" si="5">COUNTIF($C$4:$C$113, Q15)</f>
+        <v>5</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" ref="S15" si="6">COUNTIF($D$4:$D$113, Q15)</f>
+        <v>5</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" ref="T15" si="7">COUNTIF($E$4:$E$113, Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" ref="U15" si="8">COUNTIF($F$4:$F$113, Q15)</f>
+        <v>6</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" ref="V15" si="9">COUNTIF($G$4:$G$113, Q15)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1867,19 +1899,19 @@
         <v>110</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" ref="K16:N16" si="5">SUM(K4:K15)</f>
+        <f t="shared" ref="K16:N16" si="10">SUM(K4:K15)</f>
         <v>80</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
     </row>
@@ -1908,11 +1940,11 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="41">
         <f>PRODUCT(J16:N16)</f>
         <v>6272640000</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -2015,23 +2047,23 @@
         <v>12</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ref="J21:N30" si="6">J5+J$4</f>
+        <f t="shared" ref="J21:N21" si="11">J5+J$4</f>
         <v>4</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -2058,23 +2090,23 @@
         <v>10</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" ref="J22:N22" si="7">J6+J$4</f>
+        <f t="shared" ref="J22:N22" si="12">J6+J$4</f>
         <v>4</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -2101,23 +2133,23 @@
         <v>14</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23:N23" si="8">J7+J$4</f>
+        <f t="shared" ref="J23:N23" si="13">J7+J$4</f>
         <v>7</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
     </row>
@@ -2144,23 +2176,23 @@
         <v>9</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:N24" si="9">J8+J$4</f>
+        <f t="shared" ref="J24:N24" si="14">J8+J$4</f>
         <v>8</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
     </row>
@@ -2187,23 +2219,23 @@
         <v>8</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:N25" si="10">J9+J$4</f>
+        <f t="shared" ref="J25:N25" si="15">J9+J$4</f>
         <v>9</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
@@ -2230,23 +2262,23 @@
         <v>6</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:N26" si="11">J10+J$4</f>
+        <f t="shared" ref="J26:N26" si="16">J10+J$4</f>
         <v>11</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -2273,23 +2305,23 @@
         <v>11</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ref="J27:N27" si="12">J11+J$4</f>
+        <f t="shared" ref="J27:N27" si="17">J11+J$4</f>
         <v>16</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
     </row>
@@ -2316,23 +2348,23 @@
         <v>7</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" ref="J28:N28" si="13">J12+J$4</f>
+        <f t="shared" ref="J28:N28" si="18">J12+J$4</f>
         <v>16</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
     </row>
@@ -2359,23 +2391,23 @@
         <v>13</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29:N29" si="14">J13+J$4</f>
+        <f t="shared" ref="J29:N29" si="19">J13+J$4</f>
         <v>14</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
@@ -2402,23 +2434,23 @@
         <v>5</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" ref="J30:N30" si="15">J14+J$4</f>
+        <f t="shared" ref="J30:N30" si="20">J14+J$4</f>
         <v>16</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
     </row>
@@ -2480,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -2507,23 +2539,23 @@
         <v>106</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33:N33" si="16">K$16-K21</f>
+        <f t="shared" ref="K33:N33" si="21">K$16-K21</f>
         <v>70</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -2546,27 +2578,27 @@
         <v>10</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" ref="J34:N34" si="17">J$16-J22</f>
+        <f t="shared" ref="J34:N34" si="22">J$16-J22</f>
         <v>106</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>72</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>71</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>77</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -2589,27 +2621,27 @@
         <v>14</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:N35" si="18">J$16-J23</f>
+        <f t="shared" ref="J35:N35" si="23">J$16-J23</f>
         <v>103</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>73</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -2632,27 +2664,27 @@
         <v>9</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:N36" si="19">J$16-J24</f>
+        <f t="shared" ref="J36:N36" si="24">J$16-J24</f>
         <v>102</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -2675,27 +2707,27 @@
         <v>8</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:N37" si="20">J$16-J25</f>
+        <f t="shared" ref="J37:N37" si="25">J$16-J25</f>
         <v>101</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -2718,27 +2750,27 @@
         <v>6</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ref="J38:N38" si="21">J$16-J26</f>
+        <f t="shared" ref="J38:N38" si="26">J$16-J26</f>
         <v>99</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>71</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -2761,27 +2793,27 @@
         <v>11</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ref="J39:N39" si="22">J$16-J27</f>
+        <f t="shared" ref="J39:N39" si="27">J$16-J27</f>
         <v>94</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>67</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>67</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>69</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -2804,27 +2836,27 @@
         <v>7</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="23">J$16-J28</f>
+        <f t="shared" ref="J40:N40" si="28">J$16-J28</f>
         <v>94</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>67</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>66</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>69</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -2847,27 +2879,27 @@
         <v>13</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:N41" si="24">J$16-J29</f>
+        <f t="shared" ref="J41:N41" si="29">J$16-J29</f>
         <v>96</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>67</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>67</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>71</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -2890,27 +2922,27 @@
         <v>5</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:N42" si="25">J$16-J30</f>
+        <f t="shared" ref="J42:N42" si="30">J$16-J30</f>
         <v>94</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>67</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -2930,7 +2962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -2950,7 +2982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -2969,13 +3001,13 @@
       <c r="G45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -2994,13 +3026,13 @@
       <c r="G46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="I46" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
       <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
@@ -3028,13 +3060,15 @@
       <c r="V46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -3069,23 +3103,23 @@
         <v>36</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N76" si="26">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N47:N76" si="31">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O76" si="27">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O47:O76" si="32">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
         <v>10</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P76" si="28">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P47:P76" si="33">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
         <v>6</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q66" si="29">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q47" si="34">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
         <v>7</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47:R56" si="30">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R47" si="35">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S47" s="12">
@@ -3100,28 +3134,29 @@
         <v>2016000</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47:V76" si="31">U47/$M$17</f>
+        <f t="shared" ref="V47:V76" si="36">U47/$M$17</f>
         <v>3.2139577594123047E-4</v>
       </c>
       <c r="X47" s="1"/>
-      <c r="Y47" t="s">
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z47">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="33">
-        <v>29100</v>
-      </c>
-      <c r="AB47">
-        <v>2.9E-4</v>
-      </c>
-      <c r="AC47" s="48">
-        <f>AB47/V47</f>
-        <v>0.90231428571428574</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB47" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="46">
+        <v>2011200</v>
+      </c>
+      <c r="AD47" s="48">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AE47">
+        <f>AD47/V47</f>
+        <v>0.99565714285714302</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -3156,59 +3191,60 @@
         <v>37</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48:N57" si="32">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N48:N57" si="37">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" ref="O48:O57" si="33">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O48:O57" si="38">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" ref="P48:P57" si="34">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P48:P57" si="39">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
         <v>9</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" ref="Q48:Q57" si="35">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q48:Q57" si="40">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ref="R48:R56" si="36">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R48:R56" si="41">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" ref="S48:S76" si="37">PRODUCT(N48:R48)</f>
+        <f t="shared" ref="S48:S76" si="42">PRODUCT(N48:R48)</f>
         <v>4608</v>
       </c>
       <c r="T48" s="12">
         <v>250</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U76" si="38">T48*S48</f>
+        <f t="shared" ref="U48:U76" si="43">T48*S48</f>
         <v>1152000</v>
       </c>
       <c r="V48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.8365472910927456E-4</v>
       </c>
       <c r="X48" s="1"/>
-      <c r="Y48" t="s">
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Z48">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="33">
-        <v>18250</v>
-      </c>
-      <c r="AB48">
+      <c r="AB48" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="46">
+        <v>1152750</v>
+      </c>
+      <c r="AD48" s="48">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="AC48" s="48">
-        <f t="shared" ref="AC48:AC76" si="39">AB48/V48</f>
+      <c r="AE48">
+        <f t="shared" ref="AE48:AE76" si="44">AD48/V48</f>
         <v>0.98010000000000008</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -3243,59 +3279,60 @@
         <v>38</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>39200</v>
       </c>
       <c r="T49" s="12">
         <v>100</v>
       </c>
       <c r="U49" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>3920000</v>
       </c>
       <c r="V49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.2493623099683709E-4</v>
       </c>
       <c r="X49" s="1"/>
-      <c r="Y49" t="s">
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z49">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="33">
-        <v>61100</v>
-      </c>
-      <c r="AB49">
-        <v>6.0999999999999997E-4</v>
-      </c>
-      <c r="AC49" s="48">
-        <f t="shared" si="39"/>
-        <v>0.97609959183673456</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB49" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="46">
+        <v>3910600</v>
+      </c>
+      <c r="AD49" s="48">
+        <v>6.2E-4</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="44"/>
+        <v>0.99210122448979587</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -3330,59 +3367,60 @@
         <v>39</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>69120</v>
       </c>
       <c r="T50" s="12">
         <v>100</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>6912000</v>
       </c>
       <c r="V50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.1019283746556473E-3</v>
       </c>
       <c r="X50" s="1"/>
-      <c r="Y50" t="s">
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Z50">
-        <v>5</v>
-      </c>
-      <c r="AA50" s="33">
-        <v>106900</v>
-      </c>
-      <c r="AB50">
-        <v>1.07E-3</v>
-      </c>
-      <c r="AC50" s="48">
-        <f t="shared" si="39"/>
-        <v>0.97102500000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB50" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC50" s="46">
+        <v>6862000</v>
+      </c>
+      <c r="AD50" s="48">
+        <v>1.09E-3</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="44"/>
+        <v>0.98917500000000014</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -3417,59 +3455,60 @@
         <v>40</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>136890</v>
       </c>
       <c r="T51" s="12">
         <v>80</v>
       </c>
       <c r="U51" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>10951200</v>
       </c>
       <c r="V51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.7458677685950412E-3</v>
       </c>
       <c r="X51" s="1"/>
-      <c r="Y51" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z51">
-        <v>5</v>
-      </c>
-      <c r="AA51" s="33">
-        <v>173520</v>
-      </c>
-      <c r="AB51">
-        <v>1.74E-3</v>
-      </c>
-      <c r="AC51" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99663905325443791</v>
-      </c>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB51" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC51" s="46">
+        <v>10986080</v>
+      </c>
+      <c r="AD51" s="48">
+        <v>1.75E-3</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="44"/>
+        <v>1.0023668639053256</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -3504,59 +3543,60 @@
         <v>41</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>166320</v>
       </c>
       <c r="T52" s="12">
         <v>50</v>
       </c>
       <c r="U52" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>8316000</v>
       </c>
       <c r="V52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.3257575757575758E-3</v>
       </c>
       <c r="X52" s="1"/>
-      <c r="Y52" t="s">
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Z52">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="33">
-        <v>136150</v>
-      </c>
-      <c r="AB52">
-        <v>1.3600000000000001E-3</v>
-      </c>
-      <c r="AC52" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0258285714285715</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB52" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="46">
+        <v>8365150</v>
+      </c>
+      <c r="AD52" s="48">
+        <v>1.33E-3</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="44"/>
+        <v>1.0031999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -3591,59 +3631,60 @@
         <v>42</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>421824</v>
       </c>
       <c r="T53" s="12">
         <v>25</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>10545600</v>
       </c>
       <c r="V53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.6812059993878176E-3</v>
       </c>
       <c r="X53" s="1"/>
-      <c r="Y53" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z53">
-        <v>5</v>
-      </c>
-      <c r="AA53" s="33">
-        <v>166750</v>
-      </c>
-      <c r="AB53">
-        <v>1.67E-3</v>
-      </c>
-      <c r="AC53" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99333454710969504</v>
-      </c>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB53" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC53" s="46">
+        <v>10554900</v>
+      </c>
+      <c r="AD53" s="48">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="44"/>
+        <v>0.99928265817023221</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -3678,59 +3719,60 @@
         <v>43</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>14</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>524160</v>
       </c>
       <c r="T54" s="12">
         <v>25</v>
       </c>
       <c r="U54" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>13104000</v>
       </c>
       <c r="V54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.0890725436179983E-3</v>
       </c>
       <c r="X54" s="1"/>
-      <c r="Y54" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z54">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="33">
-        <v>211225</v>
-      </c>
-      <c r="AB54">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="AC54" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0100175824175823</v>
-      </c>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB54" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="46">
+        <v>13091275</v>
+      </c>
+      <c r="AD54" s="48">
+        <v>2.0899999999999998E-3</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="44"/>
+        <v>1.000443956043956</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -3765,59 +3807,60 @@
         <v>44</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>331240</v>
       </c>
       <c r="T55" s="12">
         <v>25</v>
       </c>
       <c r="U55" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>8281000</v>
       </c>
       <c r="V55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.3201777879808183E-3</v>
       </c>
       <c r="X55" s="1"/>
-      <c r="Y55" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z55">
-        <v>5</v>
-      </c>
-      <c r="AA55" s="33">
-        <v>132375</v>
-      </c>
-      <c r="AB55">
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB55" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="46">
+        <v>8263600</v>
+      </c>
+      <c r="AD55" s="48">
         <v>1.32E-3</v>
       </c>
-      <c r="AC55" s="48">
-        <f t="shared" si="39"/>
+      <c r="AE55">
+        <f t="shared" si="44"/>
         <v>0.9998653302741215</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -3852,59 +3895,60 @@
         <v>45</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>13</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>567840</v>
       </c>
       <c r="T56" s="12">
         <v>25</v>
       </c>
       <c r="U56" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>14196000</v>
       </c>
       <c r="V56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.2631619222528315E-3</v>
       </c>
       <c r="X56" s="1"/>
-      <c r="Y56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z56">
-        <v>5</v>
-      </c>
-      <c r="AA56" s="33">
-        <v>230525</v>
-      </c>
-      <c r="AB56">
-        <v>2.31E-3</v>
-      </c>
-      <c r="AC56" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0206958579881655</v>
-      </c>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB56" s="34">
+        <v>5</v>
+      </c>
+      <c r="AC56" s="46">
+        <v>14191000</v>
+      </c>
+      <c r="AD56" s="48">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="44"/>
+        <v>0.99860287404902781</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -3937,59 +3981,60 @@
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" ref="R57:R66" si="40">N33</f>
+        <f t="shared" ref="R57:R66" si="45">N33</f>
         <v>106</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>178080</v>
       </c>
       <c r="T57" s="12">
         <v>100</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>17808000</v>
       </c>
       <c r="V57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.8389960208142027E-3</v>
       </c>
       <c r="X57" s="1"/>
-      <c r="Y57" t="s">
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z57">
+      <c r="AB57" s="34">
         <v>4</v>
       </c>
-      <c r="AA57" s="33">
-        <v>293800</v>
-      </c>
-      <c r="AB57">
-        <v>2.9399999999999999E-3</v>
-      </c>
-      <c r="AC57" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0355773584905661</v>
-      </c>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC57" s="46">
+        <v>17881800</v>
+      </c>
+      <c r="AD57" s="48">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="44"/>
+        <v>1.0038760107816711</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -4022,59 +4067,60 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" ref="N58:N66" si="41">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N58:N66" si="46">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" ref="O58:O66" si="42">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O58:O66" si="47">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" ref="P58:P66" si="43">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P58:P66" si="48">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
         <v>9</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" ref="Q58:Q66" si="44">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q58:Q66" si="49">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>106</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>122112</v>
       </c>
       <c r="T58" s="12">
         <v>80</v>
       </c>
       <c r="U58" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>9768960</v>
       </c>
       <c r="V58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.5573921028466484E-3</v>
       </c>
       <c r="X58" s="1"/>
-      <c r="Y58" t="s">
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Z58">
+      <c r="AB58" s="34">
         <v>4</v>
       </c>
-      <c r="AA58" s="33">
-        <v>155200</v>
-      </c>
-      <c r="AB58">
+      <c r="AC58" s="46">
+        <v>9725760</v>
+      </c>
+      <c r="AD58" s="48">
         <v>1.5499999999999999E-3</v>
       </c>
-      <c r="AC58" s="48">
-        <f t="shared" si="39"/>
+      <c r="AE58">
+        <f t="shared" si="44"/>
         <v>0.9952535377358489</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -4107,59 +4153,60 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="45"/>
+        <v>103</v>
+      </c>
+      <c r="S59" s="12">
         <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="P59" s="1">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="44"/>
-        <v>8</v>
-      </c>
-      <c r="R59" s="1">
-        <f t="shared" si="40"/>
-        <v>103</v>
-      </c>
-      <c r="S59" s="12">
-        <f t="shared" si="37"/>
         <v>576800</v>
       </c>
       <c r="T59" s="12">
         <v>50</v>
       </c>
       <c r="U59" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>28840000</v>
       </c>
       <c r="V59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>4.5977451280481583E-3</v>
       </c>
       <c r="X59" s="1"/>
-      <c r="Y59" t="s">
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z59">
+      <c r="AB59" s="34">
         <v>4</v>
       </c>
-      <c r="AA59" s="33">
-        <v>462600</v>
-      </c>
-      <c r="AB59">
-        <v>4.6299999999999996E-3</v>
-      </c>
-      <c r="AC59" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0070153675450761</v>
-      </c>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC59" s="46">
+        <v>28868550</v>
+      </c>
+      <c r="AD59" s="48">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="44"/>
+        <v>1.0004904299583912</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -4192,59 +4239,60 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="O60" s="1">
+        <f t="shared" si="47"/>
+        <v>12</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="48"/>
+        <v>10</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="45"/>
+        <v>102</v>
+      </c>
+      <c r="S60" s="12">
         <f t="shared" si="42"/>
-        <v>12</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="43"/>
-        <v>10</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="44"/>
-        <v>9</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="40"/>
-        <v>102</v>
-      </c>
-      <c r="S60" s="12">
-        <f t="shared" si="37"/>
         <v>881280</v>
       </c>
       <c r="T60" s="12">
         <v>50</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>44064000</v>
       </c>
       <c r="V60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>7.0247933884297524E-3</v>
       </c>
       <c r="X60" s="1"/>
-      <c r="Y60" t="s">
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Z60">
+      <c r="AB60" s="34">
         <v>4</v>
       </c>
-      <c r="AA60" s="33">
-        <v>702050</v>
-      </c>
-      <c r="AB60">
-        <v>7.0200000000000002E-3</v>
-      </c>
-      <c r="AC60" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99931764705882353</v>
-      </c>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC60" s="46">
+        <v>44107550</v>
+      </c>
+      <c r="AD60" s="48">
+        <v>7.0299999999999998E-3</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="44"/>
+        <v>1.0007411764705882</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -4277,59 +4325,60 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="O61" s="1">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="R61" s="1">
+        <f t="shared" si="45"/>
+        <v>101</v>
+      </c>
+      <c r="S61" s="12">
         <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" si="40"/>
-        <v>101</v>
-      </c>
-      <c r="S61" s="12">
-        <f t="shared" si="37"/>
         <v>1536210</v>
       </c>
       <c r="T61" s="12">
         <v>30</v>
       </c>
       <c r="U61" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>46086300</v>
       </c>
       <c r="V61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>7.3471935261707989E-3</v>
       </c>
       <c r="X61" s="1"/>
-      <c r="Y61" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z61">
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB61" s="34">
         <v>4</v>
       </c>
-      <c r="AA61" s="33">
-        <v>739380</v>
-      </c>
-      <c r="AB61">
-        <v>7.3899999999999999E-3</v>
-      </c>
-      <c r="AC61" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0058262346944753</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC61" s="46">
+        <v>46072320</v>
+      </c>
+      <c r="AD61" s="48">
+        <v>7.3400000000000002E-3</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="44"/>
+        <v>0.99902091510926239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4362,59 +4411,60 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="O62" s="1">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="48"/>
+        <v>9</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" si="45"/>
+        <v>95</v>
+      </c>
+      <c r="S62" s="12">
         <f t="shared" si="42"/>
-        <v>14</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="43"/>
-        <v>9</v>
-      </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="44"/>
-        <v>8</v>
-      </c>
-      <c r="R62" s="1">
-        <f t="shared" si="40"/>
-        <v>95</v>
-      </c>
-      <c r="S62" s="12">
-        <f t="shared" si="37"/>
         <v>1053360</v>
       </c>
       <c r="T62" s="12">
         <v>15</v>
       </c>
       <c r="U62" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>15800400</v>
       </c>
       <c r="V62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.5189393939393941E-3</v>
       </c>
       <c r="X62" s="1"/>
-      <c r="Y62" t="s">
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Z62">
+      <c r="AB62" s="34">
         <v>4</v>
       </c>
-      <c r="AA62" s="33">
-        <v>252570</v>
-      </c>
-      <c r="AB62">
-        <v>2.5300000000000001E-3</v>
-      </c>
-      <c r="AC62" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0043909774436091</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC62" s="46">
+        <v>15806295</v>
+      </c>
+      <c r="AD62" s="48">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="44"/>
+        <v>1.0004210526315789</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4447,59 +4497,60 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="O63" s="1">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="49"/>
+        <v>12</v>
+      </c>
+      <c r="R63" s="1">
+        <f t="shared" si="45"/>
+        <v>97</v>
+      </c>
+      <c r="S63" s="12">
         <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="P63" s="1">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="Q63" s="1">
-        <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="R63" s="1">
-        <f t="shared" si="40"/>
-        <v>97</v>
-      </c>
-      <c r="S63" s="12">
-        <f t="shared" si="37"/>
         <v>3147456</v>
       </c>
       <c r="T63" s="12">
         <v>10</v>
       </c>
       <c r="U63" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>31474560</v>
       </c>
       <c r="V63">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5.017753290480563E-3</v>
       </c>
       <c r="X63" s="1"/>
-      <c r="Y63" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z63">
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB63" s="34">
         <v>4</v>
       </c>
-      <c r="AA63" s="33">
-        <v>503450</v>
-      </c>
-      <c r="AB63">
-        <v>5.0299999999999997E-3</v>
-      </c>
-      <c r="AC63" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0024406758982491</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC63" s="46">
+        <v>31493170</v>
+      </c>
+      <c r="AD63" s="48">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="44"/>
+        <v>1.0004477520893065</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4532,59 +4583,60 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="O64" s="1">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="48"/>
+        <v>14</v>
+      </c>
+      <c r="Q64" s="1">
+        <f t="shared" si="49"/>
+        <v>12</v>
+      </c>
+      <c r="R64" s="1">
+        <f t="shared" si="45"/>
+        <v>95</v>
+      </c>
+      <c r="S64" s="12">
         <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="P64" s="1">
-        <f t="shared" si="43"/>
-        <v>14</v>
-      </c>
-      <c r="Q64" s="1">
-        <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="R64" s="1">
-        <f t="shared" si="40"/>
-        <v>95</v>
-      </c>
-      <c r="S64" s="12">
-        <f t="shared" si="37"/>
         <v>3319680</v>
       </c>
       <c r="T64" s="12">
         <v>10</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>33196800</v>
       </c>
       <c r="V64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5.292317110498929E-3</v>
       </c>
       <c r="X64" s="1"/>
-      <c r="Y64" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z64">
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB64" s="34">
         <v>4</v>
       </c>
-      <c r="AA64" s="33">
-        <v>529480</v>
-      </c>
-      <c r="AB64">
+      <c r="AC64" s="46">
+        <v>33197880</v>
+      </c>
+      <c r="AD64" s="48">
         <v>5.2900000000000004E-3</v>
       </c>
-      <c r="AC64" s="48">
-        <f t="shared" si="39"/>
+      <c r="AE64">
+        <f t="shared" si="44"/>
         <v>0.99956217466743791</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4617,59 +4669,60 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="O65" s="1">
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" si="45"/>
+        <v>96</v>
+      </c>
+      <c r="S65" s="12">
         <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="R65" s="1">
-        <f t="shared" si="40"/>
-        <v>96</v>
-      </c>
-      <c r="S65" s="12">
-        <f t="shared" si="37"/>
         <v>2271360</v>
       </c>
       <c r="T65" s="12">
         <v>10</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>22713600</v>
       </c>
       <c r="V65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>3.6210590756045303E-3</v>
       </c>
       <c r="X65" s="1"/>
-      <c r="Y65" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z65">
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB65" s="34">
         <v>4</v>
       </c>
-      <c r="AA65" s="33">
-        <v>361470</v>
-      </c>
-      <c r="AB65">
-        <v>3.6099999999999999E-3</v>
-      </c>
-      <c r="AC65" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99694590025359253</v>
-      </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC65" s="46">
+        <v>22705330</v>
+      </c>
+      <c r="AD65" s="48">
+        <v>3.62E-3</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="44"/>
+        <v>0.99970752324598477</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4702,59 +4755,60 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="O66" s="1">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="P66" s="1">
+        <f t="shared" si="48"/>
+        <v>13</v>
+      </c>
+      <c r="Q66" s="1">
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="R66" s="1">
+        <f t="shared" si="45"/>
+        <v>95</v>
+      </c>
+      <c r="S66" s="12">
         <f t="shared" si="42"/>
-        <v>14</v>
-      </c>
-      <c r="P66" s="1">
-        <f t="shared" si="43"/>
-        <v>13</v>
-      </c>
-      <c r="Q66" s="1">
-        <f t="shared" si="44"/>
-        <v>13</v>
-      </c>
-      <c r="R66" s="1">
-        <f t="shared" si="40"/>
-        <v>95</v>
-      </c>
-      <c r="S66" s="12">
-        <f t="shared" si="37"/>
         <v>3596320</v>
       </c>
       <c r="T66" s="12">
         <v>10</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>35963200</v>
       </c>
       <c r="V66">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5.7333435363738396E-3</v>
       </c>
       <c r="X66" s="1"/>
-      <c r="Y66" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66">
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="34">
         <v>4</v>
       </c>
-      <c r="AA66" s="33">
-        <v>573370</v>
-      </c>
-      <c r="AB66">
-        <v>5.7299999999999999E-3</v>
-      </c>
-      <c r="AC66" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99941682608889082</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC66" s="46">
+        <v>35991960</v>
+      </c>
+      <c r="AD66" s="48">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="44"/>
+        <v>1.0011610090314544</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4785,15 +4839,15 @@
       <c r="L67" s="1"/>
       <c r="M67" s="11"/>
       <c r="N67" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="Q67" s="1">
@@ -4805,39 +4859,40 @@
         <v>110</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1953600</v>
       </c>
       <c r="T67" s="12">
         <v>20</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39072000</v>
       </c>
       <c r="V67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.2289562289562289E-3</v>
       </c>
       <c r="X67" s="1"/>
-      <c r="Y67" t="s">
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z67">
+      <c r="AB67" s="34">
         <v>3</v>
       </c>
-      <c r="AA67" s="33">
-        <v>619380</v>
-      </c>
-      <c r="AB67">
-        <v>6.1900000000000002E-3</v>
-      </c>
-      <c r="AC67" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99374594594594601</v>
-      </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC67" s="46">
+        <v>39065500</v>
+      </c>
+      <c r="AD67" s="48">
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="44"/>
+        <v>1.0001675675675676</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4868,19 +4923,19 @@
       <c r="L68" s="1"/>
       <c r="M68" s="11"/>
       <c r="N68" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="45">M34</f>
+        <f t="shared" ref="Q68:Q76" si="50">M34</f>
         <v>77</v>
       </c>
       <c r="R68" s="1">
@@ -4888,39 +4943,40 @@
         <v>110</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>2439360</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>48787200</v>
       </c>
       <c r="V68">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>7.7777777777777776E-3</v>
       </c>
       <c r="X68" s="1"/>
-      <c r="Y68" t="s">
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Z68">
+      <c r="AB68" s="34">
         <v>3</v>
       </c>
-      <c r="AA68" s="33">
-        <v>776800</v>
-      </c>
-      <c r="AB68">
+      <c r="AC68" s="46">
+        <v>48745020</v>
+      </c>
+      <c r="AD68" s="48">
         <v>7.77E-3</v>
       </c>
-      <c r="AC68" s="48">
-        <f t="shared" si="39"/>
+      <c r="AE68">
+        <f t="shared" si="44"/>
         <v>0.999</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4951,19 +5007,19 @@
       <c r="L69" s="1"/>
       <c r="M69" s="11"/>
       <c r="N69" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>73</v>
       </c>
       <c r="R69" s="1">
@@ -4971,39 +5027,40 @@
         <v>110</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>5621000</v>
       </c>
       <c r="T69" s="12">
         <v>20</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>112420000</v>
       </c>
       <c r="V69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.7922278338945007E-2</v>
       </c>
       <c r="X69" s="1"/>
-      <c r="Y69" t="s">
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Z69">
+      <c r="AB69" s="34">
         <v>3</v>
       </c>
-      <c r="AA69" s="33">
-        <v>1795220</v>
-      </c>
-      <c r="AB69">
-        <v>1.7950000000000001E-2</v>
-      </c>
-      <c r="AC69" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0015467710371819</v>
-      </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC69" s="46">
+        <v>112478480</v>
+      </c>
+      <c r="AD69" s="48">
+        <v>1.7930000000000001E-2</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="44"/>
+        <v>1.0004308414872798</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -5034,19 +5091,19 @@
       <c r="L70" s="1"/>
       <c r="M70" s="11"/>
       <c r="N70" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>72</v>
       </c>
       <c r="R70" s="1">
@@ -5054,39 +5111,40 @@
         <v>110</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>7603200</v>
       </c>
       <c r="T70" s="12">
         <v>20</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>152064000</v>
       </c>
       <c r="V70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.4242424242424242E-2</v>
       </c>
       <c r="X70" s="1"/>
-      <c r="Y70" t="s">
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Z70">
+      <c r="AB70" s="34">
         <v>3</v>
       </c>
-      <c r="AA70" s="33">
-        <v>2432540</v>
-      </c>
-      <c r="AB70">
-        <v>2.4330000000000001E-2</v>
-      </c>
-      <c r="AC70" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0036125</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC70" s="46">
+        <v>152063940</v>
+      </c>
+      <c r="AD70" s="48">
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="44"/>
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -5117,19 +5175,19 @@
       <c r="L71" s="1"/>
       <c r="M71" s="11"/>
       <c r="N71" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="O71" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="P71" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="R71" s="1">
@@ -5137,39 +5195,40 @@
         <v>110</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>11879010</v>
       </c>
       <c r="T71" s="12">
         <v>15</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>178185150</v>
       </c>
       <c r="V71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2.8406723484848486E-2</v>
       </c>
       <c r="X71" s="1"/>
-      <c r="Y71" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z71">
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB71" s="34">
         <v>3</v>
       </c>
-      <c r="AA71" s="33">
-        <v>2841045</v>
-      </c>
-      <c r="AB71">
+      <c r="AC71" s="46">
+        <v>178204035</v>
+      </c>
+      <c r="AD71" s="48">
         <v>2.8410000000000001E-2</v>
       </c>
-      <c r="AC71" s="48">
-        <f t="shared" si="39"/>
+      <c r="AE71">
+        <f t="shared" si="44"/>
         <v>1.0001153429452454</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -5200,19 +5259,19 @@
       <c r="L72" s="1"/>
       <c r="M72" s="11"/>
       <c r="N72" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>73</v>
       </c>
       <c r="R72" s="1">
@@ -5220,39 +5279,40 @@
         <v>110</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>11129580</v>
       </c>
       <c r="T72" s="12">
         <v>5</v>
       </c>
       <c r="U72" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>55647900</v>
       </c>
       <c r="V72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>8.8715277777777785E-3</v>
       </c>
       <c r="X72" s="1"/>
-      <c r="Y72" t="s">
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="Z72">
+      <c r="AB72" s="34">
         <v>3</v>
       </c>
-      <c r="AA72" s="33">
-        <v>892760</v>
-      </c>
-      <c r="AB72">
-        <v>8.9300000000000004E-3</v>
-      </c>
-      <c r="AC72" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0065909980430527</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC72" s="46">
+        <v>55629470</v>
+      </c>
+      <c r="AD72" s="48">
+        <v>8.8699999999999994E-3</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="44"/>
+        <v>0.99982778864970634</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -5283,19 +5343,19 @@
       <c r="L73" s="1"/>
       <c r="M73" s="11"/>
       <c r="N73" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="O73" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="P73" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>69</v>
       </c>
       <c r="R73" s="1">
@@ -5303,39 +5363,40 @@
         <v>110</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>20523360</v>
       </c>
       <c r="T73" s="12">
         <v>5</v>
       </c>
       <c r="U73" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>102616800</v>
       </c>
       <c r="V73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.6359427609427608E-2</v>
       </c>
       <c r="X73" s="1"/>
-      <c r="Y73" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z73">
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB73" s="34">
         <v>3</v>
       </c>
-      <c r="AA73" s="33">
-        <v>1634435</v>
-      </c>
-      <c r="AB73">
-        <v>1.634E-2</v>
-      </c>
-      <c r="AC73" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99881245176228461</v>
-      </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC73" s="46">
+        <v>102625050</v>
+      </c>
+      <c r="AD73" s="48">
+        <v>1.636E-2</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="44"/>
+        <v>1.0000349884229482</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -5366,19 +5427,19 @@
       <c r="L74" s="1"/>
       <c r="M74" s="11"/>
       <c r="N74" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="O74" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="P74" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>69</v>
       </c>
       <c r="R74" s="1">
@@ -5386,39 +5447,40 @@
         <v>110</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>22102080</v>
       </c>
       <c r="T74" s="12">
         <v>5</v>
       </c>
       <c r="U74" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>110510400</v>
       </c>
       <c r="V74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.7617845117845119E-2</v>
       </c>
       <c r="X74" s="1"/>
-      <c r="Y74" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z74">
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB74" s="34">
         <v>3</v>
       </c>
-      <c r="AA74" s="33">
-        <v>1754375</v>
-      </c>
-      <c r="AB74">
-        <v>1.754E-2</v>
-      </c>
-      <c r="AC74" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99558146201624453</v>
-      </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC74" s="46">
+        <v>110506470</v>
+      </c>
+      <c r="AD74" s="48">
+        <v>1.762E-2</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="44"/>
+        <v>1.0001223124701386</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -5449,19 +5511,19 @@
       <c r="L75" s="1"/>
       <c r="M75" s="11"/>
       <c r="N75" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>71</v>
       </c>
       <c r="R75" s="1">
@@ -5469,39 +5531,40 @@
         <v>110</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>18478460</v>
       </c>
       <c r="T75" s="12">
         <v>5</v>
       </c>
       <c r="U75" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>92392300</v>
       </c>
       <c r="V75">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.4729412177328843E-2</v>
       </c>
       <c r="X75" s="1"/>
-      <c r="Y75" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z75">
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB75" s="34">
         <v>3</v>
       </c>
-      <c r="AA75" s="33">
-        <v>1473935</v>
-      </c>
-      <c r="AB75">
-        <v>1.474E-2</v>
-      </c>
-      <c r="AC75" s="48">
-        <f t="shared" si="39"/>
-        <v>1.0007188218065792</v>
-      </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC75" s="46">
+        <v>92420845</v>
+      </c>
+      <c r="AD75" s="48">
+        <v>1.473E-2</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="44"/>
+        <v>1.0000399080875788</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -5532,19 +5595,19 @@
       <c r="L76" s="1"/>
       <c r="M76" s="11"/>
       <c r="N76" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="O76" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="P76" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="R76" s="1">
@@ -5552,39 +5615,40 @@
         <v>110</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>21781760</v>
       </c>
       <c r="T76" s="12">
         <v>5</v>
       </c>
       <c r="U76" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>108908800</v>
       </c>
       <c r="V76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.7362514029180695E-2</v>
       </c>
       <c r="X76" s="1"/>
-      <c r="Y76" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76">
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="34">
         <v>3</v>
       </c>
-      <c r="AA76" s="33">
-        <v>1735220</v>
-      </c>
-      <c r="AB76">
-        <v>1.7350000000000001E-2</v>
-      </c>
-      <c r="AC76" s="48">
-        <f t="shared" si="39"/>
-        <v>0.99927925016160324</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AC76" s="46">
+        <v>108896930</v>
+      </c>
+      <c r="AD76" s="48">
+        <v>1.736E-2</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="44"/>
+        <v>0.99985520361990954</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -5611,12 +5675,20 @@
         <f>SUM(V47:V76)</f>
         <v>0.21772557806601367</v>
       </c>
-      <c r="AB77">
-        <f>SUM(AB47:AB76)</f>
-        <v>0.21793000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AC77" s="47">
+        <f>SUM(AC47:AC76)</f>
+        <v>1365874910</v>
+      </c>
+      <c r="AD77" s="48">
+        <f>SUM(AD47:AD76)</f>
+        <v>0.21771999999999997</v>
+      </c>
+      <c r="AE77">
+        <f>AD77/V77</f>
+        <v>0.99997438029071617</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -5636,7 +5708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -5671,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -5698,19 +5770,19 @@
         <v>15</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="46">K15*3</f>
+        <f t="shared" ref="K80:N80" si="51">K15*3</f>
         <v>15</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>18</v>
       </c>
       <c r="P80" s="15" t="s">
@@ -5751,19 +5823,19 @@
         <v>105</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81:N81" si="47">K16-K15</f>
+        <f t="shared" ref="K81:N81" si="52">K16-K15</f>
         <v>75</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>74</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>75</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>104</v>
       </c>
       <c r="P81" s="15">
@@ -5822,13 +5894,13 @@
       <c r="I83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="40"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="45"/>
       <c r="O83" s="8" t="s">
         <v>0</v>
       </c>
@@ -5887,23 +5959,23 @@
         <v>15</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:S84" si="48">IF(K84 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P84:S84" si="53">IF(K84 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>18</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>75</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>104</v>
       </c>
       <c r="T84">
-        <f t="shared" ref="T84:T93" si="49">PRODUCT(O84:S84)</f>
+        <f t="shared" ref="T84:T93" si="54">PRODUCT(O84:S84)</f>
         <v>31590000</v>
       </c>
       <c r="U84" s="16">
@@ -5940,31 +6012,31 @@
         <v>53</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" ref="O85:O93" si="50">IF(J85 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O85:O93" si="55">IF(J85 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" ref="P85:P93" si="51">IF(K85 = "Scatter", K$80, K$81)</f>
+        <f t="shared" ref="P85:P93" si="56">IF(K85 = "Scatter", K$80, K$81)</f>
         <v>15</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" ref="Q85:Q93" si="52">IF(L85 = "Scatter", L$80, L$81)</f>
+        <f t="shared" ref="Q85:Q93" si="57">IF(L85 = "Scatter", L$80, L$81)</f>
         <v>74</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:R93" si="53">IF(M85 = "Scatter", M$80, M$81)</f>
+        <f t="shared" ref="R85:R93" si="58">IF(M85 = "Scatter", M$80, M$81)</f>
         <v>18</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" ref="S85:S93" si="54">IF(N85 = "Scatter", N$80, N$81)</f>
+        <f t="shared" ref="S85:S93" si="59">IF(N85 = "Scatter", N$80, N$81)</f>
         <v>104</v>
       </c>
       <c r="T85">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>31168800</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" ref="U85:U92" si="55">T85/$M$17</f>
+        <f t="shared" ref="U85:U92" si="60">T85/$M$17</f>
         <v>4.9690082644628097E-3</v>
       </c>
     </row>
@@ -5997,31 +6069,31 @@
         <v>51</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>74</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>75</v>
       </c>
       <c r="S86" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="49"/>
         <v>22477500</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>3.5834194214876035E-3</v>
       </c>
     </row>
@@ -6054,31 +6126,31 @@
         <v>53</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="S87" s="1">
+        <f t="shared" si="59"/>
+        <v>104</v>
+      </c>
+      <c r="T87">
         <f t="shared" si="54"/>
-        <v>104</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="49"/>
         <v>37908000</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>6.0433884297520658E-3</v>
       </c>
     </row>
@@ -6111,31 +6183,31 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>75</v>
       </c>
       <c r="S88" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="49"/>
         <v>27337500</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>4.3582128099173556E-3</v>
       </c>
     </row>
@@ -6168,31 +6240,31 @@
         <v>51</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>74</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="S89" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T89">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="49"/>
         <v>26973000</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>4.3001033057851242E-3</v>
       </c>
     </row>
@@ -6225,31 +6297,31 @@
         <v>53</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>105</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="S90" s="1">
+        <f t="shared" si="59"/>
+        <v>104</v>
+      </c>
+      <c r="T90">
         <f t="shared" si="54"/>
-        <v>104</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="49"/>
         <v>53071200</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>8.4607438016528931E-3</v>
       </c>
     </row>
@@ -6282,31 +6354,31 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>105</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>75</v>
       </c>
       <c r="S91" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="49"/>
         <v>38272500</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>6.1014979338842971E-3</v>
       </c>
     </row>
@@ -6339,31 +6411,31 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>105</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>15</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>74</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="S92" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T92">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="49"/>
         <v>37762200</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>6.0201446280991732E-3</v>
       </c>
     </row>
@@ -6396,27 +6468,27 @@
         <v>51</v>
       </c>
       <c r="O93" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>105</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>75</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>18</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="S93" s="1">
+        <f t="shared" si="59"/>
+        <v>18</v>
+      </c>
+      <c r="T93">
         <f t="shared" si="54"/>
-        <v>18</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="49"/>
         <v>45927000</v>
       </c>
       <c r="U93" s="16">
@@ -6466,23 +6538,23 @@
         <v>53</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:S99" si="56">IF(J95 = "Scatter", J$80, J$81)</f>
+        <f t="shared" ref="O95:S99" si="61">IF(J95 = "Scatter", J$80, J$81)</f>
         <v>15</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>104</v>
       </c>
       <c r="T95">
@@ -6523,23 +6595,23 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="T96">
@@ -6580,23 +6652,23 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>74</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="T97">
@@ -6637,23 +6709,23 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>75</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="T98">
@@ -6694,23 +6766,23 @@
         <v>51</v>
       </c>
       <c r="O99" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>105</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>15</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="T99">
@@ -6854,7 +6926,10 @@
         <f>SUM(U84:U93)</f>
         <v>5.6194473140495874E-2</v>
       </c>
-      <c r="V105" s="20"/>
+      <c r="V105" s="50">
+        <f>U105</f>
+        <v>5.6194473140495874E-2</v>
+      </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
@@ -6877,7 +6952,10 @@
         <f>SUM(U95:U99)</f>
         <v>5.4506714876033056E-3</v>
       </c>
-      <c r="V106" s="20"/>
+      <c r="V106" s="50">
+        <f t="shared" ref="V106:V107" si="62">U106</f>
+        <v>5.4506714876033056E-3</v>
+      </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
@@ -6900,7 +6978,10 @@
         <f>U101</f>
         <v>2.0919421487603307E-4</v>
       </c>
-      <c r="V107" s="20"/>
+      <c r="V107" s="50">
+        <f t="shared" si="62"/>
+        <v>2.0919421487603307E-4</v>
+      </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
@@ -6946,7 +7027,14 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-      <c r="T109" s="1"/>
+      <c r="S109">
+        <f>T109/M17</f>
+        <v>6.1854338842975205E-2</v>
+      </c>
+      <c r="T109" s="1">
+        <f>SUM(T105:T108)</f>
+        <v>387990000</v>
+      </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
@@ -6969,12 +7057,8 @@
       <c r="G111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S111" t="s">
-        <v>69</v>
-      </c>
-      <c r="T111" s="35">
-        <f>V77+U108</f>
-        <v>0.27957991690898887</v>
+      <c r="U111" s="13">
+        <v>100000000</v>
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.3">
@@ -6988,15 +7072,22 @@
         <v>5</v>
       </c>
       <c r="O112" s="14"/>
-      <c r="S112" t="s">
-        <v>70</v>
-      </c>
-      <c r="T112" s="35">
-        <f>'Free Game Reel'!W110</f>
-        <v>11.443943263209292</v>
-      </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S112" s="1">
+        <v>10</v>
+      </c>
+      <c r="T112" s="34">
+        <v>4257167</v>
+      </c>
+      <c r="U112" s="51">
+        <f>T112/$U$111</f>
+        <v>4.2571669999999999E-2</v>
+      </c>
+      <c r="V112" s="50">
+        <f>U112</f>
+        <v>4.2571669999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>110</v>
       </c>
@@ -7006,21 +7097,60 @@
       <c r="G113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T113" s="35">
-        <f>SUM(T111:T112)</f>
-        <v>11.723523180118281</v>
-      </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S119" s="22"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="S113" s="1">
+        <v>15</v>
+      </c>
+      <c r="T113" s="34">
+        <v>475490</v>
+      </c>
+      <c r="U113" s="51">
+        <f>T113/$U$111</f>
+        <v>4.7549000000000003E-3</v>
+      </c>
+      <c r="V113" s="50">
+        <f t="shared" ref="V113:V114" si="63">U113</f>
+        <v>4.7549000000000003E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S114" s="1">
+        <v>20</v>
+      </c>
+      <c r="T114" s="34">
+        <v>21204</v>
+      </c>
+      <c r="U114" s="51">
+        <f>T114/$U$111</f>
+        <v>2.1204000000000001E-4</v>
+      </c>
+      <c r="V114" s="50">
+        <f t="shared" si="63"/>
+        <v>2.1204000000000001E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <f>SUM(U112:U114)</f>
+        <v>4.7538609999999995E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="S116" s="22">
+        <f>T116/U111</f>
+        <v>4.7538610000000002E-2</v>
+      </c>
+      <c r="T116" s="33">
+        <f>SUM(T112:T115)</f>
+        <v>4753861</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.3">
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.3">
       <c r="S121" s="22"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.3">
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -7028,7 +7158,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.3">
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -7053,25 +7183,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3411D043-2C85-4F58-96B2-FCD5733F0D95}">
-  <dimension ref="B3:AD153"/>
+  <dimension ref="B3:AC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -7109,7 +7239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -7151,26 +7281,8 @@
         <f>COUNTIF($G$3:$G$113, I4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -7212,26 +7324,8 @@
         <f t="shared" ref="N5:N15" si="4">COUNTIF($G$3:$G$113, I5)</f>
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -7273,26 +7367,8 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -7334,26 +7410,8 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Q7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>6</v>
-      </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -7395,26 +7453,8 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>7</v>
-      </c>
-      <c r="V8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -7456,26 +7496,8 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="Q9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9">
-        <v>11</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>9</v>
-      </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -7517,26 +7539,8 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="Q10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>11</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -7578,26 +7582,8 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="Q11" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11">
-        <v>16</v>
-      </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>9</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -7639,26 +7625,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="Q12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12">
-        <v>16</v>
-      </c>
-      <c r="S12">
-        <v>8</v>
-      </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -7700,26 +7668,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="Q13" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13">
-        <v>16</v>
-      </c>
-      <c r="S13">
-        <v>9</v>
-      </c>
-      <c r="T13">
-        <v>10</v>
-      </c>
-      <c r="U13">
-        <v>12</v>
-      </c>
-      <c r="V13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -7761,26 +7711,8 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="Q14" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>16</v>
-      </c>
-      <c r="S14">
-        <v>12</v>
-      </c>
-      <c r="T14">
-        <v>12</v>
-      </c>
-      <c r="U14">
-        <v>12</v>
-      </c>
-      <c r="V14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -7799,7 +7731,7 @@
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="8">
@@ -7822,26 +7754,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -7883,26 +7797,8 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="Q16" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16">
-        <v>110</v>
-      </c>
-      <c r="S16">
-        <v>80</v>
-      </c>
-      <c r="T16">
-        <v>80</v>
-      </c>
-      <c r="U16">
-        <v>81</v>
-      </c>
-      <c r="V16">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -7927,13 +7823,13 @@
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="41">
         <f>PRODUCT(J16:N16)</f>
         <v>6272640000</v>
       </c>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -7953,7 +7849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -7973,7 +7869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -8010,28 +7906,8 @@
       <c r="N20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" t="b">
-        <f>J4=R4</f>
-        <v>1</v>
-      </c>
-      <c r="R20" t="b">
-        <f t="shared" ref="R20:V20" si="6">K4=S4</f>
-        <v>1</v>
-      </c>
-      <c r="S20" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T20" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U20" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -8058,106 +7934,66 @@
         <v>4</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21:N21" si="7">K5+K$4</f>
+        <f t="shared" ref="K21:N21" si="6">K5+K$4</f>
         <v>10</v>
       </c>
       <c r="L21" s="8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" ref="J22:N22" si="7">J6+J$4</f>
+        <v>4</v>
+      </c>
+      <c r="K22" s="8">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M21" s="8">
+        <v>8</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="N21" s="8">
+        <v>10</v>
+      </c>
+      <c r="M22" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="Q21" t="b">
-        <f t="shared" ref="Q21:Q30" si="8">J5=R5</f>
-        <v>1</v>
-      </c>
-      <c r="R21" t="b">
-        <f t="shared" ref="R21:R30" si="9">K5=S5</f>
-        <v>1</v>
-      </c>
-      <c r="S21" t="b">
-        <f t="shared" ref="S21:S30" si="10">L5=T5</f>
-        <v>1</v>
-      </c>
-      <c r="T21" t="b">
-        <f t="shared" ref="T21:T30" si="11">M5=U5</f>
-        <v>1</v>
-      </c>
-      <c r="U21" t="b">
-        <f t="shared" ref="U21:U30" si="12">N5=V5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" ref="J22:N22" si="13">J6+J$4</f>
+      <c r="N22" s="8">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="K22" s="8">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q22" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R22" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S22" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T22" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U22" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -8180,47 +8016,27 @@
         <v>14</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23:N23" si="14">J7+J$4</f>
+        <f t="shared" ref="J23:N23" si="8">J7+J$4</f>
         <v>7</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="Q23" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R23" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S23" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T23" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U23" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -8243,47 +8059,27 @@
         <v>9</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:N24" si="15">J8+J$4</f>
+        <f t="shared" ref="J24:N24" si="9">J8+J$4</f>
         <v>8</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="Q24" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R24" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S24" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T24" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U24" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -8306,47 +8102,27 @@
         <v>8</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:N25" si="16">J9+J$4</f>
+        <f t="shared" ref="J25:N25" si="10">J9+J$4</f>
         <v>11</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="Q25" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R25" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S25" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T25" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U25" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -8369,47 +8145,27 @@
         <v>6</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" ref="J26:N26" si="17">J10+J$4</f>
+        <f t="shared" ref="J26:N26" si="11">J10+J$4</f>
         <v>11</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="Q26" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R26" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S26" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T26" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U26" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -8432,47 +8188,27 @@
         <v>11</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" ref="J27:N27" si="18">J11+J$4</f>
+        <f t="shared" ref="J27:N27" si="12">J11+J$4</f>
         <v>16</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="Q27" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R27" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S27" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T27" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U27" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -8495,47 +8231,27 @@
         <v>7</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" ref="J28:N28" si="19">J12+J$4</f>
+        <f t="shared" ref="J28:N28" si="13">J12+J$4</f>
         <v>16</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="Q28" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R28" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S28" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T28" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U28" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -8558,47 +8274,27 @@
         <v>13</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29:N29" si="20">J13+J$4</f>
+        <f t="shared" ref="J29:N29" si="14">J13+J$4</f>
         <v>16</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="Q29" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R29" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S29" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T29" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U29" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -8621,47 +8317,27 @@
         <v>5</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" ref="J30:N30" si="21">J14+J$4</f>
+        <f t="shared" ref="J30:N30" si="15">J14+J$4</f>
         <v>16</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
-      <c r="Q30" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R30" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S30" t="b">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="T30" t="b">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="U30" t="b">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -8680,28 +8356,8 @@
       <c r="G31" t="s">
         <v>7</v>
       </c>
-      <c r="Q31" t="b">
-        <f t="shared" ref="Q31" si="22">J15=R15</f>
-        <v>1</v>
-      </c>
-      <c r="R31" t="b">
-        <f t="shared" ref="R31" si="23">K15=S15</f>
-        <v>1</v>
-      </c>
-      <c r="S31" t="b">
-        <f t="shared" ref="S31" si="24">L15=T15</f>
-        <v>1</v>
-      </c>
-      <c r="T31" t="b">
-        <f t="shared" ref="T31" si="25">M15=U15</f>
-        <v>1</v>
-      </c>
-      <c r="U31" t="b">
-        <f t="shared" ref="U31" si="26">N15=V15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -8739,7 +8395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -8766,23 +8422,23 @@
         <v>106</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33:N33" si="27">K$16-K21</f>
+        <f t="shared" ref="K33:N33" si="16">K$16-K21</f>
         <v>70</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="N33" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -8805,27 +8461,27 @@
         <v>10</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" ref="J34:N34" si="28">J$16-J22</f>
+        <f t="shared" ref="J34:N34" si="17">J$16-J22</f>
         <v>106</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -8848,27 +8504,27 @@
         <v>14</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" ref="J35:N35" si="29">J$16-J23</f>
+        <f t="shared" ref="J35:N35" si="18">J$16-J23</f>
         <v>103</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -8891,27 +8547,27 @@
         <v>9</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" ref="J36:N36" si="30">J$16-J24</f>
+        <f t="shared" ref="J36:N36" si="19">J$16-J24</f>
         <v>102</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>72</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -8934,27 +8590,27 @@
         <v>8</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" ref="J37:N37" si="31">J$16-J25</f>
+        <f t="shared" ref="J37:N37" si="20">J$16-J25</f>
         <v>99</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>71</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -8977,27 +8633,27 @@
         <v>6</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" ref="J38:N38" si="32">J$16-J26</f>
+        <f t="shared" ref="J38:N38" si="21">J$16-J26</f>
         <v>99</v>
       </c>
       <c r="K38" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>66</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>73</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -9020,27 +8676,27 @@
         <v>11</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" ref="J39:N39" si="33">J$16-J27</f>
+        <f t="shared" ref="J39:N39" si="22">J$16-J27</f>
         <v>94</v>
       </c>
       <c r="K39" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>67</v>
       </c>
       <c r="M39" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>69</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -9063,27 +8719,27 @@
         <v>7</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" ref="J40:N40" si="34">J$16-J28</f>
+        <f t="shared" ref="J40:N40" si="23">J$16-J28</f>
         <v>94</v>
       </c>
       <c r="K40" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>67</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>66</v>
       </c>
       <c r="M40" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>69</v>
       </c>
       <c r="N40" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -9106,27 +8762,27 @@
         <v>13</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" ref="J41:N41" si="35">J$16-J29</f>
+        <f t="shared" ref="J41:N41" si="24">J$16-J29</f>
         <v>94</v>
       </c>
       <c r="K41" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="M41" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -9149,27 +8805,27 @@
         <v>5</v>
       </c>
       <c r="J42" s="8">
-        <f t="shared" ref="J42:N42" si="36">J$16-J30</f>
+        <f t="shared" ref="J42:N42" si="25">J$16-J30</f>
         <v>94</v>
       </c>
       <c r="K42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="25"/>
         <v>63</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="M42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -9189,7 +8845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -9209,7 +8865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -9229,7 +8885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -9248,13 +8904,13 @@
       <c r="G46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="I46" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
       <c r="N46" s="9" t="s">
         <v>54</v>
       </c>
@@ -9283,7 +8939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -9318,23 +8974,23 @@
         <v>36</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ref="N47:N76" si="37">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N47:N76" si="26">VLOOKUP(I47,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O76" si="38">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O47:O76" si="27">VLOOKUP(J47,$I$21:$N$30, 3, 1)</f>
         <v>10</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" ref="P47:P76" si="39">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P47:P76" si="28">VLOOKUP(K47,$I$21:$N$30, 4, 1)</f>
         <v>6</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47:Q66" si="40">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q47" si="29">VLOOKUP(L47,$I$21:$N$30, 5, 1)</f>
         <v>7</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47" si="41">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R47" si="30">VLOOKUP(M47,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S47" s="12">
@@ -9349,28 +9005,27 @@
         <v>2016000</v>
       </c>
       <c r="V47" s="22">
-        <f t="shared" ref="V47:V76" si="42">U47/$M$17</f>
+        <f t="shared" ref="V47:V76" si="31">U47/$M$17</f>
         <v>3.2139577594123047E-4</v>
       </c>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="45" t="s">
+      <c r="Y47" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AA47" s="50">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="53">
-        <v>34500</v>
-      </c>
-      <c r="AC47" s="34">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="AD47">
-        <f>AC47/V47</f>
-        <v>1.0578857142857143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z47" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>1009500</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="AC47">
+        <f>AB47/V47</f>
+        <v>0.99565714285714302</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -9405,59 +9060,58 @@
         <v>37</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ref="N48:N57" si="43">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N48:N57" si="32">VLOOKUP(I48,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" ref="O48:O57" si="44">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O48:O57" si="33">VLOOKUP(J48,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" ref="P48:P57" si="45">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P48:P57" si="34">VLOOKUP(K48,$I$21:$N$30, 4, 1)</f>
         <v>10</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" ref="Q48:Q57" si="46">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q48:Q57" si="35">VLOOKUP(L48,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ref="R48:R56" si="47">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
+        <f t="shared" ref="R48:R56" si="36">VLOOKUP(M48,$I$21:$N$30, 6, 1)</f>
         <v>4</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" ref="S48:S76" si="48">PRODUCT(N48:R48)</f>
+        <f t="shared" ref="S48:S76" si="37">PRODUCT(N48:R48)</f>
         <v>5120</v>
       </c>
       <c r="T48" s="12">
         <v>250</v>
       </c>
       <c r="U48" s="13">
-        <f t="shared" ref="U48:U76" si="49">T48*S48</f>
+        <f t="shared" ref="U48:U76" si="38">T48*S48</f>
         <v>1280000</v>
       </c>
       <c r="V48" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.0406081012141618E-4</v>
       </c>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="44" t="s">
+      <c r="Y48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="51">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="53">
-        <v>19250</v>
-      </c>
-      <c r="AC48" s="34">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" ref="AD48:AD76" si="50">AC48/V48</f>
-        <v>0.93109500000000012</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z48" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>632500</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AC48">
+        <f>AB48/V48</f>
+        <v>0.98010000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -9492,59 +9146,58 @@
         <v>38</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>39200</v>
       </c>
       <c r="T49" s="12">
         <v>100</v>
       </c>
       <c r="U49" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>3920000</v>
       </c>
       <c r="V49" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.2493623099683709E-4</v>
       </c>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="46" t="s">
+      <c r="Y49" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AA49" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="53">
-        <v>66500</v>
-      </c>
-      <c r="AC49" s="34">
-        <v>6.6E-4</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="50"/>
-        <v>1.0561077551020408</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z49" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>1982900</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="AC49">
+        <f>AB49/V49</f>
+        <v>1.0081028571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -9579,59 +9232,58 @@
         <v>39</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>69120</v>
       </c>
       <c r="T50" s="12">
         <v>100</v>
       </c>
       <c r="U50" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>6912000</v>
       </c>
       <c r="V50" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.1019283746556473E-3</v>
       </c>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="46" t="s">
+      <c r="Y50" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AA50" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB50" s="53">
-        <v>113000</v>
-      </c>
-      <c r="AC50" s="34">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="50"/>
-        <v>1.0254750000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z50" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>3450200</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>1.09E-3</v>
+      </c>
+      <c r="AC50">
+        <f>AB50/V50</f>
+        <v>0.98917500000000014</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -9666,59 +9318,58 @@
         <v>40</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>167310</v>
       </c>
       <c r="T51" s="12">
         <v>80</v>
       </c>
       <c r="U51" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>13384800</v>
       </c>
       <c r="V51" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.1338383838383837E-3</v>
       </c>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA51" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB51" s="53">
-        <v>216080</v>
-      </c>
-      <c r="AC51" s="34">
-        <v>2.15E-3</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="50"/>
-        <v>1.0075739644970414</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Y51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="12">
+        <v>6707440</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="AC51">
+        <f>AB51/V51</f>
+        <v>0.99820118343195274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -9753,59 +9404,58 @@
         <v>41</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>166320</v>
       </c>
       <c r="T52" s="12">
         <v>50</v>
       </c>
       <c r="U52" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>8316000</v>
       </c>
       <c r="V52" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.3257575757575758E-3</v>
       </c>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="46" t="s">
+      <c r="Y52" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AA52" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="53">
-        <v>135250</v>
-      </c>
-      <c r="AC52" s="34">
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="50"/>
-        <v>1.0182857142857142</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z52" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>4155200</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>1.32E-3</v>
+      </c>
+      <c r="AC52">
+        <f>AB52/V52</f>
+        <v>0.9956571428571428</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -9840,59 +9490,58 @@
         <v>42</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>421824</v>
       </c>
       <c r="T53" s="12">
         <v>25</v>
       </c>
       <c r="U53" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>10545600</v>
       </c>
       <c r="V53" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.6812059993878176E-3</v>
       </c>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA53" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB53" s="53">
-        <v>168225</v>
-      </c>
-      <c r="AC53" s="34">
+      <c r="Y53" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z53" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="12">
+        <v>5299350</v>
+      </c>
+      <c r="AB53" s="1">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="AD53">
-        <f t="shared" si="50"/>
+      <c r="AC53">
+        <f>AB53/V53</f>
         <v>0.99928265817023221</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -9927,59 +9576,58 @@
         <v>43</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>559104</v>
       </c>
       <c r="T54" s="12">
         <v>25</v>
       </c>
       <c r="U54" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>13977600</v>
       </c>
       <c r="V54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.2283440465258649E-3</v>
       </c>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA54" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="53">
-        <v>219075</v>
-      </c>
-      <c r="AC54" s="34">
-        <v>2.1800000000000001E-3</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="50"/>
-        <v>0.97830494505494503</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Y54" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z54" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>7032475</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="AC54">
+        <f>AB54/V54</f>
+        <v>1.0007431318681319</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -10014,59 +9662,58 @@
         <v>44</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>702464</v>
       </c>
       <c r="T55" s="12">
         <v>25</v>
       </c>
       <c r="U55" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>17561600</v>
       </c>
       <c r="V55" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.79971431486583E-3</v>
       </c>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA55" s="52">
-        <v>5</v>
-      </c>
-      <c r="AB55" s="53">
-        <v>285500</v>
-      </c>
-      <c r="AC55" s="34">
-        <v>2.8500000000000001E-3</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="50"/>
-        <v>1.0179610058309039</v>
-      </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Y55" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z55" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="12">
+        <v>8867475</v>
+      </c>
+      <c r="AB55" s="1">
+        <v>2.81E-3</v>
+      </c>
+      <c r="AC55">
+        <f>AB55/V55</f>
+        <v>1.0036738338192419</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -10101,59 +9748,58 @@
         <v>45</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>1035776</v>
       </c>
       <c r="T56" s="12">
         <v>25</v>
       </c>
       <c r="U56" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>25894400</v>
       </c>
       <c r="V56" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>4.128150188756249E-3</v>
       </c>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA56" s="50">
-        <v>5</v>
-      </c>
-      <c r="AB56" s="53">
-        <v>414300</v>
-      </c>
-      <c r="AC56" s="34">
+      <c r="Y56" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>13030750</v>
+      </c>
+      <c r="AB56" s="1">
         <v>4.13E-3</v>
       </c>
-      <c r="AD56">
-        <f t="shared" si="50"/>
+      <c r="AC56">
+        <f>AB56/V56</f>
         <v>1.0004480968858132</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -10186,19 +9832,19 @@
       </c>
       <c r="M57" s="11"/>
       <c r="N57" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="R57" s="1">
@@ -10206,39 +9852,38 @@
         <v>106</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>178080</v>
       </c>
       <c r="T57" s="12">
         <v>100</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>17808000</v>
       </c>
       <c r="V57" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.8389960208142027E-3</v>
       </c>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="46" t="s">
+      <c r="Y57" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AA57" s="52">
+      <c r="Z57" s="40">
         <v>4</v>
       </c>
-      <c r="AB57" s="53">
-        <v>278700</v>
-      </c>
-      <c r="AC57" s="34">
-        <v>2.7799999999999999E-3</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="50"/>
-        <v>0.97921940700808618</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA57" s="12">
+        <v>8985100</v>
+      </c>
+      <c r="AB57" s="1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="AC57">
+        <f>AB57/V57</f>
+        <v>1.0038760107816711</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -10271,59 +9916,58 @@
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="1">
-        <f t="shared" ref="N58:N66" si="51">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
+        <f t="shared" ref="N58:N66" si="39">VLOOKUP(I58,$I$21:$N$30, 2, 1)</f>
         <v>4</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" ref="O58:O66" si="52">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
+        <f t="shared" ref="O58:O66" si="40">VLOOKUP(J58,$I$21:$N$30, 3, 1)</f>
         <v>8</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" ref="P58:P66" si="53">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
+        <f t="shared" ref="P58:P66" si="41">VLOOKUP(K58,$I$21:$N$30, 4, 1)</f>
         <v>10</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" ref="Q58:Q66" si="54">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
+        <f t="shared" ref="Q58:Q66" si="42">VLOOKUP(L58,$I$21:$N$30, 5, 1)</f>
         <v>4</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" ref="R58:R66" si="55">N34</f>
+        <f t="shared" ref="R58:R66" si="43">N34</f>
         <v>106</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>135680</v>
       </c>
       <c r="T58" s="12">
         <v>80</v>
       </c>
       <c r="U58" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>10854400</v>
       </c>
       <c r="V58" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.7304356698296093E-3</v>
       </c>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="46" t="s">
+      <c r="Y58" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AA58" s="52">
+      <c r="Z58" s="40">
         <v>4</v>
       </c>
-      <c r="AB58" s="53">
-        <v>172960</v>
-      </c>
-      <c r="AC58" s="34">
+      <c r="AA58" s="12">
+        <v>5417200</v>
+      </c>
+      <c r="AB58" s="1">
         <v>1.72E-3</v>
       </c>
-      <c r="AD58">
-        <f t="shared" si="50"/>
+      <c r="AC58">
+        <f>AB58/V58</f>
         <v>0.99396933962264145</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -10356,59 +10000,58 @@
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="P59" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>103</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>576800</v>
       </c>
       <c r="T59" s="12">
         <v>50</v>
       </c>
       <c r="U59" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>28840000</v>
       </c>
       <c r="V59" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>4.5977451280481583E-3</v>
       </c>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="46" t="s">
+      <c r="Y59" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AA59" s="52">
+      <c r="Z59" s="40">
         <v>4</v>
       </c>
-      <c r="AB59" s="53">
-        <v>458650</v>
-      </c>
-      <c r="AC59" s="34">
-        <v>4.5700000000000003E-3</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="50"/>
-        <v>0.99396549237170606</v>
-      </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA59" s="12">
+        <v>14473850</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="AC59">
+        <f>AB59/V59</f>
+        <v>0.99831545076282946</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -10441,59 +10084,58 @@
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>102</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>881280</v>
       </c>
       <c r="T60" s="12">
         <v>50</v>
       </c>
       <c r="U60" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>44064000</v>
       </c>
       <c r="V60" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>7.0247933884297524E-3</v>
       </c>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="46" t="s">
+      <c r="Y60" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AA60" s="52">
+      <c r="Z60" s="40">
         <v>4</v>
       </c>
-      <c r="AB60" s="53">
-        <v>708700</v>
-      </c>
-      <c r="AC60" s="34">
-        <v>7.0699999999999999E-3</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="50"/>
-        <v>1.0064352941176471</v>
-      </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA60" s="12">
+        <v>22118900</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>7.0099999999999997E-3</v>
+      </c>
+      <c r="AC60">
+        <f>AB60/V60</f>
+        <v>0.99789411764705871</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -10526,59 +10168,58 @@
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="O61" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P61" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>101</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>1877590</v>
       </c>
       <c r="T61" s="12">
         <v>30</v>
       </c>
       <c r="U61" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>56327700</v>
       </c>
       <c r="V61" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>8.9799031986531989E-3</v>
       </c>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA61" s="52">
+      <c r="Y61" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z61" s="40">
         <v>4</v>
       </c>
-      <c r="AB61" s="53">
-        <v>901620</v>
-      </c>
-      <c r="AC61" s="34">
+      <c r="AA61" s="12">
+        <v>28366800</v>
+      </c>
+      <c r="AB61" s="1">
         <v>8.9899999999999997E-3</v>
       </c>
-      <c r="AD61">
-        <f t="shared" si="50"/>
+      <c r="AC61">
+        <f>AB61/V61</f>
         <v>1.00112437752651</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -10611,59 +10252,58 @@
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="P62" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>95</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>1053360</v>
       </c>
       <c r="T62" s="12">
         <v>15</v>
       </c>
       <c r="U62" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>15800400</v>
       </c>
       <c r="V62" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.5189393939393941E-3</v>
       </c>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="45" t="s">
+      <c r="Y62" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AA62" s="50">
+      <c r="Z62" s="40">
         <v>4</v>
       </c>
-      <c r="AB62" s="53">
-        <v>254340</v>
-      </c>
-      <c r="AC62" s="34">
-        <v>2.5400000000000002E-3</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="50"/>
-        <v>1.008360902255639</v>
-      </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA62" s="12">
+        <v>7923255</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="AC62">
+        <f>AB62/V62</f>
+        <v>0.99645112781954881</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -10696,59 +10336,58 @@
       </c>
       <c r="M63" s="11"/>
       <c r="N63" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>97</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>3147456</v>
       </c>
       <c r="T63" s="12">
         <v>10</v>
       </c>
       <c r="U63" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>31474560</v>
       </c>
       <c r="V63" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>5.017753290480563E-3</v>
       </c>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA63" s="50">
+      <c r="Y63" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z63" s="40">
         <v>4</v>
       </c>
-      <c r="AB63" s="53">
-        <v>507080</v>
-      </c>
-      <c r="AC63" s="34">
-        <v>5.0600000000000003E-3</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="50"/>
-        <v>1.0084194473250778</v>
-      </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA63" s="12">
+        <v>15843030</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="AC63">
+        <f>AB63/V63</f>
+        <v>1.0004477520893065</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -10781,59 +10420,58 @@
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O64" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>13</v>
       </c>
       <c r="P64" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>94</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>3284736</v>
       </c>
       <c r="T64" s="12">
         <v>10</v>
       </c>
       <c r="U64" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>32847360</v>
       </c>
       <c r="V64" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>5.2366085093357821E-3</v>
       </c>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA64" s="52">
+      <c r="Y64" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z64" s="40">
         <v>4</v>
       </c>
-      <c r="AB64" s="53">
-        <v>531070</v>
-      </c>
-      <c r="AC64" s="34">
-        <v>5.3E-3</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="50"/>
-        <v>1.0121054477437457</v>
-      </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA64" s="12">
+        <v>16521640</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="AC64">
+        <f>AB64/V64</f>
+        <v>0.99873801730184708</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -10866,59 +10504,58 @@
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>94</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4126976</v>
       </c>
       <c r="T65" s="12">
         <v>10</v>
       </c>
       <c r="U65" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>41269760</v>
       </c>
       <c r="V65" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.5793286399347005E-3</v>
       </c>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA65" s="52">
+      <c r="Y65" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65" s="40">
         <v>4</v>
       </c>
-      <c r="AB65" s="53">
-        <v>659100</v>
-      </c>
-      <c r="AC65" s="34">
+      <c r="AA65" s="12">
+        <v>20742290</v>
+      </c>
+      <c r="AB65" s="1">
         <v>6.5700000000000003E-3</v>
       </c>
-      <c r="AD65">
-        <f t="shared" si="50"/>
+      <c r="AC65">
+        <f>AB65/V65</f>
         <v>0.99858212890019238</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -10951,59 +10588,58 @@
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="O66" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="43"/>
         <v>93</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>5666304</v>
       </c>
       <c r="T66" s="12">
         <v>10</v>
       </c>
       <c r="U66" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>56663040</v>
       </c>
       <c r="V66" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>9.0333639424548511E-3</v>
       </c>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="52">
+      <c r="Y66" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="40">
         <v>4</v>
       </c>
-      <c r="AB66" s="53">
-        <v>906960</v>
-      </c>
-      <c r="AC66" s="34">
-        <v>9.0399999999999994E-3</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="50"/>
-        <v>1.000734616427216</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA66" s="12">
+        <v>28504770</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="AC66">
+        <f>AB66/V66</f>
+        <v>0.9996276091081594</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -11034,15 +10670,15 @@
       <c r="L67" s="1"/>
       <c r="M67" s="11"/>
       <c r="N67" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="O67" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="Q67" s="1">
@@ -11054,39 +10690,38 @@
         <v>110</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>1953600</v>
       </c>
       <c r="T67" s="12">
         <v>20</v>
       </c>
       <c r="U67" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>39072000</v>
       </c>
       <c r="V67" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>6.2289562289562289E-3</v>
       </c>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="46" t="s">
+      <c r="Y67" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA67" s="52">
+      <c r="Z67" s="40">
         <v>3</v>
       </c>
-      <c r="AB67" s="53">
-        <v>625400</v>
-      </c>
-      <c r="AC67" s="34">
-        <v>6.2399999999999999E-3</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="50"/>
-        <v>1.001772972972973</v>
-      </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA67" s="12">
+        <v>19657260</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="AC67">
+        <f>AB67/V67</f>
+        <v>1.0001675675675676</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -11117,59 +10752,58 @@
       <c r="L68" s="1"/>
       <c r="M68" s="11"/>
       <c r="N68" s="1">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" ref="Q68:Q76" si="44">M34</f>
+        <v>77</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" ref="R68:R76" si="45">$N$16</f>
+        <v>110</v>
+      </c>
+      <c r="S68" s="12">
         <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="O68" s="1">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="P68" s="1">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q76" si="56">M34</f>
-        <v>77</v>
-      </c>
-      <c r="R68" s="1">
-        <f t="shared" ref="R68:R76" si="57">$N$16</f>
-        <v>110</v>
-      </c>
-      <c r="S68" s="12">
-        <f t="shared" si="48"/>
         <v>2710400</v>
       </c>
       <c r="T68" s="12">
         <v>20</v>
       </c>
       <c r="U68" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>54208000</v>
       </c>
       <c r="V68" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>8.6419753086419745E-3</v>
       </c>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="32" t="s">
+      <c r="Y68" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AA68" s="53">
+      <c r="Z68" s="40">
         <v>3</v>
       </c>
-      <c r="AB68" s="53">
-        <v>875060</v>
-      </c>
-      <c r="AC68" s="34">
-        <v>8.7299999999999999E-3</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" si="50"/>
-        <v>1.0101857142857145</v>
-      </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA68" s="12">
+        <v>27289760</v>
+      </c>
+      <c r="AB68" s="1">
+        <v>8.6499999999999997E-3</v>
+      </c>
+      <c r="AC68">
+        <f>AB68/V68</f>
+        <v>1.0009285714285714</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -11200,59 +10834,58 @@
       <c r="L69" s="1"/>
       <c r="M69" s="11"/>
       <c r="N69" s="1">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="P69" s="1">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="Q69" s="1">
+        <f t="shared" si="44"/>
+        <v>73</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S69" s="12">
         <f t="shared" si="37"/>
-        <v>7</v>
-      </c>
-      <c r="O69" s="1">
-        <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="P69" s="1">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="Q69" s="1">
-        <f t="shared" si="56"/>
-        <v>73</v>
-      </c>
-      <c r="R69" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S69" s="12">
-        <f t="shared" si="48"/>
         <v>5621000</v>
       </c>
       <c r="T69" s="12">
         <v>20</v>
       </c>
       <c r="U69" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>112420000</v>
       </c>
       <c r="V69" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.7922278338945007E-2</v>
       </c>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="1" t="s">
+      <c r="Y69" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AA69" s="53">
+      <c r="Z69" s="40">
         <v>3</v>
       </c>
-      <c r="AB69" s="53">
-        <v>1804860</v>
-      </c>
-      <c r="AC69" s="34">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="50"/>
-        <v>1.0043365949119372</v>
-      </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA69" s="12">
+        <v>56550120</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="AC69">
+        <f>AB69/V69</f>
+        <v>0.99987287671232861</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -11283,59 +10916,58 @@
       <c r="L70" s="1"/>
       <c r="M70" s="11"/>
       <c r="N70" s="1">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="P70" s="1">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="Q70" s="1">
+        <f t="shared" si="44"/>
+        <v>72</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S70" s="12">
         <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="O70" s="1">
-        <f t="shared" si="38"/>
-        <v>12</v>
-      </c>
-      <c r="P70" s="1">
-        <f t="shared" si="39"/>
-        <v>10</v>
-      </c>
-      <c r="Q70" s="1">
-        <f t="shared" si="56"/>
-        <v>72</v>
-      </c>
-      <c r="R70" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S70" s="12">
-        <f t="shared" si="48"/>
         <v>7603200</v>
       </c>
       <c r="T70" s="12">
         <v>20</v>
       </c>
       <c r="U70" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>152064000</v>
       </c>
       <c r="V70" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.4242424242424242E-2</v>
       </c>
-      <c r="Y70" s="41"/>
-      <c r="Z70" s="1" t="s">
+      <c r="Y70" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AA70" s="53">
+      <c r="Z70" s="40">
         <v>3</v>
       </c>
-      <c r="AB70" s="53">
-        <v>2431540</v>
-      </c>
-      <c r="AC70" s="34">
-        <v>2.4250000000000001E-2</v>
-      </c>
-      <c r="AD70">
-        <f t="shared" si="50"/>
-        <v>1.0003124999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA70" s="12">
+        <v>76553000</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>2.426E-2</v>
+      </c>
+      <c r="AC70">
+        <f>AB70/V70</f>
+        <v>1.0007250000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -11366,59 +10998,58 @@
       <c r="L71" s="1"/>
       <c r="M71" s="11"/>
       <c r="N71" s="1">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="Q71" s="1">
+        <f t="shared" si="44"/>
+        <v>71</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S71" s="12">
         <f t="shared" si="37"/>
-        <v>11</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="38"/>
-        <v>13</v>
-      </c>
-      <c r="P71" s="1">
-        <f t="shared" si="39"/>
-        <v>13</v>
-      </c>
-      <c r="Q71" s="1">
-        <f t="shared" si="56"/>
-        <v>71</v>
-      </c>
-      <c r="R71" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S71" s="12">
-        <f t="shared" si="48"/>
         <v>14518790</v>
       </c>
       <c r="T71" s="12">
         <v>15</v>
       </c>
       <c r="U71" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>217781850</v>
       </c>
       <c r="V71" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>3.4719328703703707E-2</v>
       </c>
-      <c r="Y71" s="41"/>
-      <c r="Z71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA71" s="53">
+      <c r="Y71" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z71" s="40">
         <v>3</v>
       </c>
-      <c r="AB71" s="53">
-        <v>3473775</v>
-      </c>
-      <c r="AC71" s="34">
-        <v>3.4639999999999997E-2</v>
-      </c>
-      <c r="AD71">
-        <f t="shared" si="50"/>
-        <v>0.99771514292857721</v>
-      </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA71" s="12">
+        <v>109490640</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>3.4689999999999999E-2</v>
+      </c>
+      <c r="AC71">
+        <f>AB71/V71</f>
+        <v>0.99915526293857804</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -11449,59 +11080,58 @@
       <c r="L72" s="1"/>
       <c r="M72" s="11"/>
       <c r="N72" s="1">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="Q72" s="1">
+        <f t="shared" si="44"/>
+        <v>73</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S72" s="12">
         <f t="shared" si="37"/>
-        <v>11</v>
-      </c>
-      <c r="O72" s="1">
+        <v>11129580</v>
+      </c>
+      <c r="T72" s="12">
+        <v>5</v>
+      </c>
+      <c r="U72" s="13">
         <f t="shared" si="38"/>
-        <v>14</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="39"/>
-        <v>9</v>
-      </c>
-      <c r="Q72" s="1">
-        <f t="shared" si="56"/>
-        <v>73</v>
-      </c>
-      <c r="R72" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S72" s="12">
-        <f t="shared" si="48"/>
-        <v>11129580</v>
-      </c>
-      <c r="T72" s="12">
-        <v>5</v>
-      </c>
-      <c r="U72" s="13">
-        <f t="shared" si="49"/>
         <v>55647900</v>
       </c>
       <c r="V72" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>8.8715277777777785E-3</v>
       </c>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="1" t="s">
+      <c r="Y72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA72" s="53">
+      <c r="Z72" s="1">
         <v>3</v>
       </c>
-      <c r="AB72" s="53">
-        <v>891375</v>
-      </c>
-      <c r="AC72" s="34">
-        <v>8.8900000000000003E-3</v>
-      </c>
-      <c r="AD72">
-        <f t="shared" si="50"/>
-        <v>1.0020821917808218</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA72" s="12">
+        <v>27999080</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>8.8699999999999994E-3</v>
+      </c>
+      <c r="AC72">
+        <f>AB72/V72</f>
+        <v>0.99982778864970634</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -11532,59 +11162,58 @@
       <c r="L73" s="1"/>
       <c r="M73" s="11"/>
       <c r="N73" s="1">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="Q73" s="1">
+        <f t="shared" si="44"/>
+        <v>69</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S73" s="12">
         <f t="shared" si="37"/>
-        <v>16</v>
-      </c>
-      <c r="O73" s="1">
+        <v>20523360</v>
+      </c>
+      <c r="T73" s="12">
+        <v>5</v>
+      </c>
+      <c r="U73" s="13">
         <f t="shared" si="38"/>
-        <v>13</v>
-      </c>
-      <c r="P73" s="1">
-        <f t="shared" si="39"/>
-        <v>13</v>
-      </c>
-      <c r="Q73" s="1">
-        <f t="shared" si="56"/>
-        <v>69</v>
-      </c>
-      <c r="R73" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S73" s="12">
-        <f t="shared" si="48"/>
-        <v>20523360</v>
-      </c>
-      <c r="T73" s="12">
-        <v>5</v>
-      </c>
-      <c r="U73" s="13">
-        <f t="shared" si="49"/>
         <v>102616800</v>
       </c>
       <c r="V73" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.6359427609427608E-2</v>
       </c>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA73" s="53">
+      <c r="Y73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z73" s="1">
         <v>3</v>
       </c>
-      <c r="AB73" s="53">
-        <v>1642095</v>
-      </c>
-      <c r="AC73" s="34">
-        <v>1.6369999999999999E-2</v>
-      </c>
-      <c r="AD73">
-        <f t="shared" si="50"/>
-        <v>1.0006462567532801</v>
-      </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA73" s="12">
+        <v>51638690</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>1.636E-2</v>
+      </c>
+      <c r="AC73">
+        <f>AB73/V73</f>
+        <v>1.0000349884229482</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -11615,59 +11244,58 @@
       <c r="L74" s="1"/>
       <c r="M74" s="11"/>
       <c r="N74" s="1">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="Q74" s="1">
+        <f t="shared" si="44"/>
+        <v>69</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S74" s="12">
         <f t="shared" si="37"/>
-        <v>16</v>
-      </c>
-      <c r="O74" s="1">
+        <v>22102080</v>
+      </c>
+      <c r="T74" s="12">
+        <v>5</v>
+      </c>
+      <c r="U74" s="13">
         <f t="shared" si="38"/>
-        <v>13</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="39"/>
-        <v>14</v>
-      </c>
-      <c r="Q74" s="1">
-        <f t="shared" si="56"/>
-        <v>69</v>
-      </c>
-      <c r="R74" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S74" s="12">
-        <f t="shared" si="48"/>
-        <v>22102080</v>
-      </c>
-      <c r="T74" s="12">
-        <v>5</v>
-      </c>
-      <c r="U74" s="13">
-        <f t="shared" si="49"/>
         <v>110510400</v>
       </c>
       <c r="V74" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.7617845117845119E-2</v>
       </c>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA74" s="53">
+      <c r="Y74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z74" s="1">
         <v>3</v>
       </c>
-      <c r="AB74" s="53">
-        <v>1767110</v>
-      </c>
-      <c r="AC74" s="34">
-        <v>1.762E-2</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" si="50"/>
-        <v>1.0001223124701386</v>
-      </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA74" s="12">
+        <v>55561370</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="AC74">
+        <f>AB74/V74</f>
+        <v>0.99898709985666512</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -11698,59 +11326,58 @@
       <c r="L75" s="1"/>
       <c r="M75" s="11"/>
       <c r="N75" s="1">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="28"/>
+        <v>14</v>
+      </c>
+      <c r="Q75" s="1">
+        <f t="shared" si="44"/>
+        <v>67</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S75" s="12">
         <f t="shared" si="37"/>
-        <v>16</v>
-      </c>
-      <c r="O75" s="1">
+        <v>23112320</v>
+      </c>
+      <c r="T75" s="12">
+        <v>5</v>
+      </c>
+      <c r="U75" s="13">
         <f t="shared" si="38"/>
-        <v>14</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="39"/>
-        <v>14</v>
-      </c>
-      <c r="Q75" s="1">
-        <f t="shared" si="56"/>
-        <v>67</v>
-      </c>
-      <c r="R75" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S75" s="12">
-        <f t="shared" si="48"/>
-        <v>23112320</v>
-      </c>
-      <c r="T75" s="12">
-        <v>5</v>
-      </c>
-      <c r="U75" s="13">
-        <f t="shared" si="49"/>
         <v>115561600</v>
       </c>
       <c r="V75" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>1.8423120089786756E-2</v>
       </c>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA75" s="53">
+      <c r="Y75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z75" s="1">
         <v>3</v>
       </c>
-      <c r="AB75" s="53">
-        <v>1846385</v>
-      </c>
-      <c r="AC75" s="34">
-        <v>1.8409999999999999E-2</v>
-      </c>
-      <c r="AD75">
-        <f t="shared" si="50"/>
-        <v>0.9992878464818763</v>
-      </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA75" s="12">
+        <v>58131870</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>1.8419999999999999E-2</v>
+      </c>
+      <c r="AC75">
+        <f>AB75/V75</f>
+        <v>0.99983064270484312</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -11781,59 +11408,58 @@
       <c r="L76" s="1"/>
       <c r="M76" s="11"/>
       <c r="N76" s="1">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="28"/>
+        <v>16</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="44"/>
+        <v>67</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="45"/>
+        <v>110</v>
+      </c>
+      <c r="S76" s="12">
         <f t="shared" si="37"/>
-        <v>16</v>
-      </c>
-      <c r="O76" s="1">
+        <v>32074240</v>
+      </c>
+      <c r="T76" s="12">
+        <v>5</v>
+      </c>
+      <c r="U76" s="13">
         <f t="shared" si="38"/>
-        <v>17</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="39"/>
-        <v>16</v>
-      </c>
-      <c r="Q76" s="1">
-        <f t="shared" si="56"/>
-        <v>67</v>
-      </c>
-      <c r="R76" s="1">
-        <f t="shared" si="57"/>
-        <v>110</v>
-      </c>
-      <c r="S76" s="12">
-        <f t="shared" si="48"/>
-        <v>32074240</v>
-      </c>
-      <c r="T76" s="12">
-        <v>5</v>
-      </c>
-      <c r="U76" s="13">
-        <f t="shared" si="49"/>
         <v>160371200</v>
       </c>
       <c r="V76" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="31"/>
         <v>2.5566778900112233E-2</v>
       </c>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="53">
+      <c r="Y76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="1">
         <v>3</v>
       </c>
-      <c r="AB76" s="53">
-        <v>2565685</v>
-      </c>
-      <c r="AC76" s="34">
-        <v>2.5579999999999999E-2</v>
-      </c>
-      <c r="AD76">
-        <f t="shared" si="50"/>
-        <v>1.0005171202809482</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="AA76" s="12">
+        <v>80687235</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>2.5569999999999999E-2</v>
+      </c>
+      <c r="AC76">
+        <f>AB76/V76</f>
+        <v>1.0001259877085162</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -11851,17 +11477,35 @@
       </c>
       <c r="G77" t="s">
         <v>8</v>
+      </c>
+      <c r="S77" s="47">
+        <f>SUM(S47:S76)</f>
+        <v>165449790</v>
+      </c>
+      <c r="U77" s="47">
+        <f>SUM(U47:U76)</f>
+        <v>1560010970</v>
       </c>
       <c r="V77">
         <f>SUM(V47:V76)</f>
         <v>0.2487008612003877</v>
       </c>
-      <c r="AC77" s="49">
-        <f>SUM(AC47:AC76)</f>
-        <v>0.24903</v>
-      </c>
-    </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="32">
+        <f>SUM(AA47:AA76)</f>
+        <v>784623650</v>
+      </c>
+      <c r="AB77" s="1">
+        <f>SUM(AB47:AB76)</f>
+        <v>0.24862999999999999</v>
+      </c>
+      <c r="AC77">
+        <f>AB77/V77</f>
+        <v>0.9997150745677128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -11896,7 +11540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -11923,19 +11567,19 @@
         <v>3</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ref="K79:N79" si="58">K15*3</f>
+        <f t="shared" ref="K79:N79" si="46">K15*3</f>
         <v>3</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="Q79" s="15" t="s">
@@ -11949,7 +11593,7 @@
       </c>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -11976,19 +11620,19 @@
         <v>109</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ref="K80:N80" si="59">K16-K15</f>
+        <f t="shared" ref="K80:N80" si="47">K16-K15</f>
         <v>79</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>79</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>80</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>109</v>
       </c>
       <c r="Q80" s="15">
@@ -12049,13 +11693,13 @@
       <c r="I82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J82" s="39" t="s">
+      <c r="J82" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="40"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="45"/>
       <c r="O82" s="8" t="s">
         <v>0</v>
       </c>
@@ -12120,23 +11764,23 @@
         <v>3</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" ref="P83:S83" si="60">IF(K83 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P83:S83" si="48">IF(K83 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>80</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>109</v>
       </c>
       <c r="T83">
-        <f t="shared" ref="T83:T92" si="61">PRODUCT(O83:S83)</f>
+        <f t="shared" ref="T83:T92" si="49">PRODUCT(O83:S83)</f>
         <v>235440</v>
       </c>
       <c r="U83" s="16">
@@ -12176,31 +11820,31 @@
         <v>53</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84:O92" si="62">IF(J84 = "Scatter", J$79, J$80)</f>
+        <f t="shared" ref="O84:O92" si="50">IF(J84 = "Scatter", J$79, J$80)</f>
         <v>3</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84:P92" si="63">IF(K84 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P84:P92" si="51">IF(K84 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84:Q92" si="64">IF(L84 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q84:Q92" si="52">IF(L84 = "Scatter", L$79, L$80)</f>
         <v>79</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84:R92" si="65">IF(M84 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R84:R92" si="53">IF(M84 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84:S92" si="66">IF(N84 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S84:S92" si="54">IF(N84 = "Scatter", N$79, N$80)</f>
         <v>109</v>
       </c>
       <c r="T84">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>232497</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" ref="U84:U91" si="67">T84/$M$17</f>
+        <f t="shared" ref="U84:U91" si="55">T84/$M$17</f>
         <v>3.7065254820936641E-5</v>
       </c>
     </row>
@@ -12233,31 +11877,31 @@
         <v>51</v>
       </c>
       <c r="O85" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="P85" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>79</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>80</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T85">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>170640</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>2.7203856749311293E-5</v>
       </c>
     </row>
@@ -12290,31 +11934,31 @@
         <v>53</v>
       </c>
       <c r="O86" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>109</v>
       </c>
       <c r="T86">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>232497</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>3.7065254820936641E-5</v>
       </c>
     </row>
@@ -12347,31 +11991,31 @@
         <v>51</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>80</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T87">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>170640</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>2.7203856749311293E-5</v>
       </c>
     </row>
@@ -12404,31 +12048,31 @@
         <v>51</v>
       </c>
       <c r="O88" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>3</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>79</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T88">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>168507</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>2.6863808539944903E-5</v>
       </c>
     </row>
@@ -12461,31 +12105,31 @@
         <v>53</v>
       </c>
       <c r="O89" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>109</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>109</v>
       </c>
       <c r="T89">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>320787</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>5.1140668044077137E-5</v>
       </c>
     </row>
@@ -12518,31 +12162,31 @@
         <v>51</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>109</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>80</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T90">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>235440</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>3.7534435261707987E-5</v>
       </c>
     </row>
@@ -12575,31 +12219,31 @@
         <v>51</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>109</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>79</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>232497</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>3.7065254820936641E-5</v>
       </c>
     </row>
@@ -12632,27 +12276,27 @@
         <v>51</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>109</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>79</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>3</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="T92">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>232497</v>
       </c>
       <c r="U92" s="16">
@@ -12705,19 +12349,19 @@
         <v>3</v>
       </c>
       <c r="P94" s="1">
-        <f t="shared" ref="P94" si="68">IF(K94 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P94" si="56">IF(K94 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" ref="Q94" si="69">IF(L94 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q94" si="57">IF(L94 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" ref="R94" si="70">IF(M94 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R94" si="58">IF(M94 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" ref="S94" si="71">IF(N94 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S94" si="59">IF(N94 = "Scatter", N$79, N$80)</f>
         <v>109</v>
       </c>
       <c r="T94">
@@ -12758,23 +12402,23 @@
         <v>51</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" ref="O95:O98" si="72">IF(J95 = "Scatter", J$79, J$80)</f>
+        <f t="shared" ref="O95:O98" si="60">IF(J95 = "Scatter", J$79, J$80)</f>
         <v>3</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" ref="P95:P98" si="73">IF(K95 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P95:P98" si="61">IF(K95 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ref="Q95:Q98" si="74">IF(L95 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q95:Q98" si="62">IF(L95 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" ref="R95:R98" si="75">IF(M95 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R95:R98" si="63">IF(M95 = "Scatter", M$79, M$80)</f>
         <v>80</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" ref="S95:S98" si="76">IF(N95 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S95:S98" si="64">IF(N95 = "Scatter", N$79, N$80)</f>
         <v>3</v>
       </c>
       <c r="T95">
@@ -12815,23 +12459,23 @@
         <v>51</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>79</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="T96">
@@ -12872,23 +12516,23 @@
         <v>51</v>
       </c>
       <c r="O97" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>79</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="T97">
@@ -12929,23 +12573,23 @@
         <v>51</v>
       </c>
       <c r="O98" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>109</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>3</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="T98">
@@ -13001,19 +12645,19 @@
         <v>3</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" ref="P100" si="77">IF(K100 = "Scatter", K$79, K$80)</f>
+        <f t="shared" ref="P100" si="65">IF(K100 = "Scatter", K$79, K$80)</f>
         <v>3</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" ref="Q100" si="78">IF(L100 = "Scatter", L$79, L$80)</f>
+        <f t="shared" ref="Q100" si="66">IF(L100 = "Scatter", L$79, L$80)</f>
         <v>3</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" ref="R100" si="79">IF(M100 = "Scatter", M$79, M$80)</f>
+        <f t="shared" ref="R100" si="67">IF(M100 = "Scatter", M$79, M$80)</f>
         <v>3</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" ref="S100" si="80">IF(N100 = "Scatter", N$79, N$80)</f>
+        <f t="shared" ref="S100" si="68">IF(N100 = "Scatter", N$79, N$80)</f>
         <v>3</v>
       </c>
       <c r="T100">
@@ -13152,7 +12796,7 @@
         <v>15.004963992985497</v>
       </c>
       <c r="W104" s="24">
-        <f t="shared" ref="W104:W105" si="81">V104*$V$77</f>
+        <f t="shared" ref="W104:W105" si="69">V104*$V$77</f>
         <v>3.7317474673363011</v>
       </c>
     </row>
@@ -13185,7 +12829,7 @@
         <v>20.006618657313997</v>
       </c>
       <c r="W105" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>4.9756632897817354</v>
       </c>
     </row>
